--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -5439,6 +5439,62 @@
         <v>37</v>
       </c>
     </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>460</v>
+      </c>
+      <c r="C99" t="n">
+        <v>32</v>
+      </c>
+      <c r="D99" t="n">
+        <v>304</v>
+      </c>
+      <c r="E99" t="n">
+        <v>26</v>
+      </c>
+      <c r="F99" t="n">
+        <v>822</v>
+      </c>
+      <c r="G99" t="n">
+        <v>23</v>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+      <c r="I99" t="n">
+        <v>32</v>
+      </c>
+      <c r="J99" t="n">
+        <v>5203</v>
+      </c>
+      <c r="K99" t="n">
+        <v>3421</v>
+      </c>
+      <c r="L99" t="n">
+        <v>960</v>
+      </c>
+      <c r="M99" t="n">
+        <v>40</v>
+      </c>
+      <c r="N99" t="n">
+        <v>4243</v>
+      </c>
+      <c r="O99" t="n">
+        <v>2</v>
+      </c>
+      <c r="P99" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>336</v>
+      </c>
+      <c r="R99" t="n">
+        <v>736</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -5495,6 +5495,62 @@
         <v>736</v>
       </c>
     </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>496</v>
+      </c>
+      <c r="C100" t="n">
+        <v>34</v>
+      </c>
+      <c r="D100" t="n">
+        <v>392</v>
+      </c>
+      <c r="E100" t="n">
+        <v>26</v>
+      </c>
+      <c r="F100" t="n">
+        <v>948</v>
+      </c>
+      <c r="G100" t="n">
+        <v>25</v>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+      <c r="I100" t="n">
+        <v>34</v>
+      </c>
+      <c r="J100" t="n">
+        <v>5704</v>
+      </c>
+      <c r="K100" t="n">
+        <v>3838</v>
+      </c>
+      <c r="L100" t="n">
+        <v>918</v>
+      </c>
+      <c r="M100" t="n">
+        <v>126</v>
+      </c>
+      <c r="N100" t="n">
+        <v>4786</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>426</v>
+      </c>
+      <c r="R100" t="n">
+        <v>543</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -5551,6 +5551,62 @@
         <v>543</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>496</v>
+      </c>
+      <c r="C101" t="n">
+        <v>34</v>
+      </c>
+      <c r="D101" t="n">
+        <v>392</v>
+      </c>
+      <c r="E101" t="n">
+        <v>26</v>
+      </c>
+      <c r="F101" t="n">
+        <v>948</v>
+      </c>
+      <c r="G101" t="n">
+        <v>25</v>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+      <c r="I101" t="n">
+        <v>34</v>
+      </c>
+      <c r="J101" t="n">
+        <v>5704</v>
+      </c>
+      <c r="K101" t="n">
+        <v>3838</v>
+      </c>
+      <c r="L101" t="n">
+        <v>918</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>4786</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>426</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -1,79 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauLo\Google Drive\Marvellous Math\Coding\RStudio\Covid Jlle\Sites\Datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5A53E8-B214-4001-B249-03F302680DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="COVIDJoinville" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="COVIDJoinville" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t xml:space="preserve">DATA</t>
+    <t>DATA</t>
   </si>
   <si>
-    <t xml:space="preserve">RECUPERADOS</t>
+    <t>RECUPERADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">HOSPITALIZADOS</t>
+    <t>HOSPITALIZADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">ISO_DOMICILIAR</t>
+    <t>ISO_DOMICILIAR</t>
   </si>
   <si>
-    <t xml:space="preserve">MORTES</t>
+    <t>MORTES</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL</t>
+    <t>TOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">UTI</t>
+    <t>UTI</t>
   </si>
   <si>
-    <t xml:space="preserve">ENFERMARIA</t>
+    <t>ENFERMARIA</t>
   </si>
   <si>
-    <t xml:space="preserve">HOSPITALIZADOS2</t>
+    <t>HOSPITALIZADOS2</t>
   </si>
   <si>
-    <t xml:space="preserve">NOTIFICADOS</t>
+    <t>NOTIFICADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">DESCARTADOS</t>
+    <t>DESCARTADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">AGUARDANDO_EX</t>
+    <t>AGUARDANDO_EX</t>
   </si>
   <si>
-    <t xml:space="preserve">CASOS_DIA</t>
+    <t>CASOS_DIA</t>
   </si>
   <si>
-    <t xml:space="preserve">TESTES</t>
+    <t>TESTES</t>
   </si>
   <si>
-    <t xml:space="preserve">MORTES_DIA</t>
+    <t>MORTES_DIA</t>
   </si>
   <si>
-    <t xml:space="preserve">REC_DIA</t>
+    <t>REC_DIA</t>
   </si>
   <si>
-    <t xml:space="preserve">CASOS_ATIVOS</t>
+    <t>CASOS_ATIVOS</t>
   </si>
   <si>
-    <t xml:space="preserve">TESTES_DIA</t>
+    <t>TESTES_DIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -109,6 +116,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -390,14 +406,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="I113" sqref="I113"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,5162 +471,5051 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>87</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>36</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>50</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>37</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>1</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>37</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>109</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>48</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>60</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>49</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>1</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>12</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>129</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>70</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>57</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>72</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>2</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>23</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>143</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>72</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>68</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>1</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>75</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>3</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>3</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>145</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>72</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>69</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>1</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>76</v>
       </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>4</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>145</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>76</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>65</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>80</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>4</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>4</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>4</v>
       </c>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>155</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>102</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>49</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>106</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>4</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>26</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>162</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>116</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>42</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>120</v>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>4</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>14</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>7</v>
       </c>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>169</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>130</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>32</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>3</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>137</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>7</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>17</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>8</v>
       </c>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>176</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>134</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>34</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>1</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>142</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>8</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>5</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>10</v>
       </c>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>191</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>136</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>45</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>2</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>146</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>10</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>4</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>10</v>
       </c>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>204</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>136</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>58</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>146</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>10</v>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>10</v>
       </c>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>208</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>136</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>62</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
         <v>146</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>10</v>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19" t="n">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>15</v>
       </c>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>219</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>159</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>45</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>5</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>174</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>14</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>28</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>8</v>
       </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>15</v>
       </c>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>248</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>167</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>66</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
         <v>182</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>8</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>6</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>8</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>10</v>
       </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>18</v>
       </c>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>259</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>173</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>68</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>3</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>191</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
         <v>2</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21">
         <v>7</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21">
         <v>9</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>11</v>
       </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>19</v>
       </c>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>294</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>176</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>99</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>1</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>195</v>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
         <v>1</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22">
         <v>7</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22">
         <v>4</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>12</v>
       </c>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>20</v>
       </c>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>306</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>179</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>107</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>1</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>199</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
         <v>1</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23">
         <v>7</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23">
         <v>4</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>12</v>
       </c>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>23</v>
       </c>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>315</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>189</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>103</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>3</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24">
         <v>212</v>
       </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>10</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24">
         <v>13</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>12</v>
       </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>33</v>
       </c>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>326</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>216</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>77</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>10</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>249</v>
       </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>20</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25">
         <v>37</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>13</v>
       </c>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>40</v>
       </c>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>356</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>250</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>66</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>7</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26">
         <v>290</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
         <v>1</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26">
         <v>26</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26">
         <v>41</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>13</v>
       </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>43</v>
       </c>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>372</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>275</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>54</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>3</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
         <v>318</v>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>29</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27">
         <v>28</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>13</v>
       </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>48</v>
       </c>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>382</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>292</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>42</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>5</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
         <v>340</v>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>34</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R28">
         <v>22</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>13</v>
       </c>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>51</v>
       </c>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>410</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>313</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>46</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>3</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29">
         <v>364</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>37</v>
       </c>
-      <c r="R29" t="n">
+      <c r="R29">
         <v>24</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>13</v>
       </c>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>51</v>
       </c>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>426</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>314</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>61</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
         <v>365</v>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>37</v>
       </c>
-      <c r="R30" t="n">
+      <c r="R30">
         <v>1</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>19</v>
       </c>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>54</v>
       </c>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>426</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>337</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>35</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>3</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31">
         <v>391</v>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
         <v>6</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31">
         <v>34</v>
       </c>
-      <c r="R31" t="n">
+      <c r="R31">
         <v>26</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>19</v>
       </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>2</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>54</v>
       </c>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>426</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>337</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>35</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
         <v>391</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O32">
         <v>1</v>
       </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>33</v>
       </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>20</v>
       </c>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>2</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>59</v>
       </c>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>463</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>378</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>26</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>5</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33">
         <v>437</v>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
         <v>1</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33">
         <v>37</v>
       </c>
-      <c r="R33" t="n">
+      <c r="R33">
         <v>46</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>22</v>
       </c>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>64</v>
       </c>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>473</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>384</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>25</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34">
         <v>5</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34">
         <v>448</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
         <v>2</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q34">
         <v>40</v>
       </c>
-      <c r="R34" t="n">
+      <c r="R34">
         <v>11</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>22</v>
       </c>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>2</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>70</v>
       </c>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>488</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>394</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>24</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>6</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N35">
         <v>464</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>46</v>
       </c>
-      <c r="R35" t="n">
+      <c r="R35">
         <v>16</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>22</v>
       </c>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>2</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>73</v>
       </c>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>537</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>403</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>61</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36">
         <v>3</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N36">
         <v>476</v>
       </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>49</v>
       </c>
-      <c r="R36" t="n">
+      <c r="R36">
         <v>12</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>22</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>14</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>47</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>85</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>3</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>11</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>14</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>558</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>418</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>55</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37">
         <v>12</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37">
         <v>503</v>
       </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>61</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R37">
         <v>27</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>22</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>16</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>46</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>86</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>3</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>13</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>16</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>596</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>447</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38">
         <v>63</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38">
         <v>1</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N38">
         <v>533</v>
       </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>62</v>
       </c>
-      <c r="R38" t="n">
+      <c r="R38">
         <v>30</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>22</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>19</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>50</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>2</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>93</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>3</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>16</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>19</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>619</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>488</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>38</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M39">
         <v>7</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N39">
         <v>581</v>
       </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>69</v>
       </c>
-      <c r="R39" t="n">
+      <c r="R39">
         <v>48</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>31</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>11</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>50</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>2</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>94</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>1</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>10</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>11</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>619</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>486</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>39</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40">
         <v>1</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N40">
         <v>580</v>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
         <v>9</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="Q40">
         <v>61</v>
       </c>
-      <c r="R40" t="n">
+      <c r="R40">
         <v>-1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>31</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>11</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>57</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>2</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>101</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>1</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>10</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>11</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>652</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>500</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>51</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41">
         <v>7</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N41">
         <v>601</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>68</v>
       </c>
-      <c r="R41" t="n">
+      <c r="R41">
         <v>21</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>31</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>16</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>60</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>2</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>109</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>3</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>13</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>16</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>669</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>527</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42">
         <v>33</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M42">
         <v>8</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N42">
         <v>636</v>
       </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>76</v>
       </c>
-      <c r="R42" t="n">
+      <c r="R42">
         <v>35</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>34</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>12</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>66</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>2</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>114</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>3</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>9</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>12</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>698</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>541</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43">
         <v>43</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43">
         <v>5</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N43">
         <v>655</v>
       </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
         <v>3</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="Q43">
         <v>78</v>
       </c>
-      <c r="R43" t="n">
+      <c r="R43">
         <v>19</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>34</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>13</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>79</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>2</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>128</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>4</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>9</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>13</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>734</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>575</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44">
         <v>31</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44">
         <v>14</v>
       </c>
-      <c r="N44" t="n">
+      <c r="N44">
         <v>703</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>92</v>
       </c>
-      <c r="R44" t="n">
+      <c r="R44">
         <v>48</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>34</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>13</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>80</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>130</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>4</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>9</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>13</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>749</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>584</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L45">
         <v>35</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M45">
         <v>2</v>
       </c>
-      <c r="N45" t="n">
+      <c r="N45">
         <v>714</v>
       </c>
-      <c r="O45" t="n">
+      <c r="O45">
         <v>1</v>
       </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <v>93</v>
       </c>
-      <c r="R45" t="n">
+      <c r="R45">
         <v>11</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>34</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>13</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>80</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>3</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>130</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>4</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>9</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>13</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>765</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>587</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46">
         <v>48</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
         <v>717</v>
       </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>93</v>
       </c>
-      <c r="R46" t="n">
+      <c r="R46">
         <v>3</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>37</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>14</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>91</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>3</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>145</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>4</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>10</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>14</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>776</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>605</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47">
         <v>26</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M47">
         <v>15</v>
       </c>
-      <c r="N47" t="n">
+      <c r="N47">
         <v>750</v>
       </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
         <v>3</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="Q47">
         <v>105</v>
       </c>
-      <c r="R47" t="n">
+      <c r="R47">
         <v>33</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>38</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>17</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>88</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>3</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>146</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>7</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>10</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>17</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>832</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>628</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L48">
         <v>58</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M48">
         <v>1</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N48">
         <v>774</v>
       </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
         <v>1</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q48">
         <v>105</v>
       </c>
-      <c r="R48" t="n">
+      <c r="R48">
         <v>24</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>38</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>18</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>114</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>3</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>173</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>7</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>11</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>18</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>862</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>632</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L49">
         <v>57</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M49">
         <v>27</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N49">
         <v>805</v>
       </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="n">
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
         <v>132</v>
       </c>
-      <c r="R49" t="n">
+      <c r="R49">
         <v>31</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>38</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>22</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>127</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>4</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>191</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>8</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>14</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>22</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>941</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>701</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L50">
         <v>49</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M50">
         <v>18</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N50">
         <v>892</v>
       </c>
-      <c r="O50" t="n">
+      <c r="O50">
         <v>1</v>
       </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="n">
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>149</v>
       </c>
-      <c r="R50" t="n">
+      <c r="R50">
         <v>87</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>38</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>24</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>136</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>5</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>203</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>9</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>15</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>24</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>979</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>740</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51">
         <v>36</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M51">
         <v>12</v>
       </c>
-      <c r="N51" t="n">
+      <c r="N51">
         <v>943</v>
       </c>
-      <c r="O51" t="n">
+      <c r="O51">
         <v>1</v>
       </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
         <v>160</v>
       </c>
-      <c r="R51" t="n">
+      <c r="R51">
         <v>51</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>38</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>24</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>136</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>5</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>203</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>9</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>15</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>24</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>994</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>740</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L52">
         <v>51</v>
       </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
         <v>943</v>
       </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
         <v>160</v>
       </c>
-      <c r="R52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>38</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>25</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>138</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>5</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>206</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>9</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>16</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>25</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>1012</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>777</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L53">
         <v>29</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M53">
         <v>3</v>
       </c>
-      <c r="N53" t="n">
+      <c r="N53">
         <v>983</v>
       </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="n">
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
         <v>163</v>
       </c>
-      <c r="R53" t="n">
+      <c r="R53">
         <v>40</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>44</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>24</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>141</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>6</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>215</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>10</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>14</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>24</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>1048</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>804</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L54">
         <v>29</v>
       </c>
-      <c r="M54" t="n">
+      <c r="M54">
         <v>9</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N54">
         <v>1019</v>
       </c>
-      <c r="O54" t="n">
+      <c r="O54">
         <v>1</v>
       </c>
-      <c r="P54" t="n">
+      <c r="P54">
         <v>6</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="Q54">
         <v>165</v>
       </c>
-      <c r="R54" t="n">
+      <c r="R54">
         <v>36</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>47</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>25</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>141</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>6</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>219</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>10</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>15</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>25</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>1095</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>839</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L55">
         <v>37</v>
       </c>
-      <c r="M55" t="n">
+      <c r="M55">
         <v>4</v>
       </c>
-      <c r="N55" t="n">
+      <c r="N55">
         <v>1058</v>
       </c>
-      <c r="O55" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" t="n">
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
         <v>3</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="Q55">
         <v>166</v>
       </c>
-      <c r="R55" t="n">
+      <c r="R55">
         <v>39</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>84</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>25</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>122</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>6</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>237</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>9</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>16</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>25</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>1144</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>859</v>
       </c>
-      <c r="L56" t="n">
+      <c r="L56">
         <v>48</v>
       </c>
-      <c r="M56" t="n">
+      <c r="M56">
         <v>18</v>
       </c>
-      <c r="N56" t="n">
+      <c r="N56">
         <v>1096</v>
       </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
         <v>37</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="Q56">
         <v>147</v>
       </c>
-      <c r="R56" t="n">
+      <c r="R56">
         <v>38</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>84</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>26</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>129</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>6</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>245</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>10</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>16</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>26</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>1188</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>906</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L57">
         <v>37</v>
       </c>
-      <c r="M57" t="n">
+      <c r="M57">
         <v>8</v>
       </c>
-      <c r="N57" t="n">
+      <c r="N57">
         <v>1151</v>
       </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
         <v>155</v>
       </c>
-      <c r="R57" t="n">
+      <c r="R57">
         <v>55</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>100</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>27</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>123</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>6</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>256</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>10</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>17</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>27</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>1237</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58">
         <v>950</v>
       </c>
-      <c r="L58" t="n">
+      <c r="L58">
         <v>31</v>
       </c>
-      <c r="M58" t="n">
+      <c r="M58">
         <v>11</v>
       </c>
-      <c r="N58" t="n">
+      <c r="N58">
         <v>1206</v>
       </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
         <v>16</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="Q58">
         <v>150</v>
       </c>
-      <c r="R58" t="n">
+      <c r="R58">
         <v>55</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>100</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>28</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>129</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>6</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>263</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>10</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>18</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>28</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>1261</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>963</v>
       </c>
-      <c r="L59" t="n">
+      <c r="L59">
         <v>35</v>
       </c>
-      <c r="M59" t="n">
+      <c r="M59">
         <v>7</v>
       </c>
-      <c r="N59" t="n">
+      <c r="N59">
         <v>1226</v>
       </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="n">
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
         <v>157</v>
       </c>
-      <c r="R59" t="n">
+      <c r="R59">
         <v>20</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>100</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>27</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>128</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>8</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>263</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>9</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>18</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>27</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>1290</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>982</v>
       </c>
-      <c r="L60" t="n">
+      <c r="L60">
         <v>45</v>
       </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
         <v>1245</v>
       </c>
-      <c r="O60" t="n">
+      <c r="O60">
         <v>2</v>
       </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="n">
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>155</v>
       </c>
-      <c r="R60" t="n">
+      <c r="R60">
         <v>19</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>105</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>25</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>132</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>8</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>270</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>11</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>14</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>25</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>1314</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>1020</v>
       </c>
-      <c r="L61" t="n">
+      <c r="L61">
         <v>24</v>
       </c>
-      <c r="M61" t="n">
+      <c r="M61">
         <v>7</v>
       </c>
-      <c r="N61" t="n">
+      <c r="N61">
         <v>1290</v>
       </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
         <v>5</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="Q61">
         <v>157</v>
       </c>
-      <c r="R61" t="n">
+      <c r="R61">
         <v>45</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>105</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>24</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>137</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>10</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>276</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>16</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>8</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>24</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>1341</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62">
         <v>1030</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L62">
         <v>35</v>
       </c>
-      <c r="M62" t="n">
+      <c r="M62">
         <v>6</v>
       </c>
-      <c r="N62" t="n">
+      <c r="N62">
         <v>1306</v>
       </c>
-      <c r="O62" t="n">
+      <c r="O62">
         <v>2</v>
       </c>
-      <c r="P62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="n">
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
         <v>161</v>
       </c>
-      <c r="R62" t="n">
+      <c r="R62">
         <v>16</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>148</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>23</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>101</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>10</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>282</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>16</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>7</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>23</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>1368</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>1053</v>
       </c>
-      <c r="L63" t="n">
+      <c r="L63">
         <v>33</v>
       </c>
-      <c r="M63" t="n">
+      <c r="M63">
         <v>6</v>
       </c>
-      <c r="N63" t="n">
+      <c r="N63">
         <v>1335</v>
       </c>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="n">
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
         <v>43</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="Q63">
         <v>124</v>
       </c>
-      <c r="R63" t="n">
+      <c r="R63">
         <v>29</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>164</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>21</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>95</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>11</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>291</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>15</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>6</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>21</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>1396</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>1065</v>
       </c>
-      <c r="L64" t="n">
+      <c r="L64">
         <v>40</v>
       </c>
-      <c r="M64" t="n">
+      <c r="M64">
         <v>9</v>
       </c>
-      <c r="N64" t="n">
+      <c r="N64">
         <v>1356</v>
       </c>
-      <c r="O64" t="n">
+      <c r="O64">
         <v>1</v>
       </c>
-      <c r="P64" t="n">
+      <c r="P64">
         <v>16</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="Q64">
         <v>116</v>
       </c>
-      <c r="R64" t="n">
+      <c r="R64">
         <v>21</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>164</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>21</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>104</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>13</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>302</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>14</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>7</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>21</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>1442</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K65">
         <v>1075</v>
       </c>
-      <c r="L65" t="n">
+      <c r="L65">
         <v>65</v>
       </c>
-      <c r="M65" t="n">
+      <c r="M65">
         <v>11</v>
       </c>
-      <c r="N65" t="n">
+      <c r="N65">
         <v>1377</v>
       </c>
-      <c r="O65" t="n">
+      <c r="O65">
         <v>2</v>
       </c>
-      <c r="P65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="n">
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
         <v>125</v>
       </c>
-      <c r="R65" t="n">
+      <c r="R65">
         <v>21</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>164</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>26</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>109</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>13</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>312</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>16</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>10</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>26</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>1442</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66">
         <v>1109</v>
       </c>
-      <c r="L66" t="n">
+      <c r="L66">
         <v>21</v>
       </c>
-      <c r="M66" t="n">
+      <c r="M66">
         <v>10</v>
       </c>
-      <c r="N66" t="n">
+      <c r="N66">
         <v>1421</v>
       </c>
-      <c r="O66" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" t="n">
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
         <v>135</v>
       </c>
-      <c r="R66" t="n">
+      <c r="R66">
         <v>44</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>164</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>24</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>111</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>13</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>312</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>14</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>10</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>24</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>1449</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67">
         <v>1111</v>
       </c>
-      <c r="L67" t="n">
+      <c r="L67">
         <v>26</v>
       </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
         <v>1423</v>
       </c>
-      <c r="O67" t="n">
-        <v>0</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="n">
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
         <v>135</v>
       </c>
-      <c r="R67" t="n">
+      <c r="R67">
         <v>2</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>164</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>24</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>116</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>13</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>317</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>16</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>8</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>24</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>1473</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K68">
         <v>1135</v>
       </c>
-      <c r="L68" t="n">
+      <c r="L68">
         <v>21</v>
       </c>
-      <c r="M68" t="n">
+      <c r="M68">
         <v>5</v>
       </c>
-      <c r="N68" t="n">
+      <c r="N68">
         <v>1452</v>
       </c>
-      <c r="O68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="n">
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
         <v>140</v>
       </c>
-      <c r="R68" t="n">
+      <c r="R68">
         <v>29</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>164</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>22</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>120</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>13</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>319</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>16</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>6</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>22</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>1498</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K69">
         <v>1144</v>
       </c>
-      <c r="L69" t="n">
+      <c r="L69">
         <v>35</v>
       </c>
-      <c r="M69" t="n">
+      <c r="M69">
         <v>2</v>
       </c>
-      <c r="N69" t="n">
+      <c r="N69">
         <v>1463</v>
       </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
         <v>142</v>
       </c>
-      <c r="R69" t="n">
+      <c r="R69">
         <v>11</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>191</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>20</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>98</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>14</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>323</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>16</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>4</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>20</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>1517</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70">
         <v>1144</v>
       </c>
-      <c r="L70" t="n">
+      <c r="L70">
         <v>50</v>
       </c>
-      <c r="M70" t="n">
+      <c r="M70">
         <v>4</v>
       </c>
-      <c r="N70" t="n">
+      <c r="N70">
         <v>1467</v>
       </c>
-      <c r="O70" t="n">
+      <c r="O70">
         <v>1</v>
       </c>
-      <c r="P70" t="n">
+      <c r="P70">
         <v>27</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="Q70">
         <v>118</v>
       </c>
-      <c r="R70" t="n">
+      <c r="R70">
         <v>4</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>206</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>19</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>91</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>14</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>330</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>15</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>4</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>19</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>1540</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K71">
         <v>1172</v>
       </c>
-      <c r="L71" t="n">
+      <c r="L71">
         <v>38</v>
       </c>
-      <c r="M71" t="n">
+      <c r="M71">
         <v>7</v>
       </c>
-      <c r="N71" t="n">
+      <c r="N71">
         <v>1502</v>
       </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
         <v>15</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="Q71">
         <v>110</v>
       </c>
-      <c r="R71" t="n">
+      <c r="R71">
         <v>35</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>206</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>22</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>92</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>15</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>335</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>17</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>5</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>22</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>1555</v>
       </c>
-      <c r="K72" t="n">
+      <c r="K72">
         <v>1195</v>
       </c>
-      <c r="L72" t="n">
+      <c r="L72">
         <v>25</v>
       </c>
-      <c r="M72" t="n">
+      <c r="M72">
         <v>5</v>
       </c>
-      <c r="N72" t="n">
+      <c r="N72">
         <v>1530</v>
       </c>
-      <c r="O72" t="n">
+      <c r="O72">
         <v>1</v>
       </c>
-      <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="n">
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
         <v>114</v>
       </c>
-      <c r="R72" t="n">
+      <c r="R72">
         <v>28</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>206</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>22</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>102</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>15</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>345</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>17</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>5</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>22</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>1565</v>
       </c>
-      <c r="K73" t="n">
+      <c r="K73">
         <v>1200</v>
       </c>
-      <c r="L73" t="n">
+      <c r="L73">
         <v>20</v>
       </c>
-      <c r="M73" t="n">
+      <c r="M73">
         <v>10</v>
       </c>
-      <c r="N73" t="n">
+      <c r="N73">
         <v>1545</v>
       </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="n">
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
         <v>124</v>
       </c>
-      <c r="R73" t="n">
+      <c r="R73">
         <v>15</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>206</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>23</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>117</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>15</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>361</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>18</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>5</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>23</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74">
         <v>1616</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K74">
         <v>1223</v>
       </c>
-      <c r="L74" t="n">
+      <c r="L74">
         <v>32</v>
       </c>
-      <c r="M74" t="n">
+      <c r="M74">
         <v>16</v>
       </c>
-      <c r="N74" t="n">
+      <c r="N74">
         <v>1584</v>
       </c>
-      <c r="O74" t="n">
-        <v>0</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q74" t="n">
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
         <v>140</v>
       </c>
-      <c r="R74" t="n">
+      <c r="R74">
         <v>39</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>207</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>28</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>123</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>15</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>373</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>20</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>8</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>28</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75">
         <v>1638</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K75">
         <v>1240</v>
       </c>
-      <c r="L75" t="n">
+      <c r="L75">
         <v>25</v>
       </c>
-      <c r="M75" t="n">
+      <c r="M75">
         <v>12</v>
       </c>
-      <c r="N75" t="n">
+      <c r="N75">
         <v>1613</v>
       </c>
-      <c r="O75" t="n">
-        <v>0</v>
-      </c>
-      <c r="P75" t="n">
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
         <v>1</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="Q75">
         <v>151</v>
       </c>
-      <c r="R75" t="n">
+      <c r="R75">
         <v>29</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>257</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>22</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>92</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>18</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>389</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>19</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>3</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>22</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>1671</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K76">
         <v>1257</v>
       </c>
-      <c r="L76" t="n">
+      <c r="L76">
         <v>25</v>
       </c>
-      <c r="M76" t="n">
+      <c r="M76">
         <v>16</v>
       </c>
-      <c r="N76" t="n">
+      <c r="N76">
         <v>1646</v>
       </c>
-      <c r="O76" t="n">
+      <c r="O76">
         <v>3</v>
       </c>
-      <c r="P76" t="n">
+      <c r="P76">
         <v>50</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="Q76">
         <v>114</v>
       </c>
-      <c r="R76" t="n">
+      <c r="R76">
         <v>33</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>296</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>21</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>55</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>20</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>392</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>16</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>5</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77">
         <v>21</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77">
         <v>1690</v>
       </c>
-      <c r="K77" t="n">
+      <c r="K77">
         <v>1264</v>
       </c>
-      <c r="L77" t="n">
+      <c r="L77">
         <v>34</v>
       </c>
-      <c r="M77" t="n">
+      <c r="M77">
         <v>3</v>
       </c>
-      <c r="N77" t="n">
+      <c r="N77">
         <v>1656</v>
       </c>
-      <c r="O77" t="n">
+      <c r="O77">
         <v>2</v>
       </c>
-      <c r="P77" t="n">
+      <c r="P77">
         <v>39</v>
       </c>
-      <c r="Q77" t="n">
+      <c r="Q77">
         <v>76</v>
       </c>
-      <c r="R77" t="n">
+      <c r="R77">
         <v>10</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>308</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>24</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>56</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>21</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>409</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>17</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>7</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>24</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78">
         <v>2109</v>
       </c>
-      <c r="K78" t="n">
+      <c r="K78">
         <v>1286</v>
       </c>
-      <c r="L78" t="n">
+      <c r="L78">
         <v>414</v>
       </c>
-      <c r="M78" t="n">
+      <c r="M78">
         <v>17</v>
       </c>
-      <c r="N78" t="n">
+      <c r="N78">
         <v>1695</v>
       </c>
-      <c r="O78" t="n">
+      <c r="O78">
         <v>1</v>
       </c>
-      <c r="P78" t="n">
+      <c r="P78">
         <v>12</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="Q78">
         <v>80</v>
       </c>
-      <c r="R78" t="n">
+      <c r="R78">
         <v>39</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>312</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>26</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>64</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>20</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>422</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>20</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>6</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79">
         <v>26</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79">
         <v>2405</v>
       </c>
-      <c r="K79" t="n">
+      <c r="K79">
         <v>1309</v>
       </c>
-      <c r="L79" t="n">
+      <c r="L79">
         <v>674</v>
       </c>
-      <c r="M79" t="n">
+      <c r="M79">
         <v>13</v>
       </c>
-      <c r="N79" t="n">
+      <c r="N79">
         <v>1731</v>
       </c>
-      <c r="O79" t="n">
+      <c r="O79">
         <v>-1</v>
       </c>
-      <c r="P79" t="n">
+      <c r="P79">
         <v>4</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="Q79">
         <v>90</v>
       </c>
-      <c r="R79" t="n">
+      <c r="R79">
         <v>36</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>312</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>25</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>65</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>21</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>423</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>21</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>4</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80">
         <v>25</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80">
         <v>2406</v>
       </c>
-      <c r="K80" t="n">
+      <c r="K80">
         <v>1310</v>
       </c>
-      <c r="L80" t="n">
+      <c r="L80">
         <v>673</v>
       </c>
-      <c r="M80" t="n">
+      <c r="M80">
         <v>1</v>
       </c>
-      <c r="N80" t="n">
+      <c r="N80">
         <v>1733</v>
       </c>
-      <c r="O80" t="n">
+      <c r="O80">
         <v>1</v>
       </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="n">
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
         <v>90</v>
       </c>
-      <c r="R80" t="n">
+      <c r="R80">
         <v>2</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>312</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>22</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>67</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>22</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>423</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>19</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>3</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>22</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81">
         <v>2406</v>
       </c>
-      <c r="K81" t="n">
+      <c r="K81">
         <v>1334</v>
       </c>
-      <c r="L81" t="n">
+      <c r="L81">
         <v>649</v>
       </c>
-      <c r="M81" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" t="n">
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
         <v>1757</v>
       </c>
-      <c r="O81" t="n">
+      <c r="O81">
         <v>1</v>
       </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="n">
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
         <v>89</v>
       </c>
-      <c r="R81" t="n">
+      <c r="R81">
         <v>24</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>321</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>23</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>78</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>22</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>444</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>20</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>3</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>23</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>2455</v>
       </c>
-      <c r="K82" t="n">
+      <c r="K82">
         <v>1379</v>
       </c>
-      <c r="L82" t="n">
+      <c r="L82">
         <v>632</v>
       </c>
-      <c r="M82" t="n">
+      <c r="M82">
         <v>21</v>
       </c>
-      <c r="N82" t="n">
+      <c r="N82">
         <v>1823</v>
       </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
         <v>9</v>
       </c>
-      <c r="Q82" t="n">
+      <c r="Q82">
         <v>101</v>
       </c>
-      <c r="R82" t="n">
+      <c r="R82">
         <v>66</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>333</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>23</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>70</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>22</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>448</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>20</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>3</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83">
         <v>23</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83">
         <v>2455</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K83">
         <v>1601</v>
       </c>
-      <c r="L83" t="n">
+      <c r="L83">
         <v>406</v>
       </c>
-      <c r="M83" t="n">
+      <c r="M83">
         <v>4</v>
       </c>
-      <c r="N83" t="n">
+      <c r="N83">
         <v>2049</v>
       </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
         <v>12</v>
       </c>
-      <c r="Q83" t="n">
+      <c r="Q83">
         <v>93</v>
       </c>
-      <c r="R83" t="n">
+      <c r="R83">
         <v>226</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>335</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>22</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>73</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>22</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>452</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>18</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>4</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>22</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84">
         <v>3017</v>
       </c>
-      <c r="K84" t="n">
+      <c r="K84">
         <v>1941</v>
       </c>
-      <c r="L84" t="n">
+      <c r="L84">
         <v>624</v>
       </c>
-      <c r="M84" t="n">
+      <c r="M84">
         <v>4</v>
       </c>
-      <c r="N84" t="n">
+      <c r="N84">
         <v>2393</v>
       </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
         <v>2</v>
       </c>
-      <c r="Q84" t="n">
+      <c r="Q84">
         <v>95</v>
       </c>
-      <c r="R84" t="n">
+      <c r="R84">
         <v>344</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>337</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>22</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>80</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>22</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>461</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>18</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>4</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>22</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>3470</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K85">
         <v>1951</v>
       </c>
-      <c r="L85" t="n">
+      <c r="L85">
         <v>1058</v>
       </c>
-      <c r="M85" t="n">
+      <c r="M85">
         <v>9</v>
       </c>
-      <c r="N85" t="n">
+      <c r="N85">
         <v>2412</v>
       </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
         <v>2</v>
       </c>
-      <c r="Q85" t="n">
+      <c r="Q85">
         <v>102</v>
       </c>
-      <c r="R85" t="n">
+      <c r="R85">
         <v>19</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>339</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>25</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>92</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>23</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>479</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>17</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>8</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>25</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86">
         <v>3489</v>
       </c>
-      <c r="K86" t="n">
+      <c r="K86">
         <v>2002</v>
       </c>
-      <c r="L86" t="n">
+      <c r="L86">
         <v>1008</v>
       </c>
-      <c r="M86" t="n">
+      <c r="M86">
         <v>18</v>
       </c>
-      <c r="N86" t="n">
+      <c r="N86">
         <v>2481</v>
       </c>
-      <c r="O86" t="n">
+      <c r="O86">
         <v>1</v>
       </c>
-      <c r="P86" t="n">
+      <c r="P86">
         <v>2</v>
       </c>
-      <c r="Q86" t="n">
+      <c r="Q86">
         <v>117</v>
       </c>
-      <c r="R86" t="n">
+      <c r="R86">
         <v>69</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>339</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>25</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>92</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>23</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>479</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>17</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>8</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>25</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87">
         <v>3489</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K87">
         <v>2002</v>
       </c>
-      <c r="L87" t="n">
+      <c r="L87">
         <v>1008</v>
       </c>
-      <c r="M87" t="n">
-        <v>0</v>
-      </c>
-      <c r="N87" t="n">
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
         <v>2481</v>
       </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
         <v>117</v>
       </c>
-      <c r="R87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
+      <c r="R87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>339</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>25</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>92</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>23</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>479</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>17</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>8</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>25</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88">
         <v>3489</v>
       </c>
-      <c r="K88" t="n">
+      <c r="K88">
         <v>2002</v>
       </c>
-      <c r="L88" t="n">
+      <c r="L88">
         <v>1008</v>
       </c>
-      <c r="M88" t="n">
-        <v>0</v>
-      </c>
-      <c r="N88" t="n">
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
         <v>2481</v>
       </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
         <v>117</v>
       </c>
-      <c r="R88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
+      <c r="R88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>339</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>27</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>119</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>23</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>508</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>18</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>9</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89">
         <v>27</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89">
         <v>3515</v>
       </c>
-      <c r="K89" t="n">
+      <c r="K89">
         <v>2125</v>
       </c>
-      <c r="L89" t="n">
+      <c r="L89">
         <v>882</v>
       </c>
-      <c r="M89" t="n">
+      <c r="M89">
         <v>29</v>
       </c>
-      <c r="N89" t="n">
+      <c r="N89">
         <v>2633</v>
       </c>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
         <v>146</v>
       </c>
-      <c r="R89" t="n">
+      <c r="R89">
         <v>152</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>340</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>26</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>167</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>23</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>556</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>19</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>7</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90">
         <v>26</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90">
         <v>3629</v>
       </c>
-      <c r="K90" t="n">
+      <c r="K90">
         <v>2168</v>
       </c>
-      <c r="L90" t="n">
+      <c r="L90">
         <v>905</v>
       </c>
-      <c r="M90" t="n">
+      <c r="M90">
         <v>48</v>
       </c>
-      <c r="N90" t="n">
+      <c r="N90">
         <v>2724</v>
       </c>
-      <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="n">
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
         <v>1</v>
       </c>
-      <c r="Q90" t="n">
+      <c r="Q90">
         <v>193</v>
       </c>
-      <c r="R90" t="n">
+      <c r="R90">
         <v>91</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>340</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>27</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>231</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>23</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>621</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>21</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>6</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I91">
         <v>27</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91">
         <v>4005</v>
       </c>
-      <c r="K91" t="n">
+      <c r="K91">
         <v>2187</v>
       </c>
-      <c r="L91" t="n">
+      <c r="L91">
         <v>1197</v>
       </c>
-      <c r="M91" t="n">
+      <c r="M91">
         <v>65</v>
       </c>
-      <c r="N91" t="n">
+      <c r="N91">
         <v>2808</v>
       </c>
-      <c r="O91" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="n">
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
         <v>258</v>
       </c>
-      <c r="R91" t="n">
+      <c r="R91">
         <v>84</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>345</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>24</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>253</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>23</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>645</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>17</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>7</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92">
         <v>24</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92">
         <v>4063</v>
       </c>
-      <c r="K92" t="n">
+      <c r="K92">
         <v>2210</v>
       </c>
-      <c r="L92" t="n">
+      <c r="L92">
         <v>1208</v>
       </c>
-      <c r="M92" t="n">
+      <c r="M92">
         <v>24</v>
       </c>
-      <c r="N92" t="n">
+      <c r="N92">
         <v>2855</v>
       </c>
-      <c r="O92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
         <v>5</v>
       </c>
-      <c r="Q92" t="n">
+      <c r="Q92">
         <v>277</v>
       </c>
-      <c r="R92" t="n">
+      <c r="R92">
         <v>47</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>411</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>23</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>197</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>23</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>654</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>17</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>6</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I93">
         <v>23</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93">
         <v>4063</v>
       </c>
-      <c r="K93" t="n">
+      <c r="K93">
         <v>2469</v>
       </c>
-      <c r="L93" t="n">
+      <c r="L93">
         <v>940</v>
       </c>
-      <c r="M93" t="n">
+      <c r="M93">
         <v>9</v>
       </c>
-      <c r="N93" t="n">
+      <c r="N93">
         <v>3123</v>
       </c>
-      <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
         <v>66</v>
       </c>
-      <c r="Q93" t="n">
+      <c r="Q93">
         <v>220</v>
       </c>
-      <c r="R93" t="n">
+      <c r="R93">
         <v>268</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>411</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>23</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>197</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>23</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>654</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>17</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>6</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I94">
         <v>23</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94">
         <v>4063</v>
       </c>
-      <c r="K94" t="n">
+      <c r="K94">
         <v>2469</v>
       </c>
-      <c r="L94" t="n">
+      <c r="L94">
         <v>940</v>
       </c>
-      <c r="M94" t="n">
-        <v>0</v>
-      </c>
-      <c r="N94" t="n">
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
         <v>3123</v>
       </c>
-      <c r="O94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="n">
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
         <v>220</v>
       </c>
-      <c r="R94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
+      <c r="R94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>411</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>23</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>197</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>23</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>654</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>17</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>6</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I95">
         <v>23</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95">
         <v>4063</v>
       </c>
-      <c r="K95" t="n">
+      <c r="K95">
         <v>2469</v>
       </c>
-      <c r="L95" t="n">
+      <c r="L95">
         <v>940</v>
       </c>
-      <c r="M95" t="n">
-        <v>0</v>
-      </c>
-      <c r="N95" t="n">
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
         <v>3123</v>
       </c>
-      <c r="O95" t="n">
-        <v>0</v>
-      </c>
-      <c r="P95" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q95" t="n">
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
         <v>220</v>
       </c>
-      <c r="R95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
+      <c r="R95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>411</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>34</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>239</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>24</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>708</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>24</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>10</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96">
         <v>34</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96">
         <v>4247</v>
       </c>
-      <c r="K96" t="n">
+      <c r="K96">
         <v>2710</v>
       </c>
-      <c r="L96" t="n">
+      <c r="L96">
         <v>829</v>
       </c>
-      <c r="M96" t="n">
+      <c r="M96">
         <v>54</v>
       </c>
-      <c r="N96" t="n">
+      <c r="N96">
         <v>3418</v>
       </c>
-      <c r="O96" t="n">
+      <c r="O96">
         <v>1</v>
       </c>
-      <c r="P96" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q96" t="n">
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
         <v>273</v>
       </c>
-      <c r="R96" t="n">
+      <c r="R96">
         <v>295</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>420</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>32</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>271</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>24</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>747</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>20</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>12</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I97">
         <v>32</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J97">
         <v>4335</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K97">
         <v>2723</v>
       </c>
-      <c r="L97" t="n">
+      <c r="L97">
         <v>865</v>
       </c>
-      <c r="M97" t="n">
+      <c r="M97">
         <v>39</v>
       </c>
-      <c r="N97" t="n">
+      <c r="N97">
         <v>3470</v>
       </c>
-      <c r="O97" t="n">
-        <v>0</v>
-      </c>
-      <c r="P97" t="n">
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
         <v>9</v>
       </c>
-      <c r="Q97" t="n">
+      <c r="Q97">
         <v>303</v>
       </c>
-      <c r="R97" t="n">
+      <c r="R97">
         <v>52</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>422</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>35</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>301</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>24</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>782</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>23</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>12</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I98">
         <v>35</v>
       </c>
-      <c r="J98" t="n">
+      <c r="J98">
         <v>4424</v>
       </c>
-      <c r="K98" t="n">
+      <c r="K98">
         <v>2725</v>
       </c>
-      <c r="L98" t="n">
+      <c r="L98">
         <v>917</v>
       </c>
-      <c r="M98" t="n">
+      <c r="M98">
         <v>35</v>
       </c>
-      <c r="N98" t="n">
+      <c r="N98">
         <v>3507</v>
       </c>
-      <c r="O98" t="n">
-        <v>0</v>
-      </c>
-      <c r="P98" t="n">
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
         <v>2</v>
       </c>
-      <c r="Q98" t="n">
+      <c r="Q98">
         <v>336</v>
       </c>
-      <c r="R98" t="n">
+      <c r="R98">
         <v>37</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>460</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>32</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>304</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>26</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>822</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>23</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>9</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99">
         <v>32</v>
       </c>
-      <c r="J99" t="n">
+      <c r="J99">
         <v>5203</v>
       </c>
-      <c r="K99" t="n">
+      <c r="K99">
         <v>3421</v>
       </c>
-      <c r="L99" t="n">
+      <c r="L99">
         <v>960</v>
       </c>
-      <c r="M99" t="n">
+      <c r="M99">
         <v>40</v>
       </c>
-      <c r="N99" t="n">
+      <c r="N99">
         <v>4243</v>
       </c>
-      <c r="O99" t="n">
+      <c r="O99">
         <v>2</v>
       </c>
-      <c r="P99" t="n">
+      <c r="P99">
         <v>38</v>
       </c>
-      <c r="Q99" t="n">
+      <c r="Q99">
         <v>336</v>
       </c>
-      <c r="R99" t="n">
+      <c r="R99">
         <v>736</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>496</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>34</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>392</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>26</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>948</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>25</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>9</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I100">
         <v>34</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J100">
         <v>5704</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K100">
         <v>3838</v>
       </c>
-      <c r="L100" t="n">
+      <c r="L100">
         <v>918</v>
       </c>
-      <c r="M100" t="n">
+      <c r="M100">
         <v>126</v>
       </c>
-      <c r="N100" t="n">
+      <c r="N100">
         <v>4786</v>
       </c>
-      <c r="O100" t="n">
-        <v>0</v>
-      </c>
-      <c r="P100" t="n">
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
         <v>36</v>
       </c>
-      <c r="Q100" t="n">
+      <c r="Q100">
         <v>426</v>
       </c>
-      <c r="R100" t="n">
+      <c r="R100">
         <v>543</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>496</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>34</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>392</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>26</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>948</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>25</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>9</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I101">
         <v>34</v>
       </c>
-      <c r="J101" t="n">
+      <c r="J101">
         <v>5704</v>
       </c>
-      <c r="K101" t="n">
+      <c r="K101">
         <v>3838</v>
       </c>
-      <c r="L101" t="n">
+      <c r="L101">
         <v>918</v>
       </c>
-      <c r="M101" t="n">
-        <v>0</v>
-      </c>
-      <c r="N101" t="n">
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
         <v>4786</v>
       </c>
-      <c r="O101" t="n">
-        <v>0</v>
-      </c>
-      <c r="P101" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q101" t="n">
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
         <v>426</v>
       </c>
-      <c r="R101" t="n">
-        <v>0</v>
+      <c r="R101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>496</v>
+      </c>
+      <c r="C102">
+        <v>34</v>
+      </c>
+      <c r="D102">
+        <v>392</v>
+      </c>
+      <c r="E102">
+        <v>26</v>
+      </c>
+      <c r="F102">
+        <v>948</v>
+      </c>
+      <c r="G102">
+        <v>25</v>
+      </c>
+      <c r="H102">
+        <v>9</v>
+      </c>
+      <c r="I102">
+        <v>34</v>
+      </c>
+      <c r="J102">
+        <v>5704</v>
+      </c>
+      <c r="K102">
+        <v>3838</v>
+      </c>
+      <c r="L102">
+        <v>918</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>4786</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
+        <v>426</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>500</v>
+      </c>
+      <c r="C103">
+        <v>35</v>
+      </c>
+      <c r="D103">
+        <v>452</v>
+      </c>
+      <c r="E103">
+        <v>29</v>
+      </c>
+      <c r="F103">
+        <v>1016</v>
+      </c>
+      <c r="G103">
+        <v>30</v>
+      </c>
+      <c r="H103">
+        <v>5</v>
+      </c>
+      <c r="I103">
+        <v>35</v>
+      </c>
+      <c r="J103">
+        <v>9964</v>
+      </c>
+      <c r="K103">
+        <v>5631</v>
+      </c>
+      <c r="L103">
+        <v>3317</v>
+      </c>
+      <c r="M103">
+        <v>68</v>
+      </c>
+      <c r="N103">
+        <v>6647</v>
+      </c>
+      <c r="O103">
+        <v>3</v>
+      </c>
+      <c r="P103">
+        <v>4</v>
+      </c>
+      <c r="Q103">
+        <v>487</v>
+      </c>
+      <c r="R103">
+        <v>1861</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -1,86 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauLo\Google Drive\Marvellous Math\Coding\RStudio\Covid Jlle\Sites\Datasets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5A53E8-B214-4001-B249-03F302680DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="COVIDJoinville" sheetId="1" r:id="rId1"/>
+    <sheet name="COVIDJoinville" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>DATA</t>
+    <t xml:space="preserve">DATA</t>
   </si>
   <si>
-    <t>RECUPERADOS</t>
+    <t xml:space="preserve">RECUPERADOS</t>
   </si>
   <si>
-    <t>HOSPITALIZADOS</t>
+    <t xml:space="preserve">HOSPITALIZADOS</t>
   </si>
   <si>
-    <t>ISO_DOMICILIAR</t>
+    <t xml:space="preserve">ISO_DOMICILIAR</t>
   </si>
   <si>
-    <t>MORTES</t>
+    <t xml:space="preserve">MORTES</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t xml:space="preserve">TOTAL</t>
   </si>
   <si>
-    <t>UTI</t>
+    <t xml:space="preserve">UTI</t>
   </si>
   <si>
-    <t>ENFERMARIA</t>
+    <t xml:space="preserve">ENFERMARIA</t>
   </si>
   <si>
-    <t>HOSPITALIZADOS2</t>
+    <t xml:space="preserve">HOSPITALIZADOS2</t>
   </si>
   <si>
-    <t>NOTIFICADOS</t>
+    <t xml:space="preserve">NOTIFICADOS</t>
   </si>
   <si>
-    <t>DESCARTADOS</t>
+    <t xml:space="preserve">DESCARTADOS</t>
   </si>
   <si>
-    <t>AGUARDANDO_EX</t>
+    <t xml:space="preserve">AGUARDANDO_EX</t>
   </si>
   <si>
-    <t>CASOS_DIA</t>
+    <t xml:space="preserve">CASOS_DIA</t>
   </si>
   <si>
-    <t>TESTES</t>
+    <t xml:space="preserve">TESTES</t>
   </si>
   <si>
-    <t>MORTES_DIA</t>
+    <t xml:space="preserve">MORTES_DIA</t>
   </si>
   <si>
-    <t>REC_DIA</t>
+    <t xml:space="preserve">REC_DIA</t>
   </si>
   <si>
-    <t>CASOS_ATIVOS</t>
+    <t xml:space="preserve">CASOS_ATIVOS</t>
   </si>
   <si>
-    <t>TESTES_DIA</t>
+    <t xml:space="preserve">TESTES_DIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -116,15 +109,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -406,16 +390,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="I113" sqref="I113"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,5051 +453,5330 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6" t="n">
         <v>87</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>36</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>50</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>37</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7" t="n">
         <v>109</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>48</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>60</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>49</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>2</v>
       </c>
-      <c r="J8">
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8" t="n">
         <v>129</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>70</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>57</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>72</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>3</v>
       </c>
-      <c r="J9">
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9" t="n">
         <v>143</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>72</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>68</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>75</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>4</v>
       </c>
-      <c r="J10">
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10" t="n">
         <v>145</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>72</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>69</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>76</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>4</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>4</v>
       </c>
-      <c r="J11">
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11" t="n">
         <v>145</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>76</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>65</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>80</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>4</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>4</v>
       </c>
-      <c r="J12">
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12" t="n">
         <v>155</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>102</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>49</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>106</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>4</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>4</v>
       </c>
-      <c r="J13">
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13" t="n">
         <v>162</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>116</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>42</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>120</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>4</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>7</v>
       </c>
-      <c r="J14">
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14" t="n">
         <v>169</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>130</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>32</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>3</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>137</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>7</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>8</v>
       </c>
-      <c r="J15">
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15" t="n">
         <v>176</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>134</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>34</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>142</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>8</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>10</v>
       </c>
-      <c r="J16">
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16" t="n">
         <v>191</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>136</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>45</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>2</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>146</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>10</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>10</v>
       </c>
-      <c r="J17">
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17" t="n">
         <v>204</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>136</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>58</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>146</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>10</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>10</v>
       </c>
-      <c r="J18">
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18" t="n">
         <v>208</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>136</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>62</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>146</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>10</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" t="n">
         <v>1</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>15</v>
       </c>
-      <c r="J19">
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" t="n">
         <v>219</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>159</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>45</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>5</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>174</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>14</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>8</v>
       </c>
-      <c r="E20">
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>15</v>
       </c>
-      <c r="J20">
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" t="n">
         <v>248</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>167</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>66</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>182</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>8</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="n">
         <v>6</v>
       </c>
-      <c r="R20">
+      <c r="R20" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>10</v>
       </c>
-      <c r="E21">
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" t="n">
         <v>1</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>18</v>
       </c>
-      <c r="J21">
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21" t="n">
         <v>259</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>173</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>68</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <v>3</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="n">
         <v>191</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>2</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="n">
         <v>7</v>
       </c>
-      <c r="R21">
+      <c r="R21" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>11</v>
       </c>
-      <c r="E22">
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>19</v>
       </c>
-      <c r="J22">
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22" t="n">
         <v>294</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>176</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="n">
         <v>99</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
-      <c r="N22">
+      <c r="N22" t="n">
         <v>195</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>1</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" t="n">
         <v>7</v>
       </c>
-      <c r="R22">
+      <c r="R22" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>12</v>
       </c>
-      <c r="E23">
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" t="n">
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>20</v>
       </c>
-      <c r="J23">
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23" t="n">
         <v>306</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>179</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>107</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
-      <c r="N23">
+      <c r="N23" t="n">
         <v>199</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>1</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" t="n">
         <v>7</v>
       </c>
-      <c r="R23">
+      <c r="R23" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>12</v>
       </c>
-      <c r="E24">
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24" t="n">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>23</v>
       </c>
-      <c r="J24">
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24" t="n">
         <v>315</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>189</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="n">
         <v>103</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="n">
         <v>3</v>
       </c>
-      <c r="N24">
+      <c r="N24" t="n">
         <v>212</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>10</v>
       </c>
-      <c r="R24">
+      <c r="R24" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>12</v>
       </c>
-      <c r="E25">
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25" t="n">
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>33</v>
       </c>
-      <c r="J25">
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25" t="n">
         <v>326</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>216</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="n">
         <v>77</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="n">
         <v>10</v>
       </c>
-      <c r="N25">
+      <c r="N25" t="n">
         <v>249</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>20</v>
       </c>
-      <c r="R25">
+      <c r="R25" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" t="n">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>13</v>
       </c>
-      <c r="E26">
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" t="n">
         <v>1</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>40</v>
       </c>
-      <c r="J26">
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26" t="n">
         <v>356</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>250</v>
       </c>
-      <c r="L26">
+      <c r="L26" t="n">
         <v>66</v>
       </c>
-      <c r="M26">
+      <c r="M26" t="n">
         <v>7</v>
       </c>
-      <c r="N26">
+      <c r="N26" t="n">
         <v>290</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>1</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" t="n">
         <v>26</v>
       </c>
-      <c r="R26">
+      <c r="R26" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>13</v>
       </c>
-      <c r="E27">
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27" t="n">
         <v>1</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>43</v>
       </c>
-      <c r="J27">
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27" t="n">
         <v>372</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>275</v>
       </c>
-      <c r="L27">
+      <c r="L27" t="n">
         <v>54</v>
       </c>
-      <c r="M27">
+      <c r="M27" t="n">
         <v>3</v>
       </c>
-      <c r="N27">
+      <c r="N27" t="n">
         <v>318</v>
       </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>29</v>
       </c>
-      <c r="R27">
+      <c r="R27" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" t="n">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>13</v>
       </c>
-      <c r="E28">
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28" t="n">
         <v>1</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>48</v>
       </c>
-      <c r="J28">
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28" t="n">
         <v>382</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>292</v>
       </c>
-      <c r="L28">
+      <c r="L28" t="n">
         <v>42</v>
       </c>
-      <c r="M28">
+      <c r="M28" t="n">
         <v>5</v>
       </c>
-      <c r="N28">
+      <c r="N28" t="n">
         <v>340</v>
       </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>34</v>
       </c>
-      <c r="R28">
+      <c r="R28" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" t="n">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>13</v>
       </c>
-      <c r="E29">
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" t="n">
         <v>1</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>51</v>
       </c>
-      <c r="J29">
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29" t="n">
         <v>410</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>313</v>
       </c>
-      <c r="L29">
+      <c r="L29" t="n">
         <v>46</v>
       </c>
-      <c r="M29">
+      <c r="M29" t="n">
         <v>3</v>
       </c>
-      <c r="N29">
+      <c r="N29" t="n">
         <v>364</v>
       </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>37</v>
       </c>
-      <c r="R29">
+      <c r="R29" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" t="n">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>13</v>
       </c>
-      <c r="E30">
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>51</v>
       </c>
-      <c r="J30">
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30" t="n">
         <v>426</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>314</v>
       </c>
-      <c r="L30">
+      <c r="L30" t="n">
         <v>61</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>365</v>
       </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>37</v>
       </c>
-      <c r="R30">
+      <c r="R30" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" t="n">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>19</v>
       </c>
-      <c r="E31">
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31" t="n">
         <v>1</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>54</v>
       </c>
-      <c r="J31">
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31" t="n">
         <v>426</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>337</v>
       </c>
-      <c r="L31">
+      <c r="L31" t="n">
         <v>35</v>
       </c>
-      <c r="M31">
+      <c r="M31" t="n">
         <v>3</v>
       </c>
-      <c r="N31">
+      <c r="N31" t="n">
         <v>391</v>
       </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>6</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" t="n">
         <v>34</v>
       </c>
-      <c r="R31">
+      <c r="R31" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" t="n">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>19</v>
       </c>
-      <c r="E32">
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32" t="n">
         <v>2</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>54</v>
       </c>
-      <c r="J32">
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32" t="n">
         <v>426</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>337</v>
       </c>
-      <c r="L32">
+      <c r="L32" t="n">
         <v>35</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>391</v>
       </c>
-      <c r="O32">
+      <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>33</v>
       </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>20</v>
       </c>
-      <c r="E33">
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" t="n">
         <v>2</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>59</v>
       </c>
-      <c r="J33">
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33" t="n">
         <v>463</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>378</v>
       </c>
-      <c r="L33">
+      <c r="L33" t="n">
         <v>26</v>
       </c>
-      <c r="M33">
+      <c r="M33" t="n">
         <v>5</v>
       </c>
-      <c r="N33">
+      <c r="N33" t="n">
         <v>437</v>
       </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>1</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" t="n">
         <v>37</v>
       </c>
-      <c r="R33">
+      <c r="R33" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" t="n">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>22</v>
       </c>
-      <c r="E34">
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" t="n">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>64</v>
       </c>
-      <c r="J34">
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34" t="n">
         <v>473</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>384</v>
       </c>
-      <c r="L34">
+      <c r="L34" t="n">
         <v>25</v>
       </c>
-      <c r="M34">
+      <c r="M34" t="n">
         <v>5</v>
       </c>
-      <c r="N34">
+      <c r="N34" t="n">
         <v>448</v>
       </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
         <v>2</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" t="n">
         <v>40</v>
       </c>
-      <c r="R34">
+      <c r="R34" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" t="n">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>22</v>
       </c>
-      <c r="E35">
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" t="n">
         <v>2</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>70</v>
       </c>
-      <c r="J35">
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35" t="n">
         <v>488</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>394</v>
       </c>
-      <c r="L35">
+      <c r="L35" t="n">
         <v>24</v>
       </c>
-      <c r="M35">
+      <c r="M35" t="n">
         <v>6</v>
       </c>
-      <c r="N35">
+      <c r="N35" t="n">
         <v>464</v>
       </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>46</v>
       </c>
-      <c r="R35">
+      <c r="R35" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" t="n">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>22</v>
       </c>
-      <c r="E36">
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36" t="n">
         <v>2</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>73</v>
       </c>
-      <c r="J36">
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36" t="n">
         <v>537</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>403</v>
       </c>
-      <c r="L36">
+      <c r="L36" t="n">
         <v>61</v>
       </c>
-      <c r="M36">
+      <c r="M36" t="n">
         <v>3</v>
       </c>
-      <c r="N36">
+      <c r="N36" t="n">
         <v>476</v>
       </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>49</v>
       </c>
-      <c r="R36">
+      <c r="R36" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" t="n">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>22</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>14</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>47</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>85</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="n">
         <v>3</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>11</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>14</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>558</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>418</v>
       </c>
-      <c r="L37">
+      <c r="L37" t="n">
         <v>55</v>
       </c>
-      <c r="M37">
+      <c r="M37" t="n">
         <v>12</v>
       </c>
-      <c r="N37">
+      <c r="N37" t="n">
         <v>503</v>
       </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>61</v>
       </c>
-      <c r="R37">
+      <c r="R37" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38">
+      <c r="A38" t="n">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>22</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>16</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>46</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>86</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="n">
         <v>3</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>13</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="n">
         <v>16</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="n">
         <v>596</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="n">
         <v>447</v>
       </c>
-      <c r="L38">
+      <c r="L38" t="n">
         <v>63</v>
       </c>
-      <c r="M38">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
-      <c r="N38">
+      <c r="N38" t="n">
         <v>533</v>
       </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>62</v>
       </c>
-      <c r="R38">
+      <c r="R38" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39">
+      <c r="A39" t="n">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>22</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>19</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>50</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>2</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>93</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="n">
         <v>3</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>16</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>19</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>619</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>488</v>
       </c>
-      <c r="L39">
+      <c r="L39" t="n">
         <v>38</v>
       </c>
-      <c r="M39">
+      <c r="M39" t="n">
         <v>7</v>
       </c>
-      <c r="N39">
+      <c r="N39" t="n">
         <v>581</v>
       </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>69</v>
       </c>
-      <c r="R39">
+      <c r="R39" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40">
+      <c r="A40" t="n">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>31</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>11</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>50</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>2</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>94</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="n">
         <v>1</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>10</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="n">
         <v>11</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="n">
         <v>619</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="n">
         <v>486</v>
       </c>
-      <c r="L40">
+      <c r="L40" t="n">
         <v>39</v>
       </c>
-      <c r="M40">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
-      <c r="N40">
+      <c r="N40" t="n">
         <v>580</v>
       </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>9</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" t="n">
         <v>61</v>
       </c>
-      <c r="R40">
+      <c r="R40" t="n">
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41">
+      <c r="A41" t="n">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>31</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>11</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>57</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>2</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>101</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="n">
         <v>1</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>10</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="n">
         <v>11</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="n">
         <v>652</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="n">
         <v>500</v>
       </c>
-      <c r="L41">
+      <c r="L41" t="n">
         <v>51</v>
       </c>
-      <c r="M41">
+      <c r="M41" t="n">
         <v>7</v>
       </c>
-      <c r="N41">
+      <c r="N41" t="n">
         <v>601</v>
       </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>68</v>
       </c>
-      <c r="R41">
+      <c r="R41" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42">
+      <c r="A42" t="n">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>31</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>16</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>60</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>2</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>109</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="n">
         <v>3</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>13</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="n">
         <v>16</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="n">
         <v>669</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="n">
         <v>527</v>
       </c>
-      <c r="L42">
+      <c r="L42" t="n">
         <v>33</v>
       </c>
-      <c r="M42">
+      <c r="M42" t="n">
         <v>8</v>
       </c>
-      <c r="N42">
+      <c r="N42" t="n">
         <v>636</v>
       </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
         <v>76</v>
       </c>
-      <c r="R42">
+      <c r="R42" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43">
+      <c r="A43" t="n">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>34</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>12</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>66</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>2</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>114</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="n">
         <v>3</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>9</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="n">
         <v>12</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="n">
         <v>698</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="n">
         <v>541</v>
       </c>
-      <c r="L43">
+      <c r="L43" t="n">
         <v>43</v>
       </c>
-      <c r="M43">
+      <c r="M43" t="n">
         <v>5</v>
       </c>
-      <c r="N43">
+      <c r="N43" t="n">
         <v>655</v>
       </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>3</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" t="n">
         <v>78</v>
       </c>
-      <c r="R43">
+      <c r="R43" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44">
+      <c r="A44" t="n">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>34</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>13</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>79</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>2</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>128</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="n">
         <v>4</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>9</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>13</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>734</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="n">
         <v>575</v>
       </c>
-      <c r="L44">
+      <c r="L44" t="n">
         <v>31</v>
       </c>
-      <c r="M44">
+      <c r="M44" t="n">
         <v>14</v>
       </c>
-      <c r="N44">
+      <c r="N44" t="n">
         <v>703</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>92</v>
       </c>
-      <c r="R44">
+      <c r="R44" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45">
+      <c r="A45" t="n">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>34</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>13</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>80</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>130</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="n">
         <v>4</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>9</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="n">
         <v>13</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="n">
         <v>749</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="n">
         <v>584</v>
       </c>
-      <c r="L45">
+      <c r="L45" t="n">
         <v>35</v>
       </c>
-      <c r="M45">
+      <c r="M45" t="n">
         <v>2</v>
       </c>
-      <c r="N45">
+      <c r="N45" t="n">
         <v>714</v>
       </c>
-      <c r="O45">
+      <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>93</v>
       </c>
-      <c r="R45">
+      <c r="R45" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46">
+      <c r="A46" t="n">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>34</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>13</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>80</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>3</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>130</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="n">
         <v>4</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>9</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="n">
         <v>13</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="n">
         <v>765</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="n">
         <v>587</v>
       </c>
-      <c r="L46">
+      <c r="L46" t="n">
         <v>48</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>717</v>
       </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>93</v>
       </c>
-      <c r="R46">
+      <c r="R46" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47">
+      <c r="A47" t="n">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>37</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>14</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>91</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>3</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>145</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="n">
         <v>4</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>10</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>14</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>776</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>605</v>
       </c>
-      <c r="L47">
+      <c r="L47" t="n">
         <v>26</v>
       </c>
-      <c r="M47">
+      <c r="M47" t="n">
         <v>15</v>
       </c>
-      <c r="N47">
+      <c r="N47" t="n">
         <v>750</v>
       </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
         <v>3</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" t="n">
         <v>105</v>
       </c>
-      <c r="R47">
+      <c r="R47" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48">
+      <c r="A48" t="n">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>38</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>17</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>88</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>3</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>146</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="n">
         <v>7</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>10</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="n">
         <v>17</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="n">
         <v>832</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="n">
         <v>628</v>
       </c>
-      <c r="L48">
+      <c r="L48" t="n">
         <v>58</v>
       </c>
-      <c r="M48">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
-      <c r="N48">
+      <c r="N48" t="n">
         <v>774</v>
       </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
         <v>1</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" t="n">
         <v>105</v>
       </c>
-      <c r="R48">
+      <c r="R48" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="49">
+      <c r="A49" t="n">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>38</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>18</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>114</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>3</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>173</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="n">
         <v>7</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>11</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="n">
         <v>18</v>
       </c>
-      <c r="J49">
+      <c r="J49" t="n">
         <v>862</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="n">
         <v>632</v>
       </c>
-      <c r="L49">
+      <c r="L49" t="n">
         <v>57</v>
       </c>
-      <c r="M49">
+      <c r="M49" t="n">
         <v>27</v>
       </c>
-      <c r="N49">
+      <c r="N49" t="n">
         <v>805</v>
       </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
         <v>132</v>
       </c>
-      <c r="R49">
+      <c r="R49" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50">
+      <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>38</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>22</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>127</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>4</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="n">
         <v>191</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="n">
         <v>8</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>14</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="n">
         <v>22</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="n">
         <v>941</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="n">
         <v>701</v>
       </c>
-      <c r="L50">
+      <c r="L50" t="n">
         <v>49</v>
       </c>
-      <c r="M50">
+      <c r="M50" t="n">
         <v>18</v>
       </c>
-      <c r="N50">
+      <c r="N50" t="n">
         <v>892</v>
       </c>
-      <c r="O50">
+      <c r="O50" t="n">
         <v>1</v>
       </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
         <v>149</v>
       </c>
-      <c r="R50">
+      <c r="R50" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51">
+      <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>38</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>24</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>136</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>5</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>203</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="n">
         <v>9</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>15</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="n">
         <v>24</v>
       </c>
-      <c r="J51">
+      <c r="J51" t="n">
         <v>979</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="n">
         <v>740</v>
       </c>
-      <c r="L51">
+      <c r="L51" t="n">
         <v>36</v>
       </c>
-      <c r="M51">
+      <c r="M51" t="n">
         <v>12</v>
       </c>
-      <c r="N51">
+      <c r="N51" t="n">
         <v>943</v>
       </c>
-      <c r="O51">
+      <c r="O51" t="n">
         <v>1</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
         <v>160</v>
       </c>
-      <c r="R51">
+      <c r="R51" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="52">
+      <c r="A52" t="n">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>38</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>24</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>136</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>5</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>203</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="n">
         <v>9</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>15</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>24</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>994</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="n">
         <v>740</v>
       </c>
-      <c r="L52">
+      <c r="L52" t="n">
         <v>51</v>
       </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
         <v>943</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
         <v>160</v>
       </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>38</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>25</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>138</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>5</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="n">
         <v>206</v>
       </c>
-      <c r="G53">
+      <c r="G53" t="n">
         <v>9</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>16</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="n">
         <v>25</v>
       </c>
-      <c r="J53">
+      <c r="J53" t="n">
         <v>1012</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="n">
         <v>777</v>
       </c>
-      <c r="L53">
+      <c r="L53" t="n">
         <v>29</v>
       </c>
-      <c r="M53">
+      <c r="M53" t="n">
         <v>3</v>
       </c>
-      <c r="N53">
+      <c r="N53" t="n">
         <v>983</v>
       </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
         <v>163</v>
       </c>
-      <c r="R53">
+      <c r="R53" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="54">
+      <c r="A54" t="n">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>44</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>24</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>141</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>6</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>215</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="n">
         <v>10</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>14</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="n">
         <v>24</v>
       </c>
-      <c r="J54">
+      <c r="J54" t="n">
         <v>1048</v>
       </c>
-      <c r="K54">
+      <c r="K54" t="n">
         <v>804</v>
       </c>
-      <c r="L54">
+      <c r="L54" t="n">
         <v>29</v>
       </c>
-      <c r="M54">
+      <c r="M54" t="n">
         <v>9</v>
       </c>
-      <c r="N54">
+      <c r="N54" t="n">
         <v>1019</v>
       </c>
-      <c r="O54">
+      <c r="O54" t="n">
         <v>1</v>
       </c>
-      <c r="P54">
+      <c r="P54" t="n">
         <v>6</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" t="n">
         <v>165</v>
       </c>
-      <c r="R54">
+      <c r="R54" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="55">
+      <c r="A55" t="n">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>47</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>25</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>141</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>6</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>219</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="n">
         <v>10</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="n">
         <v>15</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="n">
         <v>25</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="n">
         <v>1095</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="n">
         <v>839</v>
       </c>
-      <c r="L55">
+      <c r="L55" t="n">
         <v>37</v>
       </c>
-      <c r="M55">
+      <c r="M55" t="n">
         <v>4</v>
       </c>
-      <c r="N55">
+      <c r="N55" t="n">
         <v>1058</v>
       </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
         <v>3</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" t="n">
         <v>166</v>
       </c>
-      <c r="R55">
+      <c r="R55" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="56">
+      <c r="A56" t="n">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>84</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>25</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>122</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>6</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="n">
         <v>237</v>
       </c>
-      <c r="G56">
+      <c r="G56" t="n">
         <v>9</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>16</v>
       </c>
-      <c r="I56">
+      <c r="I56" t="n">
         <v>25</v>
       </c>
-      <c r="J56">
+      <c r="J56" t="n">
         <v>1144</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="n">
         <v>859</v>
       </c>
-      <c r="L56">
+      <c r="L56" t="n">
         <v>48</v>
       </c>
-      <c r="M56">
+      <c r="M56" t="n">
         <v>18</v>
       </c>
-      <c r="N56">
+      <c r="N56" t="n">
         <v>1096</v>
       </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
         <v>37</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" t="n">
         <v>147</v>
       </c>
-      <c r="R56">
+      <c r="R56" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="57">
+      <c r="A57" t="n">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>84</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>26</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>129</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>6</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="n">
         <v>245</v>
       </c>
-      <c r="G57">
+      <c r="G57" t="n">
         <v>10</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>16</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="n">
         <v>26</v>
       </c>
-      <c r="J57">
+      <c r="J57" t="n">
         <v>1188</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="n">
         <v>906</v>
       </c>
-      <c r="L57">
+      <c r="L57" t="n">
         <v>37</v>
       </c>
-      <c r="M57">
+      <c r="M57" t="n">
         <v>8</v>
       </c>
-      <c r="N57">
+      <c r="N57" t="n">
         <v>1151</v>
       </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
         <v>155</v>
       </c>
-      <c r="R57">
+      <c r="R57" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="58">
+      <c r="A58" t="n">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>100</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>27</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>123</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>6</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>256</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="n">
         <v>10</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="n">
         <v>17</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="n">
         <v>27</v>
       </c>
-      <c r="J58">
+      <c r="J58" t="n">
         <v>1237</v>
       </c>
-      <c r="K58">
+      <c r="K58" t="n">
         <v>950</v>
       </c>
-      <c r="L58">
+      <c r="L58" t="n">
         <v>31</v>
       </c>
-      <c r="M58">
+      <c r="M58" t="n">
         <v>11</v>
       </c>
-      <c r="N58">
+      <c r="N58" t="n">
         <v>1206</v>
       </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
         <v>16</v>
       </c>
-      <c r="Q58">
+      <c r="Q58" t="n">
         <v>150</v>
       </c>
-      <c r="R58">
+      <c r="R58" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59">
+      <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>100</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>28</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>129</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>6</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="n">
         <v>263</v>
       </c>
-      <c r="G59">
+      <c r="G59" t="n">
         <v>10</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="n">
         <v>18</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="n">
         <v>28</v>
       </c>
-      <c r="J59">
+      <c r="J59" t="n">
         <v>1261</v>
       </c>
-      <c r="K59">
+      <c r="K59" t="n">
         <v>963</v>
       </c>
-      <c r="L59">
+      <c r="L59" t="n">
         <v>35</v>
       </c>
-      <c r="M59">
+      <c r="M59" t="n">
         <v>7</v>
       </c>
-      <c r="N59">
+      <c r="N59" t="n">
         <v>1226</v>
       </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
         <v>157</v>
       </c>
-      <c r="R59">
+      <c r="R59" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60">
+      <c r="A60" t="n">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>100</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>27</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>128</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>8</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>263</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="n">
         <v>9</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="n">
         <v>18</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="n">
         <v>27</v>
       </c>
-      <c r="J60">
+      <c r="J60" t="n">
         <v>1290</v>
       </c>
-      <c r="K60">
+      <c r="K60" t="n">
         <v>982</v>
       </c>
-      <c r="L60">
+      <c r="L60" t="n">
         <v>45</v>
       </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
         <v>1245</v>
       </c>
-      <c r="O60">
+      <c r="O60" t="n">
         <v>2</v>
       </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
         <v>155</v>
       </c>
-      <c r="R60">
+      <c r="R60" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="61">
+      <c r="A61" t="n">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>105</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>25</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>132</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>8</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="n">
         <v>270</v>
       </c>
-      <c r="G61">
+      <c r="G61" t="n">
         <v>11</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="n">
         <v>14</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="n">
         <v>25</v>
       </c>
-      <c r="J61">
+      <c r="J61" t="n">
         <v>1314</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="n">
         <v>1020</v>
       </c>
-      <c r="L61">
+      <c r="L61" t="n">
         <v>24</v>
       </c>
-      <c r="M61">
+      <c r="M61" t="n">
         <v>7</v>
       </c>
-      <c r="N61">
+      <c r="N61" t="n">
         <v>1290</v>
       </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
         <v>5</v>
       </c>
-      <c r="Q61">
+      <c r="Q61" t="n">
         <v>157</v>
       </c>
-      <c r="R61">
+      <c r="R61" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="62">
+      <c r="A62" t="n">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>105</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>24</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>137</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>10</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="n">
         <v>276</v>
       </c>
-      <c r="G62">
+      <c r="G62" t="n">
         <v>16</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="n">
         <v>8</v>
       </c>
-      <c r="I62">
+      <c r="I62" t="n">
         <v>24</v>
       </c>
-      <c r="J62">
+      <c r="J62" t="n">
         <v>1341</v>
       </c>
-      <c r="K62">
+      <c r="K62" t="n">
         <v>1030</v>
       </c>
-      <c r="L62">
+      <c r="L62" t="n">
         <v>35</v>
       </c>
-      <c r="M62">
+      <c r="M62" t="n">
         <v>6</v>
       </c>
-      <c r="N62">
+      <c r="N62" t="n">
         <v>1306</v>
       </c>
-      <c r="O62">
+      <c r="O62" t="n">
         <v>2</v>
       </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
         <v>161</v>
       </c>
-      <c r="R62">
+      <c r="R62" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="63">
+      <c r="A63" t="n">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>148</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>23</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>101</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>10</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>282</v>
       </c>
-      <c r="G63">
+      <c r="G63" t="n">
         <v>16</v>
       </c>
-      <c r="H63">
+      <c r="H63" t="n">
         <v>7</v>
       </c>
-      <c r="I63">
+      <c r="I63" t="n">
         <v>23</v>
       </c>
-      <c r="J63">
+      <c r="J63" t="n">
         <v>1368</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="n">
         <v>1053</v>
       </c>
-      <c r="L63">
+      <c r="L63" t="n">
         <v>33</v>
       </c>
-      <c r="M63">
+      <c r="M63" t="n">
         <v>6</v>
       </c>
-      <c r="N63">
+      <c r="N63" t="n">
         <v>1335</v>
       </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
         <v>43</v>
       </c>
-      <c r="Q63">
+      <c r="Q63" t="n">
         <v>124</v>
       </c>
-      <c r="R63">
+      <c r="R63" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="64">
+      <c r="A64" t="n">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>164</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>21</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>95</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>11</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="n">
         <v>291</v>
       </c>
-      <c r="G64">
+      <c r="G64" t="n">
         <v>15</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="n">
         <v>6</v>
       </c>
-      <c r="I64">
+      <c r="I64" t="n">
         <v>21</v>
       </c>
-      <c r="J64">
+      <c r="J64" t="n">
         <v>1396</v>
       </c>
-      <c r="K64">
+      <c r="K64" t="n">
         <v>1065</v>
       </c>
-      <c r="L64">
+      <c r="L64" t="n">
         <v>40</v>
       </c>
-      <c r="M64">
+      <c r="M64" t="n">
         <v>9</v>
       </c>
-      <c r="N64">
+      <c r="N64" t="n">
         <v>1356</v>
       </c>
-      <c r="O64">
+      <c r="O64" t="n">
         <v>1</v>
       </c>
-      <c r="P64">
+      <c r="P64" t="n">
         <v>16</v>
       </c>
-      <c r="Q64">
+      <c r="Q64" t="n">
         <v>116</v>
       </c>
-      <c r="R64">
+      <c r="R64" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="65">
+      <c r="A65" t="n">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>164</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>21</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>104</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>13</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="n">
         <v>302</v>
       </c>
-      <c r="G65">
+      <c r="G65" t="n">
         <v>14</v>
       </c>
-      <c r="H65">
+      <c r="H65" t="n">
         <v>7</v>
       </c>
-      <c r="I65">
+      <c r="I65" t="n">
         <v>21</v>
       </c>
-      <c r="J65">
+      <c r="J65" t="n">
         <v>1442</v>
       </c>
-      <c r="K65">
+      <c r="K65" t="n">
         <v>1075</v>
       </c>
-      <c r="L65">
+      <c r="L65" t="n">
         <v>65</v>
       </c>
-      <c r="M65">
+      <c r="M65" t="n">
         <v>11</v>
       </c>
-      <c r="N65">
+      <c r="N65" t="n">
         <v>1377</v>
       </c>
-      <c r="O65">
+      <c r="O65" t="n">
         <v>2</v>
       </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
         <v>125</v>
       </c>
-      <c r="R65">
+      <c r="R65" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="66">
+      <c r="A66" t="n">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>164</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>26</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>109</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>13</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="n">
         <v>312</v>
       </c>
-      <c r="G66">
+      <c r="G66" t="n">
         <v>16</v>
       </c>
-      <c r="H66">
+      <c r="H66" t="n">
         <v>10</v>
       </c>
-      <c r="I66">
+      <c r="I66" t="n">
         <v>26</v>
       </c>
-      <c r="J66">
+      <c r="J66" t="n">
         <v>1442</v>
       </c>
-      <c r="K66">
+      <c r="K66" t="n">
         <v>1109</v>
       </c>
-      <c r="L66">
+      <c r="L66" t="n">
         <v>21</v>
       </c>
-      <c r="M66">
+      <c r="M66" t="n">
         <v>10</v>
       </c>
-      <c r="N66">
+      <c r="N66" t="n">
         <v>1421</v>
       </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
         <v>135</v>
       </c>
-      <c r="R66">
+      <c r="R66" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row r="67">
+      <c r="A67" t="n">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>164</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>24</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>111</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>13</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="n">
         <v>312</v>
       </c>
-      <c r="G67">
+      <c r="G67" t="n">
         <v>14</v>
       </c>
-      <c r="H67">
+      <c r="H67" t="n">
         <v>10</v>
       </c>
-      <c r="I67">
+      <c r="I67" t="n">
         <v>24</v>
       </c>
-      <c r="J67">
+      <c r="J67" t="n">
         <v>1449</v>
       </c>
-      <c r="K67">
+      <c r="K67" t="n">
         <v>1111</v>
       </c>
-      <c r="L67">
+      <c r="L67" t="n">
         <v>26</v>
       </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
         <v>1423</v>
       </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
         <v>135</v>
       </c>
-      <c r="R67">
+      <c r="R67" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A68">
+    <row r="68">
+      <c r="A68" t="n">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>164</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>24</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>116</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>13</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="n">
         <v>317</v>
       </c>
-      <c r="G68">
+      <c r="G68" t="n">
         <v>16</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="n">
         <v>8</v>
       </c>
-      <c r="I68">
+      <c r="I68" t="n">
         <v>24</v>
       </c>
-      <c r="J68">
+      <c r="J68" t="n">
         <v>1473</v>
       </c>
-      <c r="K68">
+      <c r="K68" t="n">
         <v>1135</v>
       </c>
-      <c r="L68">
+      <c r="L68" t="n">
         <v>21</v>
       </c>
-      <c r="M68">
+      <c r="M68" t="n">
         <v>5</v>
       </c>
-      <c r="N68">
+      <c r="N68" t="n">
         <v>1452</v>
       </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
         <v>140</v>
       </c>
-      <c r="R68">
+      <c r="R68" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row r="69">
+      <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>164</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>22</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>120</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>13</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="n">
         <v>319</v>
       </c>
-      <c r="G69">
+      <c r="G69" t="n">
         <v>16</v>
       </c>
-      <c r="H69">
+      <c r="H69" t="n">
         <v>6</v>
       </c>
-      <c r="I69">
+      <c r="I69" t="n">
         <v>22</v>
       </c>
-      <c r="J69">
+      <c r="J69" t="n">
         <v>1498</v>
       </c>
-      <c r="K69">
+      <c r="K69" t="n">
         <v>1144</v>
       </c>
-      <c r="L69">
+      <c r="L69" t="n">
         <v>35</v>
       </c>
-      <c r="M69">
+      <c r="M69" t="n">
         <v>2</v>
       </c>
-      <c r="N69">
+      <c r="N69" t="n">
         <v>1463</v>
       </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
         <v>142</v>
       </c>
-      <c r="R69">
+      <c r="R69" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="70">
+      <c r="A70" t="n">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>191</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>20</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>98</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>14</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="n">
         <v>323</v>
       </c>
-      <c r="G70">
+      <c r="G70" t="n">
         <v>16</v>
       </c>
-      <c r="H70">
+      <c r="H70" t="n">
         <v>4</v>
       </c>
-      <c r="I70">
+      <c r="I70" t="n">
         <v>20</v>
       </c>
-      <c r="J70">
+      <c r="J70" t="n">
         <v>1517</v>
       </c>
-      <c r="K70">
+      <c r="K70" t="n">
         <v>1144</v>
       </c>
-      <c r="L70">
+      <c r="L70" t="n">
         <v>50</v>
       </c>
-      <c r="M70">
+      <c r="M70" t="n">
         <v>4</v>
       </c>
-      <c r="N70">
+      <c r="N70" t="n">
         <v>1467</v>
       </c>
-      <c r="O70">
+      <c r="O70" t="n">
         <v>1</v>
       </c>
-      <c r="P70">
+      <c r="P70" t="n">
         <v>27</v>
       </c>
-      <c r="Q70">
+      <c r="Q70" t="n">
         <v>118</v>
       </c>
-      <c r="R70">
+      <c r="R70" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="71">
+      <c r="A71" t="n">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>206</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>19</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>91</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>14</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>330</v>
       </c>
-      <c r="G71">
+      <c r="G71" t="n">
         <v>15</v>
       </c>
-      <c r="H71">
+      <c r="H71" t="n">
         <v>4</v>
       </c>
-      <c r="I71">
+      <c r="I71" t="n">
         <v>19</v>
       </c>
-      <c r="J71">
+      <c r="J71" t="n">
         <v>1540</v>
       </c>
-      <c r="K71">
+      <c r="K71" t="n">
         <v>1172</v>
       </c>
-      <c r="L71">
+      <c r="L71" t="n">
         <v>38</v>
       </c>
-      <c r="M71">
+      <c r="M71" t="n">
         <v>7</v>
       </c>
-      <c r="N71">
+      <c r="N71" t="n">
         <v>1502</v>
       </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
         <v>15</v>
       </c>
-      <c r="Q71">
+      <c r="Q71" t="n">
         <v>110</v>
       </c>
-      <c r="R71">
+      <c r="R71" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="72">
+      <c r="A72" t="n">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>206</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>22</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>92</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>15</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="n">
         <v>335</v>
       </c>
-      <c r="G72">
+      <c r="G72" t="n">
         <v>17</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="n">
         <v>5</v>
       </c>
-      <c r="I72">
+      <c r="I72" t="n">
         <v>22</v>
       </c>
-      <c r="J72">
+      <c r="J72" t="n">
         <v>1555</v>
       </c>
-      <c r="K72">
+      <c r="K72" t="n">
         <v>1195</v>
       </c>
-      <c r="L72">
+      <c r="L72" t="n">
         <v>25</v>
       </c>
-      <c r="M72">
+      <c r="M72" t="n">
         <v>5</v>
       </c>
-      <c r="N72">
+      <c r="N72" t="n">
         <v>1530</v>
       </c>
-      <c r="O72">
+      <c r="O72" t="n">
         <v>1</v>
       </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
         <v>114</v>
       </c>
-      <c r="R72">
+      <c r="R72" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row r="73">
+      <c r="A73" t="n">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>206</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>22</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>102</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>15</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="n">
         <v>345</v>
       </c>
-      <c r="G73">
+      <c r="G73" t="n">
         <v>17</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="n">
         <v>5</v>
       </c>
-      <c r="I73">
+      <c r="I73" t="n">
         <v>22</v>
       </c>
-      <c r="J73">
+      <c r="J73" t="n">
         <v>1565</v>
       </c>
-      <c r="K73">
+      <c r="K73" t="n">
         <v>1200</v>
       </c>
-      <c r="L73">
+      <c r="L73" t="n">
         <v>20</v>
       </c>
-      <c r="M73">
+      <c r="M73" t="n">
         <v>10</v>
       </c>
-      <c r="N73">
+      <c r="N73" t="n">
         <v>1545</v>
       </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
         <v>124</v>
       </c>
-      <c r="R73">
+      <c r="R73" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="74">
+      <c r="A74" t="n">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>206</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>23</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>117</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>15</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="n">
         <v>361</v>
       </c>
-      <c r="G74">
+      <c r="G74" t="n">
         <v>18</v>
       </c>
-      <c r="H74">
+      <c r="H74" t="n">
         <v>5</v>
       </c>
-      <c r="I74">
+      <c r="I74" t="n">
         <v>23</v>
       </c>
-      <c r="J74">
+      <c r="J74" t="n">
         <v>1616</v>
       </c>
-      <c r="K74">
+      <c r="K74" t="n">
         <v>1223</v>
       </c>
-      <c r="L74">
+      <c r="L74" t="n">
         <v>32</v>
       </c>
-      <c r="M74">
+      <c r="M74" t="n">
         <v>16</v>
       </c>
-      <c r="N74">
+      <c r="N74" t="n">
         <v>1584</v>
       </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
         <v>140</v>
       </c>
-      <c r="R74">
+      <c r="R74" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="75">
+      <c r="A75" t="n">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>207</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>28</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>123</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>15</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="n">
         <v>373</v>
       </c>
-      <c r="G75">
+      <c r="G75" t="n">
         <v>20</v>
       </c>
-      <c r="H75">
+      <c r="H75" t="n">
         <v>8</v>
       </c>
-      <c r="I75">
+      <c r="I75" t="n">
         <v>28</v>
       </c>
-      <c r="J75">
+      <c r="J75" t="n">
         <v>1638</v>
       </c>
-      <c r="K75">
+      <c r="K75" t="n">
         <v>1240</v>
       </c>
-      <c r="L75">
+      <c r="L75" t="n">
         <v>25</v>
       </c>
-      <c r="M75">
+      <c r="M75" t="n">
         <v>12</v>
       </c>
-      <c r="N75">
+      <c r="N75" t="n">
         <v>1613</v>
       </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
         <v>1</v>
       </c>
-      <c r="Q75">
+      <c r="Q75" t="n">
         <v>151</v>
       </c>
-      <c r="R75">
+      <c r="R75" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="76">
+      <c r="A76" t="n">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>257</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>22</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>92</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>18</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="n">
         <v>389</v>
       </c>
-      <c r="G76">
+      <c r="G76" t="n">
         <v>19</v>
       </c>
-      <c r="H76">
+      <c r="H76" t="n">
         <v>3</v>
       </c>
-      <c r="I76">
+      <c r="I76" t="n">
         <v>22</v>
       </c>
-      <c r="J76">
+      <c r="J76" t="n">
         <v>1671</v>
       </c>
-      <c r="K76">
+      <c r="K76" t="n">
         <v>1257</v>
       </c>
-      <c r="L76">
+      <c r="L76" t="n">
         <v>25</v>
       </c>
-      <c r="M76">
+      <c r="M76" t="n">
         <v>16</v>
       </c>
-      <c r="N76">
+      <c r="N76" t="n">
         <v>1646</v>
       </c>
-      <c r="O76">
+      <c r="O76" t="n">
         <v>3</v>
       </c>
-      <c r="P76">
+      <c r="P76" t="n">
         <v>50</v>
       </c>
-      <c r="Q76">
+      <c r="Q76" t="n">
         <v>114</v>
       </c>
-      <c r="R76">
+      <c r="R76" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row r="77">
+      <c r="A77" t="n">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>296</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>21</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>55</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>20</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="n">
         <v>392</v>
       </c>
-      <c r="G77">
+      <c r="G77" t="n">
         <v>16</v>
       </c>
-      <c r="H77">
+      <c r="H77" t="n">
         <v>5</v>
       </c>
-      <c r="I77">
+      <c r="I77" t="n">
         <v>21</v>
       </c>
-      <c r="J77">
+      <c r="J77" t="n">
         <v>1690</v>
       </c>
-      <c r="K77">
+      <c r="K77" t="n">
         <v>1264</v>
       </c>
-      <c r="L77">
+      <c r="L77" t="n">
         <v>34</v>
       </c>
-      <c r="M77">
+      <c r="M77" t="n">
         <v>3</v>
       </c>
-      <c r="N77">
+      <c r="N77" t="n">
         <v>1656</v>
       </c>
-      <c r="O77">
+      <c r="O77" t="n">
         <v>2</v>
       </c>
-      <c r="P77">
+      <c r="P77" t="n">
         <v>39</v>
       </c>
-      <c r="Q77">
+      <c r="Q77" t="n">
         <v>76</v>
       </c>
-      <c r="R77">
+      <c r="R77" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="78">
+      <c r="A78" t="n">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>308</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>24</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>56</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>21</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="n">
         <v>409</v>
       </c>
-      <c r="G78">
+      <c r="G78" t="n">
         <v>17</v>
       </c>
-      <c r="H78">
+      <c r="H78" t="n">
         <v>7</v>
       </c>
-      <c r="I78">
+      <c r="I78" t="n">
         <v>24</v>
       </c>
-      <c r="J78">
+      <c r="J78" t="n">
         <v>2109</v>
       </c>
-      <c r="K78">
+      <c r="K78" t="n">
         <v>1286</v>
       </c>
-      <c r="L78">
+      <c r="L78" t="n">
         <v>414</v>
       </c>
-      <c r="M78">
+      <c r="M78" t="n">
         <v>17</v>
       </c>
-      <c r="N78">
+      <c r="N78" t="n">
         <v>1695</v>
       </c>
-      <c r="O78">
+      <c r="O78" t="n">
         <v>1</v>
       </c>
-      <c r="P78">
+      <c r="P78" t="n">
         <v>12</v>
       </c>
-      <c r="Q78">
+      <c r="Q78" t="n">
         <v>80</v>
       </c>
-      <c r="R78">
+      <c r="R78" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="79">
+      <c r="A79" t="n">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>312</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>26</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>64</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>20</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="n">
         <v>422</v>
       </c>
-      <c r="G79">
+      <c r="G79" t="n">
         <v>20</v>
       </c>
-      <c r="H79">
+      <c r="H79" t="n">
         <v>6</v>
       </c>
-      <c r="I79">
+      <c r="I79" t="n">
         <v>26</v>
       </c>
-      <c r="J79">
+      <c r="J79" t="n">
         <v>2405</v>
       </c>
-      <c r="K79">
+      <c r="K79" t="n">
         <v>1309</v>
       </c>
-      <c r="L79">
+      <c r="L79" t="n">
         <v>674</v>
       </c>
-      <c r="M79">
+      <c r="M79" t="n">
         <v>13</v>
       </c>
-      <c r="N79">
+      <c r="N79" t="n">
         <v>1731</v>
       </c>
-      <c r="O79">
+      <c r="O79" t="n">
         <v>-1</v>
       </c>
-      <c r="P79">
+      <c r="P79" t="n">
         <v>4</v>
       </c>
-      <c r="Q79">
+      <c r="Q79" t="n">
         <v>90</v>
       </c>
-      <c r="R79">
+      <c r="R79" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="80">
+      <c r="A80" t="n">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>312</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>25</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>65</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>21</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="n">
         <v>423</v>
       </c>
-      <c r="G80">
+      <c r="G80" t="n">
         <v>21</v>
       </c>
-      <c r="H80">
+      <c r="H80" t="n">
         <v>4</v>
       </c>
-      <c r="I80">
+      <c r="I80" t="n">
         <v>25</v>
       </c>
-      <c r="J80">
+      <c r="J80" t="n">
         <v>2406</v>
       </c>
-      <c r="K80">
+      <c r="K80" t="n">
         <v>1310</v>
       </c>
-      <c r="L80">
+      <c r="L80" t="n">
         <v>673</v>
       </c>
-      <c r="M80">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
-      <c r="N80">
+      <c r="N80" t="n">
         <v>1733</v>
       </c>
-      <c r="O80">
+      <c r="O80" t="n">
         <v>1</v>
       </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
         <v>90</v>
       </c>
-      <c r="R80">
+      <c r="R80" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row r="81">
+      <c r="A81" t="n">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>312</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>22</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>67</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>22</v>
       </c>
-      <c r="F81">
+      <c r="F81" t="n">
         <v>423</v>
       </c>
-      <c r="G81">
+      <c r="G81" t="n">
         <v>19</v>
       </c>
-      <c r="H81">
+      <c r="H81" t="n">
         <v>3</v>
       </c>
-      <c r="I81">
+      <c r="I81" t="n">
         <v>22</v>
       </c>
-      <c r="J81">
+      <c r="J81" t="n">
         <v>2406</v>
       </c>
-      <c r="K81">
+      <c r="K81" t="n">
         <v>1334</v>
       </c>
-      <c r="L81">
+      <c r="L81" t="n">
         <v>649</v>
       </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
         <v>1757</v>
       </c>
-      <c r="O81">
+      <c r="O81" t="n">
         <v>1</v>
       </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
         <v>89</v>
       </c>
-      <c r="R81">
+      <c r="R81" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A82">
+    <row r="82">
+      <c r="A82" t="n">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>321</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>23</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>78</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>22</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="n">
         <v>444</v>
       </c>
-      <c r="G82">
+      <c r="G82" t="n">
         <v>20</v>
       </c>
-      <c r="H82">
+      <c r="H82" t="n">
         <v>3</v>
       </c>
-      <c r="I82">
+      <c r="I82" t="n">
         <v>23</v>
       </c>
-      <c r="J82">
+      <c r="J82" t="n">
         <v>2455</v>
       </c>
-      <c r="K82">
+      <c r="K82" t="n">
         <v>1379</v>
       </c>
-      <c r="L82">
+      <c r="L82" t="n">
         <v>632</v>
       </c>
-      <c r="M82">
+      <c r="M82" t="n">
         <v>21</v>
       </c>
-      <c r="N82">
+      <c r="N82" t="n">
         <v>1823</v>
       </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
         <v>9</v>
       </c>
-      <c r="Q82">
+      <c r="Q82" t="n">
         <v>101</v>
       </c>
-      <c r="R82">
+      <c r="R82" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A83">
+    <row r="83">
+      <c r="A83" t="n">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>333</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>23</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>70</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>22</v>
       </c>
-      <c r="F83">
+      <c r="F83" t="n">
         <v>448</v>
       </c>
-      <c r="G83">
+      <c r="G83" t="n">
         <v>20</v>
       </c>
-      <c r="H83">
+      <c r="H83" t="n">
         <v>3</v>
       </c>
-      <c r="I83">
+      <c r="I83" t="n">
         <v>23</v>
       </c>
-      <c r="J83">
+      <c r="J83" t="n">
         <v>2455</v>
       </c>
-      <c r="K83">
+      <c r="K83" t="n">
         <v>1601</v>
       </c>
-      <c r="L83">
+      <c r="L83" t="n">
         <v>406</v>
       </c>
-      <c r="M83">
+      <c r="M83" t="n">
         <v>4</v>
       </c>
-      <c r="N83">
+      <c r="N83" t="n">
         <v>2049</v>
       </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83">
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
         <v>12</v>
       </c>
-      <c r="Q83">
+      <c r="Q83" t="n">
         <v>93</v>
       </c>
-      <c r="R83">
+      <c r="R83" t="n">
         <v>226</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A84">
+    <row r="84">
+      <c r="A84" t="n">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>335</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>22</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>73</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>22</v>
       </c>
-      <c r="F84">
+      <c r="F84" t="n">
         <v>452</v>
       </c>
-      <c r="G84">
+      <c r="G84" t="n">
         <v>18</v>
       </c>
-      <c r="H84">
+      <c r="H84" t="n">
         <v>4</v>
       </c>
-      <c r="I84">
+      <c r="I84" t="n">
         <v>22</v>
       </c>
-      <c r="J84">
+      <c r="J84" t="n">
         <v>3017</v>
       </c>
-      <c r="K84">
+      <c r="K84" t="n">
         <v>1941</v>
       </c>
-      <c r="L84">
+      <c r="L84" t="n">
         <v>624</v>
       </c>
-      <c r="M84">
+      <c r="M84" t="n">
         <v>4</v>
       </c>
-      <c r="N84">
+      <c r="N84" t="n">
         <v>2393</v>
       </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84">
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
         <v>2</v>
       </c>
-      <c r="Q84">
+      <c r="Q84" t="n">
         <v>95</v>
       </c>
-      <c r="R84">
+      <c r="R84" t="n">
         <v>344</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A85">
+    <row r="85">
+      <c r="A85" t="n">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>337</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>22</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>80</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>22</v>
       </c>
-      <c r="F85">
+      <c r="F85" t="n">
         <v>461</v>
       </c>
-      <c r="G85">
+      <c r="G85" t="n">
         <v>18</v>
       </c>
-      <c r="H85">
+      <c r="H85" t="n">
         <v>4</v>
       </c>
-      <c r="I85">
+      <c r="I85" t="n">
         <v>22</v>
       </c>
-      <c r="J85">
+      <c r="J85" t="n">
         <v>3470</v>
       </c>
-      <c r="K85">
+      <c r="K85" t="n">
         <v>1951</v>
       </c>
-      <c r="L85">
+      <c r="L85" t="n">
         <v>1058</v>
       </c>
-      <c r="M85">
+      <c r="M85" t="n">
         <v>9</v>
       </c>
-      <c r="N85">
+      <c r="N85" t="n">
         <v>2412</v>
       </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85">
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
         <v>2</v>
       </c>
-      <c r="Q85">
+      <c r="Q85" t="n">
         <v>102</v>
       </c>
-      <c r="R85">
+      <c r="R85" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A86">
+    <row r="86">
+      <c r="A86" t="n">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>339</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>25</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>92</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>23</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="n">
         <v>479</v>
       </c>
-      <c r="G86">
+      <c r="G86" t="n">
         <v>17</v>
       </c>
-      <c r="H86">
+      <c r="H86" t="n">
         <v>8</v>
       </c>
-      <c r="I86">
+      <c r="I86" t="n">
         <v>25</v>
       </c>
-      <c r="J86">
+      <c r="J86" t="n">
         <v>3489</v>
       </c>
-      <c r="K86">
+      <c r="K86" t="n">
         <v>2002</v>
       </c>
-      <c r="L86">
+      <c r="L86" t="n">
         <v>1008</v>
       </c>
-      <c r="M86">
+      <c r="M86" t="n">
         <v>18</v>
       </c>
-      <c r="N86">
+      <c r="N86" t="n">
         <v>2481</v>
       </c>
-      <c r="O86">
+      <c r="O86" t="n">
         <v>1</v>
       </c>
-      <c r="P86">
+      <c r="P86" t="n">
         <v>2</v>
       </c>
-      <c r="Q86">
+      <c r="Q86" t="n">
         <v>117</v>
       </c>
-      <c r="R86">
+      <c r="R86" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A87">
+    <row r="87">
+      <c r="A87" t="n">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>339</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>25</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>92</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>23</v>
       </c>
-      <c r="F87">
+      <c r="F87" t="n">
         <v>479</v>
       </c>
-      <c r="G87">
+      <c r="G87" t="n">
         <v>17</v>
       </c>
-      <c r="H87">
+      <c r="H87" t="n">
         <v>8</v>
       </c>
-      <c r="I87">
+      <c r="I87" t="n">
         <v>25</v>
       </c>
-      <c r="J87">
+      <c r="J87" t="n">
         <v>3489</v>
       </c>
-      <c r="K87">
+      <c r="K87" t="n">
         <v>2002</v>
       </c>
-      <c r="L87">
+      <c r="L87" t="n">
         <v>1008</v>
       </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87">
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
         <v>2481</v>
       </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
         <v>117</v>
       </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>339</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>25</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>92</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>23</v>
       </c>
-      <c r="F88">
+      <c r="F88" t="n">
         <v>479</v>
       </c>
-      <c r="G88">
+      <c r="G88" t="n">
         <v>17</v>
       </c>
-      <c r="H88">
+      <c r="H88" t="n">
         <v>8</v>
       </c>
-      <c r="I88">
+      <c r="I88" t="n">
         <v>25</v>
       </c>
-      <c r="J88">
+      <c r="J88" t="n">
         <v>3489</v>
       </c>
-      <c r="K88">
+      <c r="K88" t="n">
         <v>2002</v>
       </c>
-      <c r="L88">
+      <c r="L88" t="n">
         <v>1008</v>
       </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="N88">
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
         <v>2481</v>
       </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-      <c r="Q88">
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
         <v>117</v>
       </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>339</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>27</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>119</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>23</v>
       </c>
-      <c r="F89">
+      <c r="F89" t="n">
         <v>508</v>
       </c>
-      <c r="G89">
+      <c r="G89" t="n">
         <v>18</v>
       </c>
-      <c r="H89">
+      <c r="H89" t="n">
         <v>9</v>
       </c>
-      <c r="I89">
+      <c r="I89" t="n">
         <v>27</v>
       </c>
-      <c r="J89">
+      <c r="J89" t="n">
         <v>3515</v>
       </c>
-      <c r="K89">
+      <c r="K89" t="n">
         <v>2125</v>
       </c>
-      <c r="L89">
+      <c r="L89" t="n">
         <v>882</v>
       </c>
-      <c r="M89">
+      <c r="M89" t="n">
         <v>29</v>
       </c>
-      <c r="N89">
+      <c r="N89" t="n">
         <v>2633</v>
       </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-      <c r="Q89">
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
         <v>146</v>
       </c>
-      <c r="R89">
+      <c r="R89" t="n">
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A90">
+    <row r="90">
+      <c r="A90" t="n">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>340</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>26</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>167</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>23</v>
       </c>
-      <c r="F90">
+      <c r="F90" t="n">
         <v>556</v>
       </c>
-      <c r="G90">
+      <c r="G90" t="n">
         <v>19</v>
       </c>
-      <c r="H90">
+      <c r="H90" t="n">
         <v>7</v>
       </c>
-      <c r="I90">
+      <c r="I90" t="n">
         <v>26</v>
       </c>
-      <c r="J90">
+      <c r="J90" t="n">
         <v>3629</v>
       </c>
-      <c r="K90">
+      <c r="K90" t="n">
         <v>2168</v>
       </c>
-      <c r="L90">
+      <c r="L90" t="n">
         <v>905</v>
       </c>
-      <c r="M90">
+      <c r="M90" t="n">
         <v>48</v>
       </c>
-      <c r="N90">
+      <c r="N90" t="n">
         <v>2724</v>
       </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90">
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
         <v>1</v>
       </c>
-      <c r="Q90">
+      <c r="Q90" t="n">
         <v>193</v>
       </c>
-      <c r="R90">
+      <c r="R90" t="n">
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A91">
+    <row r="91">
+      <c r="A91" t="n">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>340</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>27</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>231</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>23</v>
       </c>
-      <c r="F91">
+      <c r="F91" t="n">
         <v>621</v>
       </c>
-      <c r="G91">
+      <c r="G91" t="n">
         <v>21</v>
       </c>
-      <c r="H91">
+      <c r="H91" t="n">
         <v>6</v>
       </c>
-      <c r="I91">
+      <c r="I91" t="n">
         <v>27</v>
       </c>
-      <c r="J91">
+      <c r="J91" t="n">
         <v>4005</v>
       </c>
-      <c r="K91">
+      <c r="K91" t="n">
         <v>2187</v>
       </c>
-      <c r="L91">
+      <c r="L91" t="n">
         <v>1197</v>
       </c>
-      <c r="M91">
+      <c r="M91" t="n">
         <v>65</v>
       </c>
-      <c r="N91">
+      <c r="N91" t="n">
         <v>2808</v>
       </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
         <v>258</v>
       </c>
-      <c r="R91">
+      <c r="R91" t="n">
         <v>84</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A92">
+    <row r="92">
+      <c r="A92" t="n">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>345</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>24</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>253</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>23</v>
       </c>
-      <c r="F92">
+      <c r="F92" t="n">
         <v>645</v>
       </c>
-      <c r="G92">
+      <c r="G92" t="n">
         <v>17</v>
       </c>
-      <c r="H92">
+      <c r="H92" t="n">
         <v>7</v>
       </c>
-      <c r="I92">
+      <c r="I92" t="n">
         <v>24</v>
       </c>
-      <c r="J92">
+      <c r="J92" t="n">
         <v>4063</v>
       </c>
-      <c r="K92">
+      <c r="K92" t="n">
         <v>2210</v>
       </c>
-      <c r="L92">
+      <c r="L92" t="n">
         <v>1208</v>
       </c>
-      <c r="M92">
+      <c r="M92" t="n">
         <v>24</v>
       </c>
-      <c r="N92">
+      <c r="N92" t="n">
         <v>2855</v>
       </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92">
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
         <v>5</v>
       </c>
-      <c r="Q92">
+      <c r="Q92" t="n">
         <v>277</v>
       </c>
-      <c r="R92">
+      <c r="R92" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A93">
+    <row r="93">
+      <c r="A93" t="n">
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>411</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>23</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>197</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>23</v>
       </c>
-      <c r="F93">
+      <c r="F93" t="n">
         <v>654</v>
       </c>
-      <c r="G93">
+      <c r="G93" t="n">
         <v>17</v>
       </c>
-      <c r="H93">
+      <c r="H93" t="n">
         <v>6</v>
       </c>
-      <c r="I93">
+      <c r="I93" t="n">
         <v>23</v>
       </c>
-      <c r="J93">
+      <c r="J93" t="n">
         <v>4063</v>
       </c>
-      <c r="K93">
+      <c r="K93" t="n">
         <v>2469</v>
       </c>
-      <c r="L93">
+      <c r="L93" t="n">
         <v>940</v>
       </c>
-      <c r="M93">
+      <c r="M93" t="n">
         <v>9</v>
       </c>
-      <c r="N93">
+      <c r="N93" t="n">
         <v>3123</v>
       </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93">
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
         <v>66</v>
       </c>
-      <c r="Q93">
+      <c r="Q93" t="n">
         <v>220</v>
       </c>
-      <c r="R93">
+      <c r="R93" t="n">
         <v>268</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A94">
+    <row r="94">
+      <c r="A94" t="n">
         <v>93</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>411</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>23</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>197</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>23</v>
       </c>
-      <c r="F94">
+      <c r="F94" t="n">
         <v>654</v>
       </c>
-      <c r="G94">
+      <c r="G94" t="n">
         <v>17</v>
       </c>
-      <c r="H94">
+      <c r="H94" t="n">
         <v>6</v>
       </c>
-      <c r="I94">
+      <c r="I94" t="n">
         <v>23</v>
       </c>
-      <c r="J94">
+      <c r="J94" t="n">
         <v>4063</v>
       </c>
-      <c r="K94">
+      <c r="K94" t="n">
         <v>2469</v>
       </c>
-      <c r="L94">
+      <c r="L94" t="n">
         <v>940</v>
       </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="N94">
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
         <v>3123</v>
       </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
-      <c r="Q94">
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
         <v>220</v>
       </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A95">
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
         <v>94</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>411</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>23</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>197</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>23</v>
       </c>
-      <c r="F95">
+      <c r="F95" t="n">
         <v>654</v>
       </c>
-      <c r="G95">
+      <c r="G95" t="n">
         <v>17</v>
       </c>
-      <c r="H95">
+      <c r="H95" t="n">
         <v>6</v>
       </c>
-      <c r="I95">
+      <c r="I95" t="n">
         <v>23</v>
       </c>
-      <c r="J95">
+      <c r="J95" t="n">
         <v>4063</v>
       </c>
-      <c r="K95">
+      <c r="K95" t="n">
         <v>2469</v>
       </c>
-      <c r="L95">
+      <c r="L95" t="n">
         <v>940</v>
       </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="N95">
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
         <v>3123</v>
       </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-      <c r="P95">
-        <v>0</v>
-      </c>
-      <c r="Q95">
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
         <v>220</v>
       </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A96">
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>411</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>34</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>239</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>24</v>
       </c>
-      <c r="F96">
+      <c r="F96" t="n">
         <v>708</v>
       </c>
-      <c r="G96">
+      <c r="G96" t="n">
         <v>24</v>
       </c>
-      <c r="H96">
+      <c r="H96" t="n">
         <v>10</v>
       </c>
-      <c r="I96">
+      <c r="I96" t="n">
         <v>34</v>
       </c>
-      <c r="J96">
+      <c r="J96" t="n">
         <v>4247</v>
       </c>
-      <c r="K96">
+      <c r="K96" t="n">
         <v>2710</v>
       </c>
-      <c r="L96">
+      <c r="L96" t="n">
         <v>829</v>
       </c>
-      <c r="M96">
+      <c r="M96" t="n">
         <v>54</v>
       </c>
-      <c r="N96">
+      <c r="N96" t="n">
         <v>3418</v>
       </c>
-      <c r="O96">
+      <c r="O96" t="n">
         <v>1</v>
       </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-      <c r="Q96">
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
         <v>273</v>
       </c>
-      <c r="R96">
+      <c r="R96" t="n">
         <v>295</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A97">
+    <row r="97">
+      <c r="A97" t="n">
         <v>96</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>420</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>32</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>271</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>24</v>
       </c>
-      <c r="F97">
+      <c r="F97" t="n">
         <v>747</v>
       </c>
-      <c r="G97">
+      <c r="G97" t="n">
         <v>20</v>
       </c>
-      <c r="H97">
+      <c r="H97" t="n">
         <v>12</v>
       </c>
-      <c r="I97">
+      <c r="I97" t="n">
         <v>32</v>
       </c>
-      <c r="J97">
+      <c r="J97" t="n">
         <v>4335</v>
       </c>
-      <c r="K97">
+      <c r="K97" t="n">
         <v>2723</v>
       </c>
-      <c r="L97">
+      <c r="L97" t="n">
         <v>865</v>
       </c>
-      <c r="M97">
+      <c r="M97" t="n">
         <v>39</v>
       </c>
-      <c r="N97">
+      <c r="N97" t="n">
         <v>3470</v>
       </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97">
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
         <v>9</v>
       </c>
-      <c r="Q97">
+      <c r="Q97" t="n">
         <v>303</v>
       </c>
-      <c r="R97">
+      <c r="R97" t="n">
         <v>52</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A98">
+    <row r="98">
+      <c r="A98" t="n">
         <v>97</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>422</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>35</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>301</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>24</v>
       </c>
-      <c r="F98">
+      <c r="F98" t="n">
         <v>782</v>
       </c>
-      <c r="G98">
+      <c r="G98" t="n">
         <v>23</v>
       </c>
-      <c r="H98">
+      <c r="H98" t="n">
         <v>12</v>
       </c>
-      <c r="I98">
+      <c r="I98" t="n">
         <v>35</v>
       </c>
-      <c r="J98">
+      <c r="J98" t="n">
         <v>4424</v>
       </c>
-      <c r="K98">
+      <c r="K98" t="n">
         <v>2725</v>
       </c>
-      <c r="L98">
+      <c r="L98" t="n">
         <v>917</v>
       </c>
-      <c r="M98">
+      <c r="M98" t="n">
         <v>35</v>
       </c>
-      <c r="N98">
+      <c r="N98" t="n">
         <v>3507</v>
       </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
-      <c r="P98">
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
         <v>2</v>
       </c>
-      <c r="Q98">
+      <c r="Q98" t="n">
         <v>336</v>
       </c>
-      <c r="R98">
+      <c r="R98" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A99">
+    <row r="99">
+      <c r="A99" t="n">
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>460</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>32</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>304</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>26</v>
       </c>
-      <c r="F99">
+      <c r="F99" t="n">
         <v>822</v>
       </c>
-      <c r="G99">
+      <c r="G99" t="n">
         <v>23</v>
       </c>
-      <c r="H99">
+      <c r="H99" t="n">
         <v>9</v>
       </c>
-      <c r="I99">
+      <c r="I99" t="n">
         <v>32</v>
       </c>
-      <c r="J99">
+      <c r="J99" t="n">
         <v>5203</v>
       </c>
-      <c r="K99">
+      <c r="K99" t="n">
         <v>3421</v>
       </c>
-      <c r="L99">
+      <c r="L99" t="n">
         <v>960</v>
       </c>
-      <c r="M99">
+      <c r="M99" t="n">
         <v>40</v>
       </c>
-      <c r="N99">
+      <c r="N99" t="n">
         <v>4243</v>
       </c>
-      <c r="O99">
+      <c r="O99" t="n">
         <v>2</v>
       </c>
-      <c r="P99">
+      <c r="P99" t="n">
         <v>38</v>
       </c>
-      <c r="Q99">
+      <c r="Q99" t="n">
         <v>336</v>
       </c>
-      <c r="R99">
+      <c r="R99" t="n">
         <v>736</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A100">
+    <row r="100">
+      <c r="A100" t="n">
         <v>99</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>496</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>34</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>392</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>26</v>
       </c>
-      <c r="F100">
+      <c r="F100" t="n">
         <v>948</v>
       </c>
-      <c r="G100">
+      <c r="G100" t="n">
         <v>25</v>
       </c>
-      <c r="H100">
+      <c r="H100" t="n">
         <v>9</v>
       </c>
-      <c r="I100">
+      <c r="I100" t="n">
         <v>34</v>
       </c>
-      <c r="J100">
+      <c r="J100" t="n">
         <v>5704</v>
       </c>
-      <c r="K100">
+      <c r="K100" t="n">
         <v>3838</v>
       </c>
-      <c r="L100">
+      <c r="L100" t="n">
         <v>918</v>
       </c>
-      <c r="M100">
+      <c r="M100" t="n">
         <v>126</v>
       </c>
-      <c r="N100">
+      <c r="N100" t="n">
         <v>4786</v>
       </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100">
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
         <v>36</v>
       </c>
-      <c r="Q100">
+      <c r="Q100" t="n">
         <v>426</v>
       </c>
-      <c r="R100">
+      <c r="R100" t="n">
         <v>543</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row r="101">
+      <c r="A101" t="n">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>496</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>34</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>392</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>26</v>
       </c>
-      <c r="F101">
+      <c r="F101" t="n">
         <v>948</v>
       </c>
-      <c r="G101">
+      <c r="G101" t="n">
         <v>25</v>
       </c>
-      <c r="H101">
+      <c r="H101" t="n">
         <v>9</v>
       </c>
-      <c r="I101">
+      <c r="I101" t="n">
         <v>34</v>
       </c>
-      <c r="J101">
+      <c r="J101" t="n">
         <v>5704</v>
       </c>
-      <c r="K101">
+      <c r="K101" t="n">
         <v>3838</v>
       </c>
-      <c r="L101">
+      <c r="L101" t="n">
         <v>918</v>
       </c>
-      <c r="M101">
-        <v>0</v>
-      </c>
-      <c r="N101">
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
         <v>4786</v>
       </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-      <c r="Q101">
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
         <v>426</v>
       </c>
-      <c r="R101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A102">
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
         <v>101</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>496</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>34</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>392</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>26</v>
       </c>
-      <c r="F102">
+      <c r="F102" t="n">
         <v>948</v>
       </c>
-      <c r="G102">
+      <c r="G102" t="n">
         <v>25</v>
       </c>
-      <c r="H102">
+      <c r="H102" t="n">
         <v>9</v>
       </c>
-      <c r="I102">
+      <c r="I102" t="n">
         <v>34</v>
       </c>
-      <c r="J102">
+      <c r="J102" t="n">
         <v>5704</v>
       </c>
-      <c r="K102">
+      <c r="K102" t="n">
         <v>3838</v>
       </c>
-      <c r="L102">
+      <c r="L102" t="n">
         <v>918</v>
       </c>
-      <c r="M102">
-        <v>0</v>
-      </c>
-      <c r="N102">
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
         <v>4786</v>
       </c>
-      <c r="O102">
-        <v>0</v>
-      </c>
-      <c r="P102">
-        <v>0</v>
-      </c>
-      <c r="Q102">
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
         <v>426</v>
       </c>
-      <c r="R102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103">
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
         <v>102</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>500</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>35</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>452</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>29</v>
       </c>
-      <c r="F103">
+      <c r="F103" t="n">
         <v>1016</v>
       </c>
-      <c r="G103">
+      <c r="G103" t="n">
         <v>30</v>
       </c>
-      <c r="H103">
+      <c r="H103" t="n">
         <v>5</v>
       </c>
-      <c r="I103">
+      <c r="I103" t="n">
         <v>35</v>
       </c>
-      <c r="J103">
+      <c r="J103" t="n">
         <v>9964</v>
       </c>
-      <c r="K103">
+      <c r="K103" t="n">
         <v>5631</v>
       </c>
-      <c r="L103">
+      <c r="L103" t="n">
         <v>3317</v>
       </c>
-      <c r="M103">
+      <c r="M103" t="n">
         <v>68</v>
       </c>
-      <c r="N103">
+      <c r="N103" t="n">
         <v>6647</v>
       </c>
-      <c r="O103">
+      <c r="O103" t="n">
         <v>3</v>
       </c>
-      <c r="P103">
+      <c r="P103" t="n">
         <v>4</v>
       </c>
-      <c r="Q103">
+      <c r="Q103" t="n">
         <v>487</v>
       </c>
-      <c r="R103">
+      <c r="R103" t="n">
         <v>1861</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>500</v>
+      </c>
+      <c r="C104" t="n">
+        <v>35</v>
+      </c>
+      <c r="D104" t="n">
+        <v>497</v>
+      </c>
+      <c r="E104" t="n">
+        <v>29</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1061</v>
+      </c>
+      <c r="G104" t="n">
+        <v>28</v>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+      <c r="I104" t="n">
+        <v>35</v>
+      </c>
+      <c r="J104" t="n">
+        <v>10694</v>
+      </c>
+      <c r="K104" t="n">
+        <v>6388</v>
+      </c>
+      <c r="L104" t="n">
+        <v>3345</v>
+      </c>
+      <c r="M104" t="n">
+        <v>45</v>
+      </c>
+      <c r="N104" t="n">
+        <v>7349</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>532</v>
+      </c>
+      <c r="R104" t="n">
+        <v>702</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -5775,6 +5775,62 @@
         <v>702</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>500</v>
+      </c>
+      <c r="C105" t="n">
+        <v>41</v>
+      </c>
+      <c r="D105" t="n">
+        <v>606</v>
+      </c>
+      <c r="E105" t="n">
+        <v>32</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1179</v>
+      </c>
+      <c r="G105" t="n">
+        <v>27</v>
+      </c>
+      <c r="H105" t="n">
+        <v>14</v>
+      </c>
+      <c r="I105" t="n">
+        <v>41</v>
+      </c>
+      <c r="J105" t="n">
+        <v>11798</v>
+      </c>
+      <c r="K105" t="n">
+        <v>7250</v>
+      </c>
+      <c r="L105" t="n">
+        <v>3369</v>
+      </c>
+      <c r="M105" t="n">
+        <v>118</v>
+      </c>
+      <c r="N105" t="n">
+        <v>8429</v>
+      </c>
+      <c r="O105" t="n">
+        <v>3</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>647</v>
+      </c>
+      <c r="R105" t="n">
+        <v>1080</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">DATA</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t xml:space="preserve">TESTES_DIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">...19</t>
   </si>
 </sst>
 </file>
@@ -452,6 +455,9 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -474,6 +480,7 @@
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
+      <c r="S2"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -496,6 +503,7 @@
       <c r="P3"/>
       <c r="Q3"/>
       <c r="R3"/>
+      <c r="S3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -518,6 +526,7 @@
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
+      <c r="S4"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -540,6 +549,7 @@
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
+      <c r="S5"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -586,6 +596,9 @@
       <c r="R6" t="n">
         <v>37</v>
       </c>
+      <c r="S6" t="n">
+        <v>0.027027027027027</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -632,6 +645,9 @@
       <c r="R7" t="n">
         <v>12</v>
       </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -678,6 +694,9 @@
       <c r="R8" t="n">
         <v>23</v>
       </c>
+      <c r="S8" t="n">
+        <v>0.0434782608695652</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -724,6 +743,9 @@
       <c r="R9" t="n">
         <v>3</v>
       </c>
+      <c r="S9" t="n">
+        <v>0.333333333333333</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -770,6 +792,9 @@
       <c r="R10" t="n">
         <v>1</v>
       </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -816,6 +841,9 @@
       <c r="R11" t="n">
         <v>4</v>
       </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -862,6 +890,9 @@
       <c r="R12" t="n">
         <v>26</v>
       </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -908,6 +939,9 @@
       <c r="R13" t="n">
         <v>14</v>
       </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -954,6 +988,9 @@
       <c r="R14" t="n">
         <v>17</v>
       </c>
+      <c r="S14" t="n">
+        <v>0.176470588235294</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1000,6 +1037,9 @@
       <c r="R15" t="n">
         <v>5</v>
       </c>
+      <c r="S15" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1046,6 +1086,9 @@
       <c r="R16" t="n">
         <v>4</v>
       </c>
+      <c r="S16" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1092,6 +1135,7 @@
       <c r="R17" t="n">
         <v>0</v>
       </c>
+      <c r="S17"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1138,6 +1182,7 @@
       <c r="R18" t="n">
         <v>0</v>
       </c>
+      <c r="S18"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1184,6 +1229,9 @@
       <c r="R19" t="n">
         <v>28</v>
       </c>
+      <c r="S19" t="n">
+        <v>0.178571428571429</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1230,6 +1278,9 @@
       <c r="R20" t="n">
         <v>8</v>
       </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1276,6 +1327,9 @@
       <c r="R21" t="n">
         <v>9</v>
       </c>
+      <c r="S21" t="n">
+        <v>0.333333333333333</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1322,6 +1376,9 @@
       <c r="R22" t="n">
         <v>4</v>
       </c>
+      <c r="S22" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1368,6 +1425,9 @@
       <c r="R23" t="n">
         <v>4</v>
       </c>
+      <c r="S23" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1414,6 +1474,9 @@
       <c r="R24" t="n">
         <v>13</v>
       </c>
+      <c r="S24" t="n">
+        <v>0.230769230769231</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1460,6 +1523,9 @@
       <c r="R25" t="n">
         <v>37</v>
       </c>
+      <c r="S25" t="n">
+        <v>0.27027027027027</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1506,6 +1572,9 @@
       <c r="R26" t="n">
         <v>41</v>
       </c>
+      <c r="S26" t="n">
+        <v>0.170731707317073</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1552,6 +1621,9 @@
       <c r="R27" t="n">
         <v>28</v>
       </c>
+      <c r="S27" t="n">
+        <v>0.107142857142857</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1598,6 +1670,9 @@
       <c r="R28" t="n">
         <v>22</v>
       </c>
+      <c r="S28" t="n">
+        <v>0.227272727272727</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1644,6 +1719,9 @@
       <c r="R29" t="n">
         <v>24</v>
       </c>
+      <c r="S29" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1690,6 +1768,9 @@
       <c r="R30" t="n">
         <v>1</v>
       </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1736,6 +1817,9 @@
       <c r="R31" t="n">
         <v>26</v>
       </c>
+      <c r="S31" t="n">
+        <v>0.115384615384615</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1782,6 +1866,7 @@
       <c r="R32" t="n">
         <v>0</v>
       </c>
+      <c r="S32"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1828,6 +1913,9 @@
       <c r="R33" t="n">
         <v>46</v>
       </c>
+      <c r="S33" t="n">
+        <v>0.108695652173913</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1874,6 +1962,9 @@
       <c r="R34" t="n">
         <v>11</v>
       </c>
+      <c r="S34" t="n">
+        <v>0.454545454545455</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1920,6 +2011,9 @@
       <c r="R35" t="n">
         <v>16</v>
       </c>
+      <c r="S35" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1966,6 +2060,9 @@
       <c r="R36" t="n">
         <v>12</v>
       </c>
+      <c r="S36" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2022,6 +2119,9 @@
       <c r="R37" t="n">
         <v>27</v>
       </c>
+      <c r="S37" t="n">
+        <v>0.444444444444444</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2078,6 +2178,9 @@
       <c r="R38" t="n">
         <v>30</v>
       </c>
+      <c r="S38" t="n">
+        <v>0.0333333333333333</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2108,7 +2211,7 @@
         <v>19</v>
       </c>
       <c r="J39" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="K39" t="n">
         <v>488</v>
@@ -2120,7 +2223,7 @@
         <v>7</v>
       </c>
       <c r="N39" t="n">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2132,7 +2235,10 @@
         <v>69</v>
       </c>
       <c r="R39" t="n">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.155555555555556</v>
       </c>
     </row>
     <row r="40">
@@ -2188,7 +2294,10 @@
         <v>61</v>
       </c>
       <c r="R40" t="n">
-        <v>-1</v>
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="41">
@@ -2246,6 +2355,9 @@
       <c r="R41" t="n">
         <v>21</v>
       </c>
+      <c r="S41" t="n">
+        <v>0.333333333333333</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2302,6 +2414,9 @@
       <c r="R42" t="n">
         <v>35</v>
       </c>
+      <c r="S42" t="n">
+        <v>0.228571428571429</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2358,6 +2473,9 @@
       <c r="R43" t="n">
         <v>19</v>
       </c>
+      <c r="S43" t="n">
+        <v>0.263157894736842</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2414,6 +2532,9 @@
       <c r="R44" t="n">
         <v>48</v>
       </c>
+      <c r="S44" t="n">
+        <v>0.291666666666667</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2470,6 +2591,9 @@
       <c r="R45" t="n">
         <v>11</v>
       </c>
+      <c r="S45" t="n">
+        <v>0.181818181818182</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2526,6 +2650,9 @@
       <c r="R46" t="n">
         <v>3</v>
       </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2582,6 +2709,9 @@
       <c r="R47" t="n">
         <v>33</v>
       </c>
+      <c r="S47" t="n">
+        <v>0.454545454545455</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2638,6 +2768,9 @@
       <c r="R48" t="n">
         <v>24</v>
       </c>
+      <c r="S48" t="n">
+        <v>0.0416666666666667</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2694,6 +2827,9 @@
       <c r="R49" t="n">
         <v>31</v>
       </c>
+      <c r="S49" t="n">
+        <v>0.870967741935484</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2750,6 +2886,9 @@
       <c r="R50" t="n">
         <v>87</v>
       </c>
+      <c r="S50" t="n">
+        <v>0.206896551724138</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2806,6 +2945,9 @@
       <c r="R51" t="n">
         <v>51</v>
       </c>
+      <c r="S51" t="n">
+        <v>0.235294117647059</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2862,6 +3004,7 @@
       <c r="R52" t="n">
         <v>0</v>
       </c>
+      <c r="S52"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2918,6 +3061,9 @@
       <c r="R53" t="n">
         <v>40</v>
       </c>
+      <c r="S53" t="n">
+        <v>0.075</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2974,6 +3120,9 @@
       <c r="R54" t="n">
         <v>36</v>
       </c>
+      <c r="S54" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -3030,6 +3179,9 @@
       <c r="R55" t="n">
         <v>39</v>
       </c>
+      <c r="S55" t="n">
+        <v>0.102564102564103</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -3086,6 +3238,9 @@
       <c r="R56" t="n">
         <v>38</v>
       </c>
+      <c r="S56" t="n">
+        <v>0.473684210526316</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -3142,6 +3297,9 @@
       <c r="R57" t="n">
         <v>55</v>
       </c>
+      <c r="S57" t="n">
+        <v>0.145454545454545</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -3198,6 +3356,9 @@
       <c r="R58" t="n">
         <v>55</v>
       </c>
+      <c r="S58" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -3254,6 +3415,9 @@
       <c r="R59" t="n">
         <v>20</v>
       </c>
+      <c r="S59" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -3310,6 +3474,9 @@
       <c r="R60" t="n">
         <v>19</v>
       </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -3366,6 +3533,9 @@
       <c r="R61" t="n">
         <v>45</v>
       </c>
+      <c r="S61" t="n">
+        <v>0.155555555555556</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3422,6 +3592,9 @@
       <c r="R62" t="n">
         <v>16</v>
       </c>
+      <c r="S62" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -3478,6 +3651,9 @@
       <c r="R63" t="n">
         <v>29</v>
       </c>
+      <c r="S63" t="n">
+        <v>0.206896551724138</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -3534,6 +3710,9 @@
       <c r="R64" t="n">
         <v>21</v>
       </c>
+      <c r="S64" t="n">
+        <v>0.428571428571429</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -3590,6 +3769,9 @@
       <c r="R65" t="n">
         <v>21</v>
       </c>
+      <c r="S65" t="n">
+        <v>0.523809523809524</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3646,6 +3828,9 @@
       <c r="R66" t="n">
         <v>44</v>
       </c>
+      <c r="S66" t="n">
+        <v>0.227272727272727</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -3702,6 +3887,9 @@
       <c r="R67" t="n">
         <v>2</v>
       </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -3758,6 +3946,9 @@
       <c r="R68" t="n">
         <v>29</v>
       </c>
+      <c r="S68" t="n">
+        <v>0.172413793103448</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -3814,6 +4005,9 @@
       <c r="R69" t="n">
         <v>11</v>
       </c>
+      <c r="S69" t="n">
+        <v>0.181818181818182</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -3870,6 +4064,9 @@
       <c r="R70" t="n">
         <v>4</v>
       </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3926,6 +4123,9 @@
       <c r="R71" t="n">
         <v>35</v>
       </c>
+      <c r="S71" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3982,6 +4182,9 @@
       <c r="R72" t="n">
         <v>28</v>
       </c>
+      <c r="S72" t="n">
+        <v>0.178571428571429</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -4038,6 +4241,9 @@
       <c r="R73" t="n">
         <v>15</v>
       </c>
+      <c r="S73" t="n">
+        <v>0.666666666666667</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -4094,6 +4300,9 @@
       <c r="R74" t="n">
         <v>39</v>
       </c>
+      <c r="S74" t="n">
+        <v>0.41025641025641</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -4150,6 +4359,9 @@
       <c r="R75" t="n">
         <v>29</v>
       </c>
+      <c r="S75" t="n">
+        <v>0.413793103448276</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -4206,6 +4418,9 @@
       <c r="R76" t="n">
         <v>33</v>
       </c>
+      <c r="S76" t="n">
+        <v>0.484848484848485</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -4262,6 +4477,9 @@
       <c r="R77" t="n">
         <v>10</v>
       </c>
+      <c r="S77" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -4318,6 +4536,9 @@
       <c r="R78" t="n">
         <v>39</v>
       </c>
+      <c r="S78" t="n">
+        <v>0.435897435897436</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -4374,6 +4595,9 @@
       <c r="R79" t="n">
         <v>36</v>
       </c>
+      <c r="S79" t="n">
+        <v>0.361111111111111</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -4430,6 +4654,9 @@
       <c r="R80" t="n">
         <v>2</v>
       </c>
+      <c r="S80" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -4486,6 +4713,9 @@
       <c r="R81" t="n">
         <v>24</v>
       </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -4542,6 +4772,9 @@
       <c r="R82" t="n">
         <v>66</v>
       </c>
+      <c r="S82" t="n">
+        <v>0.318181818181818</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -4598,6 +4831,9 @@
       <c r="R83" t="n">
         <v>226</v>
       </c>
+      <c r="S83" t="n">
+        <v>0.0176991150442478</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -4654,6 +4890,9 @@
       <c r="R84" t="n">
         <v>344</v>
       </c>
+      <c r="S84" t="n">
+        <v>0.0116279069767442</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -4710,6 +4949,9 @@
       <c r="R85" t="n">
         <v>19</v>
       </c>
+      <c r="S85" t="n">
+        <v>0.473684210526316</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -4766,6 +5008,9 @@
       <c r="R86" t="n">
         <v>69</v>
       </c>
+      <c r="S86" t="n">
+        <v>0.260869565217391</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -4822,6 +5067,7 @@
       <c r="R87" t="n">
         <v>0</v>
       </c>
+      <c r="S87"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -4878,6 +5124,7 @@
       <c r="R88" t="n">
         <v>0</v>
       </c>
+      <c r="S88"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -4934,6 +5181,9 @@
       <c r="R89" t="n">
         <v>152</v>
       </c>
+      <c r="S89" t="n">
+        <v>0.190789473684211</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -4990,6 +5240,9 @@
       <c r="R90" t="n">
         <v>91</v>
       </c>
+      <c r="S90" t="n">
+        <v>0.527472527472527</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -5046,6 +5299,9 @@
       <c r="R91" t="n">
         <v>84</v>
       </c>
+      <c r="S91" t="n">
+        <v>0.773809523809524</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -5102,6 +5358,9 @@
       <c r="R92" t="n">
         <v>47</v>
       </c>
+      <c r="S92" t="n">
+        <v>0.51063829787234</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -5158,6 +5417,9 @@
       <c r="R93" t="n">
         <v>268</v>
       </c>
+      <c r="S93" t="n">
+        <v>0.0335820895522388</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -5214,6 +5476,7 @@
       <c r="R94" t="n">
         <v>0</v>
       </c>
+      <c r="S94"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -5270,6 +5533,7 @@
       <c r="R95" t="n">
         <v>0</v>
       </c>
+      <c r="S95"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -5326,6 +5590,9 @@
       <c r="R96" t="n">
         <v>295</v>
       </c>
+      <c r="S96" t="n">
+        <v>0.183050847457627</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -5382,6 +5649,9 @@
       <c r="R97" t="n">
         <v>52</v>
       </c>
+      <c r="S97" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -5438,6 +5708,9 @@
       <c r="R98" t="n">
         <v>37</v>
       </c>
+      <c r="S98" t="n">
+        <v>0.945945945945946</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -5494,6 +5767,9 @@
       <c r="R99" t="n">
         <v>736</v>
       </c>
+      <c r="S99" t="n">
+        <v>0.0543478260869565</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -5550,6 +5826,9 @@
       <c r="R100" t="n">
         <v>543</v>
       </c>
+      <c r="S100" t="n">
+        <v>0.232044198895028</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -5606,6 +5885,7 @@
       <c r="R101" t="n">
         <v>0</v>
       </c>
+      <c r="S101"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -5662,6 +5942,7 @@
       <c r="R102" t="n">
         <v>0</v>
       </c>
+      <c r="S102"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -5718,6 +5999,9 @@
       <c r="R103" t="n">
         <v>1861</v>
       </c>
+      <c r="S103" t="n">
+        <v>0.0365394948952176</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -5774,6 +6058,9 @@
       <c r="R104" t="n">
         <v>702</v>
       </c>
+      <c r="S104" t="n">
+        <v>0.0641025641025641</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -5830,6 +6117,125 @@
       <c r="R105" t="n">
         <v>1080</v>
       </c>
+      <c r="S105" t="n">
+        <v>0.109259259259259</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>630</v>
+      </c>
+      <c r="C106" t="n">
+        <v>39</v>
+      </c>
+      <c r="D106" t="n">
+        <v>800</v>
+      </c>
+      <c r="E106" t="n">
+        <v>33</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1502</v>
+      </c>
+      <c r="G106" t="n">
+        <v>26</v>
+      </c>
+      <c r="H106" t="n">
+        <v>13</v>
+      </c>
+      <c r="I106" t="n">
+        <v>39</v>
+      </c>
+      <c r="J106" t="n">
+        <v>13283</v>
+      </c>
+      <c r="K106" t="n">
+        <v>8315</v>
+      </c>
+      <c r="L106" t="n">
+        <v>3466</v>
+      </c>
+      <c r="M106" t="n">
+        <v>323</v>
+      </c>
+      <c r="N106" t="n">
+        <v>9817</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1</v>
+      </c>
+      <c r="P106" t="n">
+        <v>130</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>839</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1388</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0.232708933717579</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>726</v>
+      </c>
+      <c r="C107" t="n">
+        <v>40</v>
+      </c>
+      <c r="D107" t="n">
+        <v>899</v>
+      </c>
+      <c r="E107" t="n">
+        <v>34</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1699</v>
+      </c>
+      <c r="G107" t="n">
+        <v>26</v>
+      </c>
+      <c r="H107" t="n">
+        <v>14</v>
+      </c>
+      <c r="I107" t="n">
+        <v>40</v>
+      </c>
+      <c r="J107" t="n">
+        <v>14145</v>
+      </c>
+      <c r="K107" t="n">
+        <v>8879</v>
+      </c>
+      <c r="L107" t="n">
+        <v>3567</v>
+      </c>
+      <c r="M107" t="n">
+        <v>197</v>
+      </c>
+      <c r="N107" t="n">
+        <v>10578</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1</v>
+      </c>
+      <c r="P107" t="n">
+        <v>96</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>939</v>
+      </c>
+      <c r="R107" t="n">
+        <v>761</v>
+      </c>
+      <c r="S107"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -6237,6 +6237,63 @@
       </c>
       <c r="S107"/>
     </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>726</v>
+      </c>
+      <c r="C108" t="n">
+        <v>40</v>
+      </c>
+      <c r="D108" t="n">
+        <v>899</v>
+      </c>
+      <c r="E108" t="n">
+        <v>34</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1699</v>
+      </c>
+      <c r="G108" t="n">
+        <v>26</v>
+      </c>
+      <c r="H108" t="n">
+        <v>14</v>
+      </c>
+      <c r="I108" t="n">
+        <v>40</v>
+      </c>
+      <c r="J108" t="n">
+        <v>14145</v>
+      </c>
+      <c r="K108" t="n">
+        <v>8879</v>
+      </c>
+      <c r="L108" t="n">
+        <v>3567</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>10578</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>939</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -6294,6 +6294,63 @@
       </c>
       <c r="S108"/>
     </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>726</v>
+      </c>
+      <c r="C109" t="n">
+        <v>40</v>
+      </c>
+      <c r="D109" t="n">
+        <v>899</v>
+      </c>
+      <c r="E109" t="n">
+        <v>34</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1699</v>
+      </c>
+      <c r="G109" t="n">
+        <v>26</v>
+      </c>
+      <c r="H109" t="n">
+        <v>14</v>
+      </c>
+      <c r="I109" t="n">
+        <v>40</v>
+      </c>
+      <c r="J109" t="n">
+        <v>14145</v>
+      </c>
+      <c r="K109" t="n">
+        <v>8879</v>
+      </c>
+      <c r="L109" t="n">
+        <v>3567</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>10578</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>939</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
+      <c r="S109"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -6351,6 +6351,63 @@
       </c>
       <c r="S109"/>
     </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>790</v>
+      </c>
+      <c r="C110" t="n">
+        <v>47</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1089</v>
+      </c>
+      <c r="E110" t="n">
+        <v>39</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1965</v>
+      </c>
+      <c r="G110" t="n">
+        <v>28</v>
+      </c>
+      <c r="H110" t="n">
+        <v>19</v>
+      </c>
+      <c r="I110" t="n">
+        <v>47</v>
+      </c>
+      <c r="J110" t="n">
+        <v>15568</v>
+      </c>
+      <c r="K110" t="n">
+        <v>9931</v>
+      </c>
+      <c r="L110" t="n">
+        <v>3672</v>
+      </c>
+      <c r="M110" t="n">
+        <v>266</v>
+      </c>
+      <c r="N110" t="n">
+        <v>11896</v>
+      </c>
+      <c r="O110" t="n">
+        <v>5</v>
+      </c>
+      <c r="P110" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>1136</v>
+      </c>
+      <c r="R110" t="n">
+        <v>1318</v>
+      </c>
+      <c r="S110"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -1,82 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauLo\Google Drive\Marvellous Math\Coding\RStudio\Covid Jlle\Sites\Datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4751B94A-0EF3-48CE-9FB7-0D636EA918AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="COVIDJoinville" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="COVIDJoinville" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t xml:space="preserve">DATA</t>
+    <t>DATA</t>
   </si>
   <si>
-    <t xml:space="preserve">RECUPERADOS</t>
+    <t>RECUPERADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">HOSPITALIZADOS</t>
+    <t>HOSPITALIZADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">ISO_DOMICILIAR</t>
+    <t>ISO_DOMICILIAR</t>
   </si>
   <si>
-    <t xml:space="preserve">MORTES</t>
+    <t>MORTES</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL</t>
+    <t>TOTAL</t>
   </si>
   <si>
-    <t xml:space="preserve">UTI</t>
+    <t>UTI</t>
   </si>
   <si>
-    <t xml:space="preserve">ENFERMARIA</t>
+    <t>ENFERMARIA</t>
   </si>
   <si>
-    <t xml:space="preserve">HOSPITALIZADOS2</t>
+    <t>HOSPITALIZADOS2</t>
   </si>
   <si>
-    <t xml:space="preserve">NOTIFICADOS</t>
+    <t>NOTIFICADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">DESCARTADOS</t>
+    <t>DESCARTADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">AGUARDANDO_EX</t>
+    <t>AGUARDANDO_EX</t>
   </si>
   <si>
-    <t xml:space="preserve">CASOS_DIA</t>
+    <t>CASOS_DIA</t>
   </si>
   <si>
-    <t xml:space="preserve">TESTES</t>
+    <t>TESTES</t>
   </si>
   <si>
-    <t xml:space="preserve">MORTES_DIA</t>
+    <t>MORTES_DIA</t>
   </si>
   <si>
-    <t xml:space="preserve">REC_DIA</t>
+    <t>REC_DIA</t>
   </si>
   <si>
-    <t xml:space="preserve">CASOS_ATIVOS</t>
+    <t>CASOS_ATIVOS</t>
   </si>
   <si>
-    <t xml:space="preserve">TESTES_DIA</t>
+    <t>TESTES_DIA</t>
   </si>
   <si>
-    <t xml:space="preserve">...19</t>
+    <t>...19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -112,6 +129,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -393,14 +419,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S112"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R112" sqref="R112"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,5957 +491,5838 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>87</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>36</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>50</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>37</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>1</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>37</v>
       </c>
-      <c r="S6" t="n">
-        <v>0.027027027027027</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="S6">
+        <v>2.7027027027027001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>109</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>48</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>60</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>49</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>1</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>12</v>
       </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>129</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>70</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>57</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>72</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>2</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>23</v>
       </c>
-      <c r="S8" t="n">
-        <v>0.0434782608695652</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="S8">
+        <v>4.3478260869565202E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>143</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>72</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>68</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>1</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>75</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>3</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>3</v>
       </c>
-      <c r="S9" t="n">
-        <v>0.333333333333333</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="S9">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>145</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>72</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>69</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>1</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>76</v>
       </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>4</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>1</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>145</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>76</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>65</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>80</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>4</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>4</v>
       </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>4</v>
       </c>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>155</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>102</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>49</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
         <v>106</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>4</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>26</v>
       </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>4</v>
       </c>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>162</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>116</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>42</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
         <v>120</v>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>4</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>14</v>
       </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
         <v>7</v>
       </c>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>169</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>130</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>32</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>3</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>137</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>7</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>17</v>
       </c>
-      <c r="S14" t="n">
-        <v>0.176470588235294</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="S14">
+        <v>0.17647058823529399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>8</v>
       </c>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>176</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>134</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L15">
         <v>34</v>
       </c>
-      <c r="M15" t="n">
+      <c r="M15">
         <v>1</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>142</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>8</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>5</v>
       </c>
-      <c r="S15" t="n">
+      <c r="S15">
         <v>0.2</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>10</v>
       </c>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>191</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>136</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16">
         <v>45</v>
       </c>
-      <c r="M16" t="n">
+      <c r="M16">
         <v>2</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>146</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>10</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>4</v>
       </c>
-      <c r="S16" t="n">
+      <c r="S16">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>10</v>
       </c>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>204</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>136</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>58</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
         <v>146</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>10</v>
       </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>10</v>
       </c>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>208</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>136</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>62</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
         <v>146</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>10</v>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="R18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19" t="n">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>15</v>
       </c>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>219</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>159</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>45</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>5</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>174</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>14</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>28</v>
       </c>
-      <c r="S19" t="n">
-        <v>0.178571428571429</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="S19">
+        <v>0.17857142857142899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>8</v>
       </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>15</v>
       </c>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>248</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>167</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>66</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
         <v>182</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>8</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>6</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>8</v>
       </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>10</v>
       </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>18</v>
       </c>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>259</v>
       </c>
-      <c r="K21" t="n">
+      <c r="K21">
         <v>173</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L21">
         <v>68</v>
       </c>
-      <c r="M21" t="n">
+      <c r="M21">
         <v>3</v>
       </c>
-      <c r="N21" t="n">
+      <c r="N21">
         <v>191</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
         <v>2</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21">
         <v>7</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21">
         <v>9</v>
       </c>
-      <c r="S21" t="n">
-        <v>0.333333333333333</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="S21">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>11</v>
       </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>19</v>
       </c>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>294</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K22">
         <v>176</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L22">
         <v>99</v>
       </c>
-      <c r="M22" t="n">
+      <c r="M22">
         <v>1</v>
       </c>
-      <c r="N22" t="n">
+      <c r="N22">
         <v>195</v>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
         <v>1</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22">
         <v>7</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22">
         <v>4</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22">
         <v>0.25</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>12</v>
       </c>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>20</v>
       </c>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>306</v>
       </c>
-      <c r="K23" t="n">
+      <c r="K23">
         <v>179</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L23">
         <v>107</v>
       </c>
-      <c r="M23" t="n">
+      <c r="M23">
         <v>1</v>
       </c>
-      <c r="N23" t="n">
+      <c r="N23">
         <v>199</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
         <v>1</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="Q23">
         <v>7</v>
       </c>
-      <c r="R23" t="n">
+      <c r="R23">
         <v>4</v>
       </c>
-      <c r="S23" t="n">
+      <c r="S23">
         <v>0.25</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>12</v>
       </c>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>23</v>
       </c>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>315</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24">
         <v>189</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L24">
         <v>103</v>
       </c>
-      <c r="M24" t="n">
+      <c r="M24">
         <v>3</v>
       </c>
-      <c r="N24" t="n">
+      <c r="N24">
         <v>212</v>
       </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>10</v>
       </c>
-      <c r="R24" t="n">
+      <c r="R24">
         <v>13</v>
       </c>
-      <c r="S24" t="n">
+      <c r="S24">
         <v>0.230769230769231</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>12</v>
       </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>33</v>
       </c>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>326</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K25">
         <v>216</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L25">
         <v>77</v>
       </c>
-      <c r="M25" t="n">
+      <c r="M25">
         <v>10</v>
       </c>
-      <c r="N25" t="n">
+      <c r="N25">
         <v>249</v>
       </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>20</v>
       </c>
-      <c r="R25" t="n">
+      <c r="R25">
         <v>37</v>
       </c>
-      <c r="S25" t="n">
-        <v>0.27027027027027</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="S25">
+        <v>0.27027027027027001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>13</v>
       </c>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>40</v>
       </c>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>356</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K26">
         <v>250</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L26">
         <v>66</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M26">
         <v>7</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N26">
         <v>290</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
         <v>1</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="Q26">
         <v>26</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R26">
         <v>41</v>
       </c>
-      <c r="S26" t="n">
-        <v>0.170731707317073</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="S26">
+        <v>0.17073170731707299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>13</v>
       </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>43</v>
       </c>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>372</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27">
         <v>275</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27">
         <v>54</v>
       </c>
-      <c r="M27" t="n">
+      <c r="M27">
         <v>3</v>
       </c>
-      <c r="N27" t="n">
+      <c r="N27">
         <v>318</v>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>29</v>
       </c>
-      <c r="R27" t="n">
+      <c r="R27">
         <v>28</v>
       </c>
-      <c r="S27" t="n">
+      <c r="S27">
         <v>0.107142857142857</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>13</v>
       </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>48</v>
       </c>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>382</v>
       </c>
-      <c r="K28" t="n">
+      <c r="K28">
         <v>292</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L28">
         <v>42</v>
       </c>
-      <c r="M28" t="n">
+      <c r="M28">
         <v>5</v>
       </c>
-      <c r="N28" t="n">
+      <c r="N28">
         <v>340</v>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>34</v>
       </c>
-      <c r="R28" t="n">
+      <c r="R28">
         <v>22</v>
       </c>
-      <c r="S28" t="n">
-        <v>0.227272727272727</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="S28">
+        <v>0.22727272727272699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>13</v>
       </c>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>51</v>
       </c>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>410</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K29">
         <v>313</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L29">
         <v>46</v>
       </c>
-      <c r="M29" t="n">
+      <c r="M29">
         <v>3</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N29">
         <v>364</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>37</v>
       </c>
-      <c r="R29" t="n">
+      <c r="R29">
         <v>24</v>
       </c>
-      <c r="S29" t="n">
+      <c r="S29">
         <v>0.125</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>13</v>
       </c>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>51</v>
       </c>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>426</v>
       </c>
-      <c r="K30" t="n">
+      <c r="K30">
         <v>314</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L30">
         <v>61</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
         <v>365</v>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>37</v>
       </c>
-      <c r="R30" t="n">
+      <c r="R30">
         <v>1</v>
       </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="S30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>19</v>
       </c>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>54</v>
       </c>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>426</v>
       </c>
-      <c r="K31" t="n">
+      <c r="K31">
         <v>337</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L31">
         <v>35</v>
       </c>
-      <c r="M31" t="n">
+      <c r="M31">
         <v>3</v>
       </c>
-      <c r="N31" t="n">
+      <c r="N31">
         <v>391</v>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
         <v>6</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="Q31">
         <v>34</v>
       </c>
-      <c r="R31" t="n">
+      <c r="R31">
         <v>26</v>
       </c>
-      <c r="S31" t="n">
+      <c r="S31">
         <v>0.115384615384615</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>19</v>
       </c>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>2</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>54</v>
       </c>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>426</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K32">
         <v>337</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L32">
         <v>35</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
         <v>391</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O32">
         <v>1</v>
       </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>33</v>
       </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>20</v>
       </c>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>2</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>59</v>
       </c>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>463</v>
       </c>
-      <c r="K33" t="n">
+      <c r="K33">
         <v>378</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L33">
         <v>26</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M33">
         <v>5</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N33">
         <v>437</v>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
         <v>1</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="Q33">
         <v>37</v>
       </c>
-      <c r="R33" t="n">
+      <c r="R33">
         <v>46</v>
       </c>
-      <c r="S33" t="n">
+      <c r="S33">
         <v>0.108695652173913</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>22</v>
       </c>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>2</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>64</v>
       </c>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>473</v>
       </c>
-      <c r="K34" t="n">
+      <c r="K34">
         <v>384</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L34">
         <v>25</v>
       </c>
-      <c r="M34" t="n">
+      <c r="M34">
         <v>5</v>
       </c>
-      <c r="N34" t="n">
+      <c r="N34">
         <v>448</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
         <v>2</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="Q34">
         <v>40</v>
       </c>
-      <c r="R34" t="n">
+      <c r="R34">
         <v>11</v>
       </c>
-      <c r="S34" t="n">
-        <v>0.454545454545455</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="S34">
+        <v>0.45454545454545497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>22</v>
       </c>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>2</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>70</v>
       </c>
-      <c r="G35"/>
-      <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>488</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K35">
         <v>394</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L35">
         <v>24</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M35">
         <v>6</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N35">
         <v>464</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>46</v>
       </c>
-      <c r="R35" t="n">
+      <c r="R35">
         <v>16</v>
       </c>
-      <c r="S35" t="n">
+      <c r="S35">
         <v>0.375</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>22</v>
       </c>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>2</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>73</v>
       </c>
-      <c r="G36"/>
-      <c r="H36"/>
-      <c r="I36"/>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>537</v>
       </c>
-      <c r="K36" t="n">
+      <c r="K36">
         <v>403</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L36">
         <v>61</v>
       </c>
-      <c r="M36" t="n">
+      <c r="M36">
         <v>3</v>
       </c>
-      <c r="N36" t="n">
+      <c r="N36">
         <v>476</v>
       </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>49</v>
       </c>
-      <c r="R36" t="n">
+      <c r="R36">
         <v>12</v>
       </c>
-      <c r="S36" t="n">
+      <c r="S36">
         <v>0.25</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>22</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>14</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>47</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>85</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>3</v>
       </c>
-      <c r="H37" t="n">
+      <c r="H37">
         <v>11</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I37">
         <v>14</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>558</v>
       </c>
-      <c r="K37" t="n">
+      <c r="K37">
         <v>418</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L37">
         <v>55</v>
       </c>
-      <c r="M37" t="n">
+      <c r="M37">
         <v>12</v>
       </c>
-      <c r="N37" t="n">
+      <c r="N37">
         <v>503</v>
       </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>61</v>
       </c>
-      <c r="R37" t="n">
+      <c r="R37">
         <v>27</v>
       </c>
-      <c r="S37" t="n">
-        <v>0.444444444444444</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="S37">
+        <v>0.44444444444444398</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>22</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>16</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>46</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>86</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>3</v>
       </c>
-      <c r="H38" t="n">
+      <c r="H38">
         <v>13</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I38">
         <v>16</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>596</v>
       </c>
-      <c r="K38" t="n">
+      <c r="K38">
         <v>447</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38">
         <v>63</v>
       </c>
-      <c r="M38" t="n">
+      <c r="M38">
         <v>1</v>
       </c>
-      <c r="N38" t="n">
+      <c r="N38">
         <v>533</v>
       </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>62</v>
       </c>
-      <c r="R38" t="n">
+      <c r="R38">
         <v>30</v>
       </c>
-      <c r="S38" t="n">
-        <v>0.0333333333333333</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="S38">
+        <v>3.3333333333333298E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>22</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>19</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>50</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>2</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>93</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>3</v>
       </c>
-      <c r="H39" t="n">
+      <c r="H39">
         <v>16</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I39">
         <v>19</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>616</v>
       </c>
-      <c r="K39" t="n">
+      <c r="K39">
         <v>488</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L39">
         <v>38</v>
       </c>
-      <c r="M39" t="n">
+      <c r="M39">
         <v>7</v>
       </c>
-      <c r="N39" t="n">
+      <c r="N39">
         <v>578</v>
       </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>69</v>
       </c>
-      <c r="R39" t="n">
+      <c r="R39">
         <v>45</v>
       </c>
-      <c r="S39" t="n">
+      <c r="S39">
         <v>0.155555555555556</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>31</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>11</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>50</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>2</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>94</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>1</v>
       </c>
-      <c r="H40" t="n">
+      <c r="H40">
         <v>10</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I40">
         <v>11</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>619</v>
       </c>
-      <c r="K40" t="n">
+      <c r="K40">
         <v>486</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40">
         <v>39</v>
       </c>
-      <c r="M40" t="n">
+      <c r="M40">
         <v>1</v>
       </c>
-      <c r="N40" t="n">
+      <c r="N40">
         <v>580</v>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
         <v>9</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="Q40">
         <v>61</v>
       </c>
-      <c r="R40" t="n">
+      <c r="R40">
         <v>2</v>
       </c>
-      <c r="S40" t="n">
+      <c r="S40">
         <v>0.5</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>31</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>11</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>57</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>2</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>101</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>1</v>
       </c>
-      <c r="H41" t="n">
+      <c r="H41">
         <v>10</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I41">
         <v>11</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>652</v>
       </c>
-      <c r="K41" t="n">
+      <c r="K41">
         <v>500</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41">
         <v>51</v>
       </c>
-      <c r="M41" t="n">
+      <c r="M41">
         <v>7</v>
       </c>
-      <c r="N41" t="n">
+      <c r="N41">
         <v>601</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>68</v>
       </c>
-      <c r="R41" t="n">
+      <c r="R41">
         <v>21</v>
       </c>
-      <c r="S41" t="n">
-        <v>0.333333333333333</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="S41">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>31</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>16</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>60</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>2</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>109</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>3</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H42">
         <v>13</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I42">
         <v>16</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>669</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K42">
         <v>527</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42">
         <v>33</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M42">
         <v>8</v>
       </c>
-      <c r="N42" t="n">
+      <c r="N42">
         <v>636</v>
       </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>76</v>
       </c>
-      <c r="R42" t="n">
+      <c r="R42">
         <v>35</v>
       </c>
-      <c r="S42" t="n">
-        <v>0.228571428571429</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="S42">
+        <v>0.22857142857142901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>34</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>12</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>66</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>2</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>114</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>3</v>
       </c>
-      <c r="H43" t="n">
+      <c r="H43">
         <v>9</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I43">
         <v>12</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>698</v>
       </c>
-      <c r="K43" t="n">
+      <c r="K43">
         <v>541</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43">
         <v>43</v>
       </c>
-      <c r="M43" t="n">
+      <c r="M43">
         <v>5</v>
       </c>
-      <c r="N43" t="n">
+      <c r="N43">
         <v>655</v>
       </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
         <v>3</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="Q43">
         <v>78</v>
       </c>
-      <c r="R43" t="n">
+      <c r="R43">
         <v>19</v>
       </c>
-      <c r="S43" t="n">
-        <v>0.263157894736842</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="S43">
+        <v>0.26315789473684198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>34</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>13</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>79</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>2</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>128</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>4</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44">
         <v>9</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I44">
         <v>13</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>734</v>
       </c>
-      <c r="K44" t="n">
+      <c r="K44">
         <v>575</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L44">
         <v>31</v>
       </c>
-      <c r="M44" t="n">
+      <c r="M44">
         <v>14</v>
       </c>
-      <c r="N44" t="n">
+      <c r="N44">
         <v>703</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>92</v>
       </c>
-      <c r="R44" t="n">
+      <c r="R44">
         <v>48</v>
       </c>
-      <c r="S44" t="n">
-        <v>0.291666666666667</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="S44">
+        <v>0.29166666666666702</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>34</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>13</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>80</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>3</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>130</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>4</v>
       </c>
-      <c r="H45" t="n">
+      <c r="H45">
         <v>9</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I45">
         <v>13</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>749</v>
       </c>
-      <c r="K45" t="n">
+      <c r="K45">
         <v>584</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L45">
         <v>35</v>
       </c>
-      <c r="M45" t="n">
+      <c r="M45">
         <v>2</v>
       </c>
-      <c r="N45" t="n">
+      <c r="N45">
         <v>714</v>
       </c>
-      <c r="O45" t="n">
+      <c r="O45">
         <v>1</v>
       </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <v>93</v>
       </c>
-      <c r="R45" t="n">
+      <c r="R45">
         <v>11</v>
       </c>
-      <c r="S45" t="n">
-        <v>0.181818181818182</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="S45">
+        <v>0.18181818181818199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>34</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>13</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>80</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>3</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>130</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>4</v>
       </c>
-      <c r="H46" t="n">
+      <c r="H46">
         <v>9</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I46">
         <v>13</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>765</v>
       </c>
-      <c r="K46" t="n">
+      <c r="K46">
         <v>587</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46">
         <v>48</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
         <v>717</v>
       </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>93</v>
       </c>
-      <c r="R46" t="n">
+      <c r="R46">
         <v>3</v>
       </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="S46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>37</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>14</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>91</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>3</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>145</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>4</v>
       </c>
-      <c r="H47" t="n">
+      <c r="H47">
         <v>10</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I47">
         <v>14</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>776</v>
       </c>
-      <c r="K47" t="n">
+      <c r="K47">
         <v>605</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L47">
         <v>26</v>
       </c>
-      <c r="M47" t="n">
+      <c r="M47">
         <v>15</v>
       </c>
-      <c r="N47" t="n">
+      <c r="N47">
         <v>750</v>
       </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
         <v>3</v>
       </c>
-      <c r="Q47" t="n">
+      <c r="Q47">
         <v>105</v>
       </c>
-      <c r="R47" t="n">
+      <c r="R47">
         <v>33</v>
       </c>
-      <c r="S47" t="n">
-        <v>0.454545454545455</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="S47">
+        <v>0.45454545454545497</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>38</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>17</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>88</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>3</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>146</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>7</v>
       </c>
-      <c r="H48" t="n">
+      <c r="H48">
         <v>10</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I48">
         <v>17</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>832</v>
       </c>
-      <c r="K48" t="n">
+      <c r="K48">
         <v>628</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L48">
         <v>58</v>
       </c>
-      <c r="M48" t="n">
+      <c r="M48">
         <v>1</v>
       </c>
-      <c r="N48" t="n">
+      <c r="N48">
         <v>774</v>
       </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
         <v>1</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q48">
         <v>105</v>
       </c>
-      <c r="R48" t="n">
+      <c r="R48">
         <v>24</v>
       </c>
-      <c r="S48" t="n">
-        <v>0.0416666666666667</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="S48">
+        <v>4.1666666666666699E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>38</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>18</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>114</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>3</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>173</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>7</v>
       </c>
-      <c r="H49" t="n">
+      <c r="H49">
         <v>11</v>
       </c>
-      <c r="I49" t="n">
+      <c r="I49">
         <v>18</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>862</v>
       </c>
-      <c r="K49" t="n">
+      <c r="K49">
         <v>632</v>
       </c>
-      <c r="L49" t="n">
+      <c r="L49">
         <v>57</v>
       </c>
-      <c r="M49" t="n">
+      <c r="M49">
         <v>27</v>
       </c>
-      <c r="N49" t="n">
+      <c r="N49">
         <v>805</v>
       </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="n">
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
         <v>132</v>
       </c>
-      <c r="R49" t="n">
+      <c r="R49">
         <v>31</v>
       </c>
-      <c r="S49" t="n">
-        <v>0.870967741935484</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
+      <c r="S49">
+        <v>0.87096774193548399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>38</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>22</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>127</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>4</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>191</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>8</v>
       </c>
-      <c r="H50" t="n">
+      <c r="H50">
         <v>14</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I50">
         <v>22</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>941</v>
       </c>
-      <c r="K50" t="n">
+      <c r="K50">
         <v>701</v>
       </c>
-      <c r="L50" t="n">
+      <c r="L50">
         <v>49</v>
       </c>
-      <c r="M50" t="n">
+      <c r="M50">
         <v>18</v>
       </c>
-      <c r="N50" t="n">
+      <c r="N50">
         <v>892</v>
       </c>
-      <c r="O50" t="n">
+      <c r="O50">
         <v>1</v>
       </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="n">
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>149</v>
       </c>
-      <c r="R50" t="n">
+      <c r="R50">
         <v>87</v>
       </c>
-      <c r="S50" t="n">
-        <v>0.206896551724138</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+      <c r="S50">
+        <v>0.20689655172413801</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>38</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>24</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>136</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>5</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>203</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>9</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51">
         <v>15</v>
       </c>
-      <c r="I51" t="n">
+      <c r="I51">
         <v>24</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>979</v>
       </c>
-      <c r="K51" t="n">
+      <c r="K51">
         <v>740</v>
       </c>
-      <c r="L51" t="n">
+      <c r="L51">
         <v>36</v>
       </c>
-      <c r="M51" t="n">
+      <c r="M51">
         <v>12</v>
       </c>
-      <c r="N51" t="n">
+      <c r="N51">
         <v>943</v>
       </c>
-      <c r="O51" t="n">
+      <c r="O51">
         <v>1</v>
       </c>
-      <c r="P51" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="n">
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
         <v>160</v>
       </c>
-      <c r="R51" t="n">
+      <c r="R51">
         <v>51</v>
       </c>
-      <c r="S51" t="n">
-        <v>0.235294117647059</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
+      <c r="S51">
+        <v>0.23529411764705899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>38</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>24</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>136</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>5</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>203</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>9</v>
       </c>
-      <c r="H52" t="n">
+      <c r="H52">
         <v>15</v>
       </c>
-      <c r="I52" t="n">
+      <c r="I52">
         <v>24</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>994</v>
       </c>
-      <c r="K52" t="n">
+      <c r="K52">
         <v>740</v>
       </c>
-      <c r="L52" t="n">
+      <c r="L52">
         <v>51</v>
       </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
         <v>943</v>
       </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
         <v>160</v>
       </c>
-      <c r="R52" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
+      <c r="R52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>38</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>25</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>138</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>5</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>206</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>9</v>
       </c>
-      <c r="H53" t="n">
+      <c r="H53">
         <v>16</v>
       </c>
-      <c r="I53" t="n">
+      <c r="I53">
         <v>25</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>1012</v>
       </c>
-      <c r="K53" t="n">
+      <c r="K53">
         <v>777</v>
       </c>
-      <c r="L53" t="n">
+      <c r="L53">
         <v>29</v>
       </c>
-      <c r="M53" t="n">
+      <c r="M53">
         <v>3</v>
       </c>
-      <c r="N53" t="n">
+      <c r="N53">
         <v>983</v>
       </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="n">
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
         <v>163</v>
       </c>
-      <c r="R53" t="n">
+      <c r="R53">
         <v>40</v>
       </c>
-      <c r="S53" t="n">
-        <v>0.075</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
+      <c r="S53">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>44</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>24</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>141</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>6</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>215</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>10</v>
       </c>
-      <c r="H54" t="n">
+      <c r="H54">
         <v>14</v>
       </c>
-      <c r="I54" t="n">
+      <c r="I54">
         <v>24</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>1048</v>
       </c>
-      <c r="K54" t="n">
+      <c r="K54">
         <v>804</v>
       </c>
-      <c r="L54" t="n">
+      <c r="L54">
         <v>29</v>
       </c>
-      <c r="M54" t="n">
+      <c r="M54">
         <v>9</v>
       </c>
-      <c r="N54" t="n">
+      <c r="N54">
         <v>1019</v>
       </c>
-      <c r="O54" t="n">
+      <c r="O54">
         <v>1</v>
       </c>
-      <c r="P54" t="n">
+      <c r="P54">
         <v>6</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="Q54">
         <v>165</v>
       </c>
-      <c r="R54" t="n">
+      <c r="R54">
         <v>36</v>
       </c>
-      <c r="S54" t="n">
+      <c r="S54">
         <v>0.25</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>47</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>25</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>141</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>6</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>219</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>10</v>
       </c>
-      <c r="H55" t="n">
+      <c r="H55">
         <v>15</v>
       </c>
-      <c r="I55" t="n">
+      <c r="I55">
         <v>25</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>1095</v>
       </c>
-      <c r="K55" t="n">
+      <c r="K55">
         <v>839</v>
       </c>
-      <c r="L55" t="n">
+      <c r="L55">
         <v>37</v>
       </c>
-      <c r="M55" t="n">
+      <c r="M55">
         <v>4</v>
       </c>
-      <c r="N55" t="n">
+      <c r="N55">
         <v>1058</v>
       </c>
-      <c r="O55" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" t="n">
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
         <v>3</v>
       </c>
-      <c r="Q55" t="n">
+      <c r="Q55">
         <v>166</v>
       </c>
-      <c r="R55" t="n">
+      <c r="R55">
         <v>39</v>
       </c>
-      <c r="S55" t="n">
+      <c r="S55">
         <v>0.102564102564103</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>84</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>25</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>122</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>6</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>237</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>9</v>
       </c>
-      <c r="H56" t="n">
+      <c r="H56">
         <v>16</v>
       </c>
-      <c r="I56" t="n">
+      <c r="I56">
         <v>25</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>1144</v>
       </c>
-      <c r="K56" t="n">
+      <c r="K56">
         <v>859</v>
       </c>
-      <c r="L56" t="n">
+      <c r="L56">
         <v>48</v>
       </c>
-      <c r="M56" t="n">
+      <c r="M56">
         <v>18</v>
       </c>
-      <c r="N56" t="n">
+      <c r="N56">
         <v>1096</v>
       </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
         <v>37</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="Q56">
         <v>147</v>
       </c>
-      <c r="R56" t="n">
+      <c r="R56">
         <v>38</v>
       </c>
-      <c r="S56" t="n">
-        <v>0.473684210526316</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
+      <c r="S56">
+        <v>0.47368421052631599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>84</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>26</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>129</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>6</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>245</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>10</v>
       </c>
-      <c r="H57" t="n">
+      <c r="H57">
         <v>16</v>
       </c>
-      <c r="I57" t="n">
+      <c r="I57">
         <v>26</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>1188</v>
       </c>
-      <c r="K57" t="n">
+      <c r="K57">
         <v>906</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L57">
         <v>37</v>
       </c>
-      <c r="M57" t="n">
+      <c r="M57">
         <v>8</v>
       </c>
-      <c r="N57" t="n">
+      <c r="N57">
         <v>1151</v>
       </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="n">
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
         <v>155</v>
       </c>
-      <c r="R57" t="n">
+      <c r="R57">
         <v>55</v>
       </c>
-      <c r="S57" t="n">
+      <c r="S57">
         <v>0.145454545454545</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>100</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>27</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>123</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>6</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>256</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>10</v>
       </c>
-      <c r="H58" t="n">
+      <c r="H58">
         <v>17</v>
       </c>
-      <c r="I58" t="n">
+      <c r="I58">
         <v>27</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>1237</v>
       </c>
-      <c r="K58" t="n">
+      <c r="K58">
         <v>950</v>
       </c>
-      <c r="L58" t="n">
+      <c r="L58">
         <v>31</v>
       </c>
-      <c r="M58" t="n">
+      <c r="M58">
         <v>11</v>
       </c>
-      <c r="N58" t="n">
+      <c r="N58">
         <v>1206</v>
       </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
         <v>16</v>
       </c>
-      <c r="Q58" t="n">
+      <c r="Q58">
         <v>150</v>
       </c>
-      <c r="R58" t="n">
+      <c r="R58">
         <v>55</v>
       </c>
-      <c r="S58" t="n">
+      <c r="S58">
         <v>0.2</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>100</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>28</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>129</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>6</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>263</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>10</v>
       </c>
-      <c r="H59" t="n">
+      <c r="H59">
         <v>18</v>
       </c>
-      <c r="I59" t="n">
+      <c r="I59">
         <v>28</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>1261</v>
       </c>
-      <c r="K59" t="n">
+      <c r="K59">
         <v>963</v>
       </c>
-      <c r="L59" t="n">
+      <c r="L59">
         <v>35</v>
       </c>
-      <c r="M59" t="n">
+      <c r="M59">
         <v>7</v>
       </c>
-      <c r="N59" t="n">
+      <c r="N59">
         <v>1226</v>
       </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="n">
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
         <v>157</v>
       </c>
-      <c r="R59" t="n">
+      <c r="R59">
         <v>20</v>
       </c>
-      <c r="S59" t="n">
+      <c r="S59">
         <v>0.35</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>100</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>27</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>128</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>8</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>263</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>9</v>
       </c>
-      <c r="H60" t="n">
+      <c r="H60">
         <v>18</v>
       </c>
-      <c r="I60" t="n">
+      <c r="I60">
         <v>27</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>1290</v>
       </c>
-      <c r="K60" t="n">
+      <c r="K60">
         <v>982</v>
       </c>
-      <c r="L60" t="n">
+      <c r="L60">
         <v>45</v>
       </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
         <v>1245</v>
       </c>
-      <c r="O60" t="n">
+      <c r="O60">
         <v>2</v>
       </c>
-      <c r="P60" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="n">
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>155</v>
       </c>
-      <c r="R60" t="n">
+      <c r="R60">
         <v>19</v>
       </c>
-      <c r="S60" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
+      <c r="S60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>105</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>25</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>132</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>8</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>270</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>11</v>
       </c>
-      <c r="H61" t="n">
+      <c r="H61">
         <v>14</v>
       </c>
-      <c r="I61" t="n">
+      <c r="I61">
         <v>25</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>1314</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K61">
         <v>1020</v>
       </c>
-      <c r="L61" t="n">
+      <c r="L61">
         <v>24</v>
       </c>
-      <c r="M61" t="n">
+      <c r="M61">
         <v>7</v>
       </c>
-      <c r="N61" t="n">
+      <c r="N61">
         <v>1290</v>
       </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
         <v>5</v>
       </c>
-      <c r="Q61" t="n">
+      <c r="Q61">
         <v>157</v>
       </c>
-      <c r="R61" t="n">
+      <c r="R61">
         <v>45</v>
       </c>
-      <c r="S61" t="n">
+      <c r="S61">
         <v>0.155555555555556</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>105</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>24</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>137</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>10</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>276</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>16</v>
       </c>
-      <c r="H62" t="n">
+      <c r="H62">
         <v>8</v>
       </c>
-      <c r="I62" t="n">
+      <c r="I62">
         <v>24</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>1341</v>
       </c>
-      <c r="K62" t="n">
+      <c r="K62">
         <v>1030</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L62">
         <v>35</v>
       </c>
-      <c r="M62" t="n">
+      <c r="M62">
         <v>6</v>
       </c>
-      <c r="N62" t="n">
+      <c r="N62">
         <v>1306</v>
       </c>
-      <c r="O62" t="n">
+      <c r="O62">
         <v>2</v>
       </c>
-      <c r="P62" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="n">
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
         <v>161</v>
       </c>
-      <c r="R62" t="n">
+      <c r="R62">
         <v>16</v>
       </c>
-      <c r="S62" t="n">
+      <c r="S62">
         <v>0.375</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>148</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>23</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>101</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>10</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>282</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>16</v>
       </c>
-      <c r="H63" t="n">
+      <c r="H63">
         <v>7</v>
       </c>
-      <c r="I63" t="n">
+      <c r="I63">
         <v>23</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>1368</v>
       </c>
-      <c r="K63" t="n">
+      <c r="K63">
         <v>1053</v>
       </c>
-      <c r="L63" t="n">
+      <c r="L63">
         <v>33</v>
       </c>
-      <c r="M63" t="n">
+      <c r="M63">
         <v>6</v>
       </c>
-      <c r="N63" t="n">
+      <c r="N63">
         <v>1335</v>
       </c>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="n">
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
         <v>43</v>
       </c>
-      <c r="Q63" t="n">
+      <c r="Q63">
         <v>124</v>
       </c>
-      <c r="R63" t="n">
+      <c r="R63">
         <v>29</v>
       </c>
-      <c r="S63" t="n">
-        <v>0.206896551724138</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
+      <c r="S63">
+        <v>0.20689655172413801</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>164</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>21</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>95</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>11</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>291</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>15</v>
       </c>
-      <c r="H64" t="n">
+      <c r="H64">
         <v>6</v>
       </c>
-      <c r="I64" t="n">
+      <c r="I64">
         <v>21</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>1396</v>
       </c>
-      <c r="K64" t="n">
+      <c r="K64">
         <v>1065</v>
       </c>
-      <c r="L64" t="n">
+      <c r="L64">
         <v>40</v>
       </c>
-      <c r="M64" t="n">
+      <c r="M64">
         <v>9</v>
       </c>
-      <c r="N64" t="n">
+      <c r="N64">
         <v>1356</v>
       </c>
-      <c r="O64" t="n">
+      <c r="O64">
         <v>1</v>
       </c>
-      <c r="P64" t="n">
+      <c r="P64">
         <v>16</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="Q64">
         <v>116</v>
       </c>
-      <c r="R64" t="n">
+      <c r="R64">
         <v>21</v>
       </c>
-      <c r="S64" t="n">
-        <v>0.428571428571429</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
+      <c r="S64">
+        <v>0.42857142857142899</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>164</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>21</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>104</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>13</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>302</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>14</v>
       </c>
-      <c r="H65" t="n">
+      <c r="H65">
         <v>7</v>
       </c>
-      <c r="I65" t="n">
+      <c r="I65">
         <v>21</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>1442</v>
       </c>
-      <c r="K65" t="n">
+      <c r="K65">
         <v>1075</v>
       </c>
-      <c r="L65" t="n">
+      <c r="L65">
         <v>65</v>
       </c>
-      <c r="M65" t="n">
+      <c r="M65">
         <v>11</v>
       </c>
-      <c r="N65" t="n">
+      <c r="N65">
         <v>1377</v>
       </c>
-      <c r="O65" t="n">
+      <c r="O65">
         <v>2</v>
       </c>
-      <c r="P65" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="n">
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
         <v>125</v>
       </c>
-      <c r="R65" t="n">
+      <c r="R65">
         <v>21</v>
       </c>
-      <c r="S65" t="n">
-        <v>0.523809523809524</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
+      <c r="S65">
+        <v>0.52380952380952395</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>164</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>26</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>109</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>13</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>312</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>16</v>
       </c>
-      <c r="H66" t="n">
+      <c r="H66">
         <v>10</v>
       </c>
-      <c r="I66" t="n">
+      <c r="I66">
         <v>26</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>1442</v>
       </c>
-      <c r="K66" t="n">
+      <c r="K66">
         <v>1109</v>
       </c>
-      <c r="L66" t="n">
+      <c r="L66">
         <v>21</v>
       </c>
-      <c r="M66" t="n">
+      <c r="M66">
         <v>10</v>
       </c>
-      <c r="N66" t="n">
+      <c r="N66">
         <v>1421</v>
       </c>
-      <c r="O66" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q66" t="n">
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
         <v>135</v>
       </c>
-      <c r="R66" t="n">
+      <c r="R66">
         <v>44</v>
       </c>
-      <c r="S66" t="n">
-        <v>0.227272727272727</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
+      <c r="S66">
+        <v>0.22727272727272699</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>164</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>24</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>111</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>13</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>312</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>14</v>
       </c>
-      <c r="H67" t="n">
+      <c r="H67">
         <v>10</v>
       </c>
-      <c r="I67" t="n">
+      <c r="I67">
         <v>24</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>1449</v>
       </c>
-      <c r="K67" t="n">
+      <c r="K67">
         <v>1111</v>
       </c>
-      <c r="L67" t="n">
+      <c r="L67">
         <v>26</v>
       </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
         <v>1423</v>
       </c>
-      <c r="O67" t="n">
-        <v>0</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="n">
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
         <v>135</v>
       </c>
-      <c r="R67" t="n">
+      <c r="R67">
         <v>2</v>
       </c>
-      <c r="S67" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
+      <c r="S67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>164</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>24</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>116</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>13</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>317</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>16</v>
       </c>
-      <c r="H68" t="n">
+      <c r="H68">
         <v>8</v>
       </c>
-      <c r="I68" t="n">
+      <c r="I68">
         <v>24</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>1473</v>
       </c>
-      <c r="K68" t="n">
+      <c r="K68">
         <v>1135</v>
       </c>
-      <c r="L68" t="n">
+      <c r="L68">
         <v>21</v>
       </c>
-      <c r="M68" t="n">
+      <c r="M68">
         <v>5</v>
       </c>
-      <c r="N68" t="n">
+      <c r="N68">
         <v>1452</v>
       </c>
-      <c r="O68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="n">
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
         <v>140</v>
       </c>
-      <c r="R68" t="n">
+      <c r="R68">
         <v>29</v>
       </c>
-      <c r="S68" t="n">
-        <v>0.172413793103448</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
+      <c r="S68">
+        <v>0.17241379310344801</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>164</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>22</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>120</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>13</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>319</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>16</v>
       </c>
-      <c r="H69" t="n">
+      <c r="H69">
         <v>6</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I69">
         <v>22</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>1498</v>
       </c>
-      <c r="K69" t="n">
+      <c r="K69">
         <v>1144</v>
       </c>
-      <c r="L69" t="n">
+      <c r="L69">
         <v>35</v>
       </c>
-      <c r="M69" t="n">
+      <c r="M69">
         <v>2</v>
       </c>
-      <c r="N69" t="n">
+      <c r="N69">
         <v>1463</v>
       </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="n">
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
         <v>142</v>
       </c>
-      <c r="R69" t="n">
+      <c r="R69">
         <v>11</v>
       </c>
-      <c r="S69" t="n">
-        <v>0.181818181818182</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
+      <c r="S69">
+        <v>0.18181818181818199</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>191</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>20</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>98</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>14</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>323</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>16</v>
       </c>
-      <c r="H70" t="n">
+      <c r="H70">
         <v>4</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I70">
         <v>20</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>1517</v>
       </c>
-      <c r="K70" t="n">
+      <c r="K70">
         <v>1144</v>
       </c>
-      <c r="L70" t="n">
+      <c r="L70">
         <v>50</v>
       </c>
-      <c r="M70" t="n">
+      <c r="M70">
         <v>4</v>
       </c>
-      <c r="N70" t="n">
+      <c r="N70">
         <v>1467</v>
       </c>
-      <c r="O70" t="n">
+      <c r="O70">
         <v>1</v>
       </c>
-      <c r="P70" t="n">
+      <c r="P70">
         <v>27</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="Q70">
         <v>118</v>
       </c>
-      <c r="R70" t="n">
+      <c r="R70">
         <v>4</v>
       </c>
-      <c r="S70" t="n">
+      <c r="S70">
         <v>1</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>206</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>19</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>91</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>14</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>330</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>15</v>
       </c>
-      <c r="H71" t="n">
+      <c r="H71">
         <v>4</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I71">
         <v>19</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>1540</v>
       </c>
-      <c r="K71" t="n">
+      <c r="K71">
         <v>1172</v>
       </c>
-      <c r="L71" t="n">
+      <c r="L71">
         <v>38</v>
       </c>
-      <c r="M71" t="n">
+      <c r="M71">
         <v>7</v>
       </c>
-      <c r="N71" t="n">
+      <c r="N71">
         <v>1502</v>
       </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
         <v>15</v>
       </c>
-      <c r="Q71" t="n">
+      <c r="Q71">
         <v>110</v>
       </c>
-      <c r="R71" t="n">
+      <c r="R71">
         <v>35</v>
       </c>
-      <c r="S71" t="n">
+      <c r="S71">
         <v>0.2</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>206</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>22</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>92</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>15</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>335</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>17</v>
       </c>
-      <c r="H72" t="n">
+      <c r="H72">
         <v>5</v>
       </c>
-      <c r="I72" t="n">
+      <c r="I72">
         <v>22</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>1555</v>
       </c>
-      <c r="K72" t="n">
+      <c r="K72">
         <v>1195</v>
       </c>
-      <c r="L72" t="n">
+      <c r="L72">
         <v>25</v>
       </c>
-      <c r="M72" t="n">
+      <c r="M72">
         <v>5</v>
       </c>
-      <c r="N72" t="n">
+      <c r="N72">
         <v>1530</v>
       </c>
-      <c r="O72" t="n">
+      <c r="O72">
         <v>1</v>
       </c>
-      <c r="P72" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="n">
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
         <v>114</v>
       </c>
-      <c r="R72" t="n">
+      <c r="R72">
         <v>28</v>
       </c>
-      <c r="S72" t="n">
-        <v>0.178571428571429</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
+      <c r="S72">
+        <v>0.17857142857142899</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>206</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>22</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>102</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>15</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>345</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>17</v>
       </c>
-      <c r="H73" t="n">
+      <c r="H73">
         <v>5</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I73">
         <v>22</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>1565</v>
       </c>
-      <c r="K73" t="n">
+      <c r="K73">
         <v>1200</v>
       </c>
-      <c r="L73" t="n">
+      <c r="L73">
         <v>20</v>
       </c>
-      <c r="M73" t="n">
+      <c r="M73">
         <v>10</v>
       </c>
-      <c r="N73" t="n">
+      <c r="N73">
         <v>1545</v>
       </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="n">
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
         <v>124</v>
       </c>
-      <c r="R73" t="n">
+      <c r="R73">
         <v>15</v>
       </c>
-      <c r="S73" t="n">
-        <v>0.666666666666667</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
+      <c r="S73">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>206</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>23</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>117</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>15</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>361</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>18</v>
       </c>
-      <c r="H74" t="n">
+      <c r="H74">
         <v>5</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I74">
         <v>23</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74">
         <v>1616</v>
       </c>
-      <c r="K74" t="n">
+      <c r="K74">
         <v>1223</v>
       </c>
-      <c r="L74" t="n">
+      <c r="L74">
         <v>32</v>
       </c>
-      <c r="M74" t="n">
+      <c r="M74">
         <v>16</v>
       </c>
-      <c r="N74" t="n">
+      <c r="N74">
         <v>1584</v>
       </c>
-      <c r="O74" t="n">
-        <v>0</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q74" t="n">
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
         <v>140</v>
       </c>
-      <c r="R74" t="n">
+      <c r="R74">
         <v>39</v>
       </c>
-      <c r="S74" t="n">
-        <v>0.41025641025641</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
+      <c r="S74">
+        <v>0.41025641025641002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>207</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>28</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>123</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>15</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>373</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>20</v>
       </c>
-      <c r="H75" t="n">
+      <c r="H75">
         <v>8</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I75">
         <v>28</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75">
         <v>1638</v>
       </c>
-      <c r="K75" t="n">
+      <c r="K75">
         <v>1240</v>
       </c>
-      <c r="L75" t="n">
+      <c r="L75">
         <v>25</v>
       </c>
-      <c r="M75" t="n">
+      <c r="M75">
         <v>12</v>
       </c>
-      <c r="N75" t="n">
+      <c r="N75">
         <v>1613</v>
       </c>
-      <c r="O75" t="n">
-        <v>0</v>
-      </c>
-      <c r="P75" t="n">
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
         <v>1</v>
       </c>
-      <c r="Q75" t="n">
+      <c r="Q75">
         <v>151</v>
       </c>
-      <c r="R75" t="n">
+      <c r="R75">
         <v>29</v>
       </c>
-      <c r="S75" t="n">
-        <v>0.413793103448276</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
+      <c r="S75">
+        <v>0.41379310344827602</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>257</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>22</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>92</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>18</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>389</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>19</v>
       </c>
-      <c r="H76" t="n">
+      <c r="H76">
         <v>3</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I76">
         <v>22</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>1671</v>
       </c>
-      <c r="K76" t="n">
+      <c r="K76">
         <v>1257</v>
       </c>
-      <c r="L76" t="n">
+      <c r="L76">
         <v>25</v>
       </c>
-      <c r="M76" t="n">
+      <c r="M76">
         <v>16</v>
       </c>
-      <c r="N76" t="n">
+      <c r="N76">
         <v>1646</v>
       </c>
-      <c r="O76" t="n">
+      <c r="O76">
         <v>3</v>
       </c>
-      <c r="P76" t="n">
+      <c r="P76">
         <v>50</v>
       </c>
-      <c r="Q76" t="n">
+      <c r="Q76">
         <v>114</v>
       </c>
-      <c r="R76" t="n">
+      <c r="R76">
         <v>33</v>
       </c>
-      <c r="S76" t="n">
-        <v>0.484848484848485</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n">
+      <c r="S76">
+        <v>0.48484848484848497</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>296</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>21</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>55</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>20</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>392</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>16</v>
       </c>
-      <c r="H77" t="n">
+      <c r="H77">
         <v>5</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I77">
         <v>21</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77">
         <v>1690</v>
       </c>
-      <c r="K77" t="n">
+      <c r="K77">
         <v>1264</v>
       </c>
-      <c r="L77" t="n">
+      <c r="L77">
         <v>34</v>
       </c>
-      <c r="M77" t="n">
+      <c r="M77">
         <v>3</v>
       </c>
-      <c r="N77" t="n">
+      <c r="N77">
         <v>1656</v>
       </c>
-      <c r="O77" t="n">
+      <c r="O77">
         <v>2</v>
       </c>
-      <c r="P77" t="n">
+      <c r="P77">
         <v>39</v>
       </c>
-      <c r="Q77" t="n">
+      <c r="Q77">
         <v>76</v>
       </c>
-      <c r="R77" t="n">
+      <c r="R77">
         <v>10</v>
       </c>
-      <c r="S77" t="n">
+      <c r="S77">
         <v>0.3</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>308</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>24</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>56</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>21</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>409</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>17</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78">
         <v>7</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I78">
         <v>24</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78">
         <v>2109</v>
       </c>
-      <c r="K78" t="n">
+      <c r="K78">
         <v>1286</v>
       </c>
-      <c r="L78" t="n">
+      <c r="L78">
         <v>414</v>
       </c>
-      <c r="M78" t="n">
+      <c r="M78">
         <v>17</v>
       </c>
-      <c r="N78" t="n">
+      <c r="N78">
         <v>1695</v>
       </c>
-      <c r="O78" t="n">
+      <c r="O78">
         <v>1</v>
       </c>
-      <c r="P78" t="n">
+      <c r="P78">
         <v>12</v>
       </c>
-      <c r="Q78" t="n">
+      <c r="Q78">
         <v>80</v>
       </c>
-      <c r="R78" t="n">
+      <c r="R78">
         <v>39</v>
       </c>
-      <c r="S78" t="n">
-        <v>0.435897435897436</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="n">
+      <c r="S78">
+        <v>0.43589743589743601</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>312</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>26</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>64</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>20</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>422</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>20</v>
       </c>
-      <c r="H79" t="n">
+      <c r="H79">
         <v>6</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I79">
         <v>26</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79">
         <v>2405</v>
       </c>
-      <c r="K79" t="n">
+      <c r="K79">
         <v>1309</v>
       </c>
-      <c r="L79" t="n">
+      <c r="L79">
         <v>674</v>
       </c>
-      <c r="M79" t="n">
+      <c r="M79">
         <v>13</v>
       </c>
-      <c r="N79" t="n">
+      <c r="N79">
         <v>1731</v>
       </c>
-      <c r="O79" t="n">
+      <c r="O79">
         <v>-1</v>
       </c>
-      <c r="P79" t="n">
+      <c r="P79">
         <v>4</v>
       </c>
-      <c r="Q79" t="n">
+      <c r="Q79">
         <v>90</v>
       </c>
-      <c r="R79" t="n">
+      <c r="R79">
         <v>36</v>
       </c>
-      <c r="S79" t="n">
-        <v>0.361111111111111</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
+      <c r="S79">
+        <v>0.36111111111111099</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>312</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>25</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>65</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>21</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>423</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>21</v>
       </c>
-      <c r="H80" t="n">
+      <c r="H80">
         <v>4</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I80">
         <v>25</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80">
         <v>2406</v>
       </c>
-      <c r="K80" t="n">
+      <c r="K80">
         <v>1310</v>
       </c>
-      <c r="L80" t="n">
+      <c r="L80">
         <v>673</v>
       </c>
-      <c r="M80" t="n">
+      <c r="M80">
         <v>1</v>
       </c>
-      <c r="N80" t="n">
+      <c r="N80">
         <v>1733</v>
       </c>
-      <c r="O80" t="n">
+      <c r="O80">
         <v>1</v>
       </c>
-      <c r="P80" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="n">
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
         <v>90</v>
       </c>
-      <c r="R80" t="n">
+      <c r="R80">
         <v>2</v>
       </c>
-      <c r="S80" t="n">
+      <c r="S80">
         <v>0.5</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>312</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>22</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>67</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>22</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>423</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>19</v>
       </c>
-      <c r="H81" t="n">
+      <c r="H81">
         <v>3</v>
       </c>
-      <c r="I81" t="n">
+      <c r="I81">
         <v>22</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81">
         <v>2406</v>
       </c>
-      <c r="K81" t="n">
+      <c r="K81">
         <v>1334</v>
       </c>
-      <c r="L81" t="n">
+      <c r="L81">
         <v>649</v>
       </c>
-      <c r="M81" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" t="n">
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
         <v>1757</v>
       </c>
-      <c r="O81" t="n">
+      <c r="O81">
         <v>1</v>
       </c>
-      <c r="P81" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="n">
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
         <v>89</v>
       </c>
-      <c r="R81" t="n">
+      <c r="R81">
         <v>24</v>
       </c>
-      <c r="S81" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
+      <c r="S81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>321</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>23</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>78</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>22</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>444</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>20</v>
       </c>
-      <c r="H82" t="n">
+      <c r="H82">
         <v>3</v>
       </c>
-      <c r="I82" t="n">
+      <c r="I82">
         <v>23</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>2455</v>
       </c>
-      <c r="K82" t="n">
+      <c r="K82">
         <v>1379</v>
       </c>
-      <c r="L82" t="n">
+      <c r="L82">
         <v>632</v>
       </c>
-      <c r="M82" t="n">
+      <c r="M82">
         <v>21</v>
       </c>
-      <c r="N82" t="n">
+      <c r="N82">
         <v>1823</v>
       </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
         <v>9</v>
       </c>
-      <c r="Q82" t="n">
+      <c r="Q82">
         <v>101</v>
       </c>
-      <c r="R82" t="n">
+      <c r="R82">
         <v>66</v>
       </c>
-      <c r="S82" t="n">
-        <v>0.318181818181818</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
+      <c r="S82">
+        <v>0.31818181818181801</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>333</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>23</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>70</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>22</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>448</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>20</v>
       </c>
-      <c r="H83" t="n">
+      <c r="H83">
         <v>3</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I83">
         <v>23</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83">
         <v>2455</v>
       </c>
-      <c r="K83" t="n">
+      <c r="K83">
         <v>1601</v>
       </c>
-      <c r="L83" t="n">
+      <c r="L83">
         <v>406</v>
       </c>
-      <c r="M83" t="n">
+      <c r="M83">
         <v>4</v>
       </c>
-      <c r="N83" t="n">
+      <c r="N83">
         <v>2049</v>
       </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
         <v>12</v>
       </c>
-      <c r="Q83" t="n">
+      <c r="Q83">
         <v>93</v>
       </c>
-      <c r="R83" t="n">
+      <c r="R83">
         <v>226</v>
       </c>
-      <c r="S83" t="n">
-        <v>0.0176991150442478</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
+      <c r="S83">
+        <v>1.7699115044247801E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>335</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>22</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>73</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>22</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>452</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>18</v>
       </c>
-      <c r="H84" t="n">
+      <c r="H84">
         <v>4</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I84">
         <v>22</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84">
         <v>3017</v>
       </c>
-      <c r="K84" t="n">
+      <c r="K84">
         <v>1941</v>
       </c>
-      <c r="L84" t="n">
+      <c r="L84">
         <v>624</v>
       </c>
-      <c r="M84" t="n">
+      <c r="M84">
         <v>4</v>
       </c>
-      <c r="N84" t="n">
+      <c r="N84">
         <v>2393</v>
       </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
         <v>2</v>
       </c>
-      <c r="Q84" t="n">
+      <c r="Q84">
         <v>95</v>
       </c>
-      <c r="R84" t="n">
+      <c r="R84">
         <v>344</v>
       </c>
-      <c r="S84" t="n">
-        <v>0.0116279069767442</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
+      <c r="S84">
+        <v>1.16279069767442E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>337</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>22</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>80</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>22</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>461</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>18</v>
       </c>
-      <c r="H85" t="n">
+      <c r="H85">
         <v>4</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I85">
         <v>22</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>3470</v>
       </c>
-      <c r="K85" t="n">
+      <c r="K85">
         <v>1951</v>
       </c>
-      <c r="L85" t="n">
+      <c r="L85">
         <v>1058</v>
       </c>
-      <c r="M85" t="n">
+      <c r="M85">
         <v>9</v>
       </c>
-      <c r="N85" t="n">
+      <c r="N85">
         <v>2412</v>
       </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
         <v>2</v>
       </c>
-      <c r="Q85" t="n">
+      <c r="Q85">
         <v>102</v>
       </c>
-      <c r="R85" t="n">
+      <c r="R85">
         <v>19</v>
       </c>
-      <c r="S85" t="n">
-        <v>0.473684210526316</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
+      <c r="S85">
+        <v>0.47368421052631599</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>339</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>25</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>92</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>23</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>479</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>17</v>
       </c>
-      <c r="H86" t="n">
+      <c r="H86">
         <v>8</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I86">
         <v>25</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86">
         <v>3489</v>
       </c>
-      <c r="K86" t="n">
+      <c r="K86">
         <v>2002</v>
       </c>
-      <c r="L86" t="n">
+      <c r="L86">
         <v>1008</v>
       </c>
-      <c r="M86" t="n">
+      <c r="M86">
         <v>18</v>
       </c>
-      <c r="N86" t="n">
+      <c r="N86">
         <v>2481</v>
       </c>
-      <c r="O86" t="n">
+      <c r="O86">
         <v>1</v>
       </c>
-      <c r="P86" t="n">
+      <c r="P86">
         <v>2</v>
       </c>
-      <c r="Q86" t="n">
+      <c r="Q86">
         <v>117</v>
       </c>
-      <c r="R86" t="n">
+      <c r="R86">
         <v>69</v>
       </c>
-      <c r="S86" t="n">
-        <v>0.260869565217391</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n">
+      <c r="S86">
+        <v>0.26086956521739102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>339</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>25</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>92</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>23</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>479</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>17</v>
       </c>
-      <c r="H87" t="n">
+      <c r="H87">
         <v>8</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I87">
         <v>25</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87">
         <v>3489</v>
       </c>
-      <c r="K87" t="n">
+      <c r="K87">
         <v>2002</v>
       </c>
-      <c r="L87" t="n">
+      <c r="L87">
         <v>1008</v>
       </c>
-      <c r="M87" t="n">
-        <v>0</v>
-      </c>
-      <c r="N87" t="n">
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
         <v>2481</v>
       </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="n">
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
         <v>117</v>
       </c>
-      <c r="R87" t="n">
-        <v>0</v>
-      </c>
-      <c r="S87"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="n">
+      <c r="R87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>339</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>25</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>92</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>23</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>479</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>17</v>
       </c>
-      <c r="H88" t="n">
+      <c r="H88">
         <v>8</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I88">
         <v>25</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88">
         <v>3489</v>
       </c>
-      <c r="K88" t="n">
+      <c r="K88">
         <v>2002</v>
       </c>
-      <c r="L88" t="n">
+      <c r="L88">
         <v>1008</v>
       </c>
-      <c r="M88" t="n">
-        <v>0</v>
-      </c>
-      <c r="N88" t="n">
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
         <v>2481</v>
       </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="n">
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
         <v>117</v>
       </c>
-      <c r="R88" t="n">
-        <v>0</v>
-      </c>
-      <c r="S88"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="n">
+      <c r="R88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>339</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>27</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>119</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>23</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>508</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>18</v>
       </c>
-      <c r="H89" t="n">
+      <c r="H89">
         <v>9</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I89">
         <v>27</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89">
         <v>3515</v>
       </c>
-      <c r="K89" t="n">
+      <c r="K89">
         <v>2125</v>
       </c>
-      <c r="L89" t="n">
+      <c r="L89">
         <v>882</v>
       </c>
-      <c r="M89" t="n">
+      <c r="M89">
         <v>29</v>
       </c>
-      <c r="N89" t="n">
+      <c r="N89">
         <v>2633</v>
       </c>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
         <v>146</v>
       </c>
-      <c r="R89" t="n">
+      <c r="R89">
         <v>152</v>
       </c>
-      <c r="S89" t="n">
-        <v>0.190789473684211</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
+      <c r="S89">
+        <v>0.19078947368421101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>340</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>26</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>167</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>23</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>556</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>19</v>
       </c>
-      <c r="H90" t="n">
+      <c r="H90">
         <v>7</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I90">
         <v>26</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90">
         <v>3629</v>
       </c>
-      <c r="K90" t="n">
+      <c r="K90">
         <v>2168</v>
       </c>
-      <c r="L90" t="n">
+      <c r="L90">
         <v>905</v>
       </c>
-      <c r="M90" t="n">
+      <c r="M90">
         <v>48</v>
       </c>
-      <c r="N90" t="n">
+      <c r="N90">
         <v>2724</v>
       </c>
-      <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="n">
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
         <v>1</v>
       </c>
-      <c r="Q90" t="n">
+      <c r="Q90">
         <v>193</v>
       </c>
-      <c r="R90" t="n">
+      <c r="R90">
         <v>91</v>
       </c>
-      <c r="S90" t="n">
-        <v>0.527472527472527</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n">
+      <c r="S90">
+        <v>0.52747252747252704</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>340</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>27</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>231</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>23</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>621</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>21</v>
       </c>
-      <c r="H91" t="n">
+      <c r="H91">
         <v>6</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I91">
         <v>27</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91">
         <v>4005</v>
       </c>
-      <c r="K91" t="n">
+      <c r="K91">
         <v>2187</v>
       </c>
-      <c r="L91" t="n">
+      <c r="L91">
         <v>1197</v>
       </c>
-      <c r="M91" t="n">
+      <c r="M91">
         <v>65</v>
       </c>
-      <c r="N91" t="n">
+      <c r="N91">
         <v>2808</v>
       </c>
-      <c r="O91" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="n">
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
         <v>258</v>
       </c>
-      <c r="R91" t="n">
+      <c r="R91">
         <v>84</v>
       </c>
-      <c r="S91" t="n">
-        <v>0.773809523809524</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
+      <c r="S91">
+        <v>0.77380952380952395</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>345</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>24</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>253</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>23</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>645</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>17</v>
       </c>
-      <c r="H92" t="n">
+      <c r="H92">
         <v>7</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I92">
         <v>24</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92">
         <v>4063</v>
       </c>
-      <c r="K92" t="n">
+      <c r="K92">
         <v>2210</v>
       </c>
-      <c r="L92" t="n">
+      <c r="L92">
         <v>1208</v>
       </c>
-      <c r="M92" t="n">
+      <c r="M92">
         <v>24</v>
       </c>
-      <c r="N92" t="n">
+      <c r="N92">
         <v>2855</v>
       </c>
-      <c r="O92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
         <v>5</v>
       </c>
-      <c r="Q92" t="n">
+      <c r="Q92">
         <v>277</v>
       </c>
-      <c r="R92" t="n">
+      <c r="R92">
         <v>47</v>
       </c>
-      <c r="S92" t="n">
-        <v>0.51063829787234</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
+      <c r="S92">
+        <v>0.51063829787234005</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>411</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>23</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>197</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>23</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>654</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>17</v>
       </c>
-      <c r="H93" t="n">
+      <c r="H93">
         <v>6</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I93">
         <v>23</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93">
         <v>4063</v>
       </c>
-      <c r="K93" t="n">
+      <c r="K93">
         <v>2469</v>
       </c>
-      <c r="L93" t="n">
+      <c r="L93">
         <v>940</v>
       </c>
-      <c r="M93" t="n">
+      <c r="M93">
         <v>9</v>
       </c>
-      <c r="N93" t="n">
+      <c r="N93">
         <v>3123</v>
       </c>
-      <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
         <v>66</v>
       </c>
-      <c r="Q93" t="n">
+      <c r="Q93">
         <v>220</v>
       </c>
-      <c r="R93" t="n">
+      <c r="R93">
         <v>268</v>
       </c>
-      <c r="S93" t="n">
-        <v>0.0335820895522388</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n">
+      <c r="S93">
+        <v>3.3582089552238799E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>411</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>23</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>197</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>23</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>654</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>17</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94">
         <v>6</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I94">
         <v>23</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94">
         <v>4063</v>
       </c>
-      <c r="K94" t="n">
+      <c r="K94">
         <v>2469</v>
       </c>
-      <c r="L94" t="n">
+      <c r="L94">
         <v>940</v>
       </c>
-      <c r="M94" t="n">
-        <v>0</v>
-      </c>
-      <c r="N94" t="n">
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
         <v>3123</v>
       </c>
-      <c r="O94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="n">
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
         <v>220</v>
       </c>
-      <c r="R94" t="n">
-        <v>0</v>
-      </c>
-      <c r="S94"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="n">
+      <c r="R94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>411</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>23</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>197</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>23</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>654</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>17</v>
       </c>
-      <c r="H95" t="n">
+      <c r="H95">
         <v>6</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I95">
         <v>23</v>
       </c>
-      <c r="J95" t="n">
+      <c r="J95">
         <v>4063</v>
       </c>
-      <c r="K95" t="n">
+      <c r="K95">
         <v>2469</v>
       </c>
-      <c r="L95" t="n">
+      <c r="L95">
         <v>940</v>
       </c>
-      <c r="M95" t="n">
-        <v>0</v>
-      </c>
-      <c r="N95" t="n">
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
         <v>3123</v>
       </c>
-      <c r="O95" t="n">
-        <v>0</v>
-      </c>
-      <c r="P95" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q95" t="n">
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
         <v>220</v>
       </c>
-      <c r="R95" t="n">
-        <v>0</v>
-      </c>
-      <c r="S95"/>
-    </row>
-    <row r="96">
-      <c r="A96" t="n">
+      <c r="R95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>411</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>34</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>239</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>24</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>708</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>24</v>
       </c>
-      <c r="H96" t="n">
+      <c r="H96">
         <v>10</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I96">
         <v>34</v>
       </c>
-      <c r="J96" t="n">
+      <c r="J96">
         <v>4247</v>
       </c>
-      <c r="K96" t="n">
+      <c r="K96">
         <v>2710</v>
       </c>
-      <c r="L96" t="n">
+      <c r="L96">
         <v>829</v>
       </c>
-      <c r="M96" t="n">
+      <c r="M96">
         <v>54</v>
       </c>
-      <c r="N96" t="n">
+      <c r="N96">
         <v>3418</v>
       </c>
-      <c r="O96" t="n">
+      <c r="O96">
         <v>1</v>
       </c>
-      <c r="P96" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q96" t="n">
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
         <v>273</v>
       </c>
-      <c r="R96" t="n">
+      <c r="R96">
         <v>295</v>
       </c>
-      <c r="S96" t="n">
-        <v>0.183050847457627</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
+      <c r="S96">
+        <v>0.18305084745762701</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A97">
         <v>96</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>420</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>32</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>271</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>24</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>747</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>20</v>
       </c>
-      <c r="H97" t="n">
+      <c r="H97">
         <v>12</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I97">
         <v>32</v>
       </c>
-      <c r="J97" t="n">
+      <c r="J97">
         <v>4335</v>
       </c>
-      <c r="K97" t="n">
+      <c r="K97">
         <v>2723</v>
       </c>
-      <c r="L97" t="n">
+      <c r="L97">
         <v>865</v>
       </c>
-      <c r="M97" t="n">
+      <c r="M97">
         <v>39</v>
       </c>
-      <c r="N97" t="n">
+      <c r="N97">
         <v>3470</v>
       </c>
-      <c r="O97" t="n">
-        <v>0</v>
-      </c>
-      <c r="P97" t="n">
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
         <v>9</v>
       </c>
-      <c r="Q97" t="n">
+      <c r="Q97">
         <v>303</v>
       </c>
-      <c r="R97" t="n">
+      <c r="R97">
         <v>52</v>
       </c>
-      <c r="S97" t="n">
+      <c r="S97">
         <v>0.75</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A98">
         <v>97</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>422</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>35</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>301</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>24</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>782</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>23</v>
       </c>
-      <c r="H98" t="n">
+      <c r="H98">
         <v>12</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I98">
         <v>35</v>
       </c>
-      <c r="J98" t="n">
+      <c r="J98">
         <v>4424</v>
       </c>
-      <c r="K98" t="n">
+      <c r="K98">
         <v>2725</v>
       </c>
-      <c r="L98" t="n">
+      <c r="L98">
         <v>917</v>
       </c>
-      <c r="M98" t="n">
+      <c r="M98">
         <v>35</v>
       </c>
-      <c r="N98" t="n">
+      <c r="N98">
         <v>3507</v>
       </c>
-      <c r="O98" t="n">
-        <v>0</v>
-      </c>
-      <c r="P98" t="n">
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
         <v>2</v>
       </c>
-      <c r="Q98" t="n">
+      <c r="Q98">
         <v>336</v>
       </c>
-      <c r="R98" t="n">
+      <c r="R98">
         <v>37</v>
       </c>
-      <c r="S98" t="n">
-        <v>0.945945945945946</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="n">
+      <c r="S98">
+        <v>0.94594594594594605</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A99">
         <v>98</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>460</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>32</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>304</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>26</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>822</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>23</v>
       </c>
-      <c r="H99" t="n">
+      <c r="H99">
         <v>9</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I99">
         <v>32</v>
       </c>
-      <c r="J99" t="n">
+      <c r="J99">
         <v>5203</v>
       </c>
-      <c r="K99" t="n">
+      <c r="K99">
         <v>3421</v>
       </c>
-      <c r="L99" t="n">
+      <c r="L99">
         <v>960</v>
       </c>
-      <c r="M99" t="n">
+      <c r="M99">
         <v>40</v>
       </c>
-      <c r="N99" t="n">
+      <c r="N99">
         <v>4243</v>
       </c>
-      <c r="O99" t="n">
+      <c r="O99">
         <v>2</v>
       </c>
-      <c r="P99" t="n">
+      <c r="P99">
         <v>38</v>
       </c>
-      <c r="Q99" t="n">
+      <c r="Q99">
         <v>336</v>
       </c>
-      <c r="R99" t="n">
+      <c r="R99">
         <v>736</v>
       </c>
-      <c r="S99" t="n">
-        <v>0.0543478260869565</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="n">
+      <c r="S99">
+        <v>5.4347826086956499E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>99</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>496</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>34</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>392</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>26</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>948</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>25</v>
       </c>
-      <c r="H100" t="n">
+      <c r="H100">
         <v>9</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I100">
         <v>34</v>
       </c>
-      <c r="J100" t="n">
+      <c r="J100">
         <v>5704</v>
       </c>
-      <c r="K100" t="n">
+      <c r="K100">
         <v>3838</v>
       </c>
-      <c r="L100" t="n">
+      <c r="L100">
         <v>918</v>
       </c>
-      <c r="M100" t="n">
+      <c r="M100">
         <v>126</v>
       </c>
-      <c r="N100" t="n">
+      <c r="N100">
         <v>4786</v>
       </c>
-      <c r="O100" t="n">
-        <v>0</v>
-      </c>
-      <c r="P100" t="n">
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
         <v>36</v>
       </c>
-      <c r="Q100" t="n">
+      <c r="Q100">
         <v>426</v>
       </c>
-      <c r="R100" t="n">
+      <c r="R100">
         <v>543</v>
       </c>
-      <c r="S100" t="n">
+      <c r="S100">
         <v>0.232044198895028</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>100</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>496</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>34</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>392</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>26</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>948</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>25</v>
       </c>
-      <c r="H101" t="n">
+      <c r="H101">
         <v>9</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I101">
         <v>34</v>
       </c>
-      <c r="J101" t="n">
+      <c r="J101">
         <v>5704</v>
       </c>
-      <c r="K101" t="n">
+      <c r="K101">
         <v>3838</v>
       </c>
-      <c r="L101" t="n">
+      <c r="L101">
         <v>918</v>
       </c>
-      <c r="M101" t="n">
-        <v>0</v>
-      </c>
-      <c r="N101" t="n">
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
         <v>4786</v>
       </c>
-      <c r="O101" t="n">
-        <v>0</v>
-      </c>
-      <c r="P101" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q101" t="n">
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
         <v>426</v>
       </c>
-      <c r="R101" t="n">
-        <v>0</v>
-      </c>
-      <c r="S101"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="n">
+      <c r="R101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A102">
         <v>101</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>496</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>34</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>392</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>26</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>948</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>25</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102">
         <v>9</v>
       </c>
-      <c r="I102" t="n">
+      <c r="I102">
         <v>34</v>
       </c>
-      <c r="J102" t="n">
+      <c r="J102">
         <v>5704</v>
       </c>
-      <c r="K102" t="n">
+      <c r="K102">
         <v>3838</v>
       </c>
-      <c r="L102" t="n">
+      <c r="L102">
         <v>918</v>
       </c>
-      <c r="M102" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" t="n">
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
         <v>4786</v>
       </c>
-      <c r="O102" t="n">
-        <v>0</v>
-      </c>
-      <c r="P102" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q102" t="n">
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
         <v>426</v>
       </c>
-      <c r="R102" t="n">
-        <v>0</v>
-      </c>
-      <c r="S102"/>
-    </row>
-    <row r="103">
-      <c r="A103" t="n">
+      <c r="R102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A103">
         <v>102</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>500</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>35</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>452</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>29</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>1016</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G103">
         <v>30</v>
       </c>
-      <c r="H103" t="n">
+      <c r="H103">
         <v>5</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I103">
         <v>35</v>
       </c>
-      <c r="J103" t="n">
+      <c r="J103">
         <v>9964</v>
       </c>
-      <c r="K103" t="n">
+      <c r="K103">
         <v>5631</v>
       </c>
-      <c r="L103" t="n">
+      <c r="L103">
         <v>3317</v>
       </c>
-      <c r="M103" t="n">
+      <c r="M103">
         <v>68</v>
       </c>
-      <c r="N103" t="n">
+      <c r="N103">
         <v>6647</v>
       </c>
-      <c r="O103" t="n">
+      <c r="O103">
         <v>3</v>
       </c>
-      <c r="P103" t="n">
+      <c r="P103">
         <v>4</v>
       </c>
-      <c r="Q103" t="n">
+      <c r="Q103">
         <v>487</v>
       </c>
-      <c r="R103" t="n">
+      <c r="R103">
         <v>1861</v>
       </c>
-      <c r="S103" t="n">
-        <v>0.0365394948952176</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="n">
+      <c r="S103">
+        <v>3.65394948952176E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A104">
         <v>103</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>500</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>35</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>497</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>29</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>1061</v>
       </c>
-      <c r="G104" t="n">
+      <c r="G104">
         <v>28</v>
       </c>
-      <c r="H104" t="n">
+      <c r="H104">
         <v>7</v>
       </c>
-      <c r="I104" t="n">
+      <c r="I104">
         <v>35</v>
       </c>
-      <c r="J104" t="n">
+      <c r="J104">
         <v>10694</v>
       </c>
-      <c r="K104" t="n">
+      <c r="K104">
         <v>6388</v>
       </c>
-      <c r="L104" t="n">
+      <c r="L104">
         <v>3345</v>
       </c>
-      <c r="M104" t="n">
+      <c r="M104">
         <v>45</v>
       </c>
-      <c r="N104" t="n">
+      <c r="N104">
         <v>7349</v>
       </c>
-      <c r="O104" t="n">
-        <v>0</v>
-      </c>
-      <c r="P104" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q104" t="n">
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
         <v>532</v>
       </c>
-      <c r="R104" t="n">
+      <c r="R104">
         <v>702</v>
       </c>
-      <c r="S104" t="n">
-        <v>0.0641025641025641</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
+      <c r="S104">
+        <v>6.4102564102564097E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A105">
         <v>104</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>500</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>41</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>606</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>32</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>1179</v>
       </c>
-      <c r="G105" t="n">
+      <c r="G105">
         <v>27</v>
       </c>
-      <c r="H105" t="n">
+      <c r="H105">
         <v>14</v>
       </c>
-      <c r="I105" t="n">
+      <c r="I105">
         <v>41</v>
       </c>
-      <c r="J105" t="n">
+      <c r="J105">
         <v>11798</v>
       </c>
-      <c r="K105" t="n">
+      <c r="K105">
         <v>7250</v>
       </c>
-      <c r="L105" t="n">
+      <c r="L105">
         <v>3369</v>
       </c>
-      <c r="M105" t="n">
+      <c r="M105">
         <v>118</v>
       </c>
-      <c r="N105" t="n">
+      <c r="N105">
         <v>8429</v>
       </c>
-      <c r="O105" t="n">
+      <c r="O105">
         <v>3</v>
       </c>
-      <c r="P105" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q105" t="n">
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
         <v>647</v>
       </c>
-      <c r="R105" t="n">
+      <c r="R105">
         <v>1080</v>
       </c>
-      <c r="S105" t="n">
+      <c r="S105">
         <v>0.109259259259259</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A106">
         <v>105</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>630</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>39</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>800</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>33</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>1502</v>
       </c>
-      <c r="G106" t="n">
+      <c r="G106">
         <v>26</v>
       </c>
-      <c r="H106" t="n">
+      <c r="H106">
         <v>13</v>
       </c>
-      <c r="I106" t="n">
+      <c r="I106">
         <v>39</v>
       </c>
-      <c r="J106" t="n">
+      <c r="J106">
         <v>13283</v>
       </c>
-      <c r="K106" t="n">
+      <c r="K106">
         <v>8315</v>
       </c>
-      <c r="L106" t="n">
+      <c r="L106">
         <v>3466</v>
       </c>
-      <c r="M106" t="n">
+      <c r="M106">
         <v>323</v>
       </c>
-      <c r="N106" t="n">
+      <c r="N106">
         <v>9817</v>
       </c>
-      <c r="O106" t="n">
+      <c r="O106">
         <v>1</v>
       </c>
-      <c r="P106" t="n">
+      <c r="P106">
         <v>130</v>
       </c>
-      <c r="Q106" t="n">
+      <c r="Q106">
         <v>839</v>
       </c>
-      <c r="R106" t="n">
+      <c r="R106">
         <v>1388</v>
       </c>
-      <c r="S106" t="n">
+      <c r="S106">
         <v>0.232708933717579</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A107">
         <v>106</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>726</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>40</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>899</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>34</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>1699</v>
       </c>
-      <c r="G107" t="n">
+      <c r="G107">
         <v>26</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107">
         <v>14</v>
       </c>
-      <c r="I107" t="n">
+      <c r="I107">
         <v>40</v>
       </c>
-      <c r="J107" t="n">
+      <c r="J107">
         <v>14145</v>
       </c>
-      <c r="K107" t="n">
+      <c r="K107">
         <v>8879</v>
       </c>
-      <c r="L107" t="n">
+      <c r="L107">
         <v>3567</v>
       </c>
-      <c r="M107" t="n">
+      <c r="M107">
         <v>197</v>
       </c>
-      <c r="N107" t="n">
+      <c r="N107">
         <v>10578</v>
       </c>
-      <c r="O107" t="n">
+      <c r="O107">
         <v>1</v>
       </c>
-      <c r="P107" t="n">
+      <c r="P107">
         <v>96</v>
       </c>
-      <c r="Q107" t="n">
+      <c r="Q107">
         <v>939</v>
       </c>
-      <c r="R107" t="n">
+      <c r="R107">
         <v>761</v>
       </c>
-      <c r="S107"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="n">
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A108">
         <v>107</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>726</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>40</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>899</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>34</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>1699</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G108">
         <v>26</v>
       </c>
-      <c r="H108" t="n">
+      <c r="H108">
         <v>14</v>
       </c>
-      <c r="I108" t="n">
+      <c r="I108">
         <v>40</v>
       </c>
-      <c r="J108" t="n">
+      <c r="J108">
         <v>14145</v>
       </c>
-      <c r="K108" t="n">
+      <c r="K108">
         <v>8879</v>
       </c>
-      <c r="L108" t="n">
+      <c r="L108">
         <v>3567</v>
       </c>
-      <c r="M108" t="n">
-        <v>0</v>
-      </c>
-      <c r="N108" t="n">
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
         <v>10578</v>
       </c>
-      <c r="O108" t="n">
-        <v>0</v>
-      </c>
-      <c r="P108" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q108" t="n">
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
         <v>939</v>
       </c>
-      <c r="R108" t="n">
-        <v>0</v>
-      </c>
-      <c r="S108"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
+      <c r="R108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A109">
         <v>108</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>726</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>40</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>899</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>34</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>1699</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G109">
         <v>26</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109">
         <v>14</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I109">
         <v>40</v>
       </c>
-      <c r="J109" t="n">
+      <c r="J109">
         <v>14145</v>
       </c>
-      <c r="K109" t="n">
+      <c r="K109">
         <v>8879</v>
       </c>
-      <c r="L109" t="n">
+      <c r="L109">
         <v>3567</v>
       </c>
-      <c r="M109" t="n">
-        <v>0</v>
-      </c>
-      <c r="N109" t="n">
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
         <v>10578</v>
       </c>
-      <c r="O109" t="n">
-        <v>0</v>
-      </c>
-      <c r="P109" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q109" t="n">
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
         <v>939</v>
       </c>
-      <c r="R109" t="n">
-        <v>0</v>
-      </c>
-      <c r="S109"/>
-    </row>
-    <row r="110">
-      <c r="A110" t="n">
+      <c r="R109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>109</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>790</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>47</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>1089</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>39</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>1965</v>
       </c>
-      <c r="G110" t="n">
+      <c r="G110">
         <v>28</v>
       </c>
-      <c r="H110" t="n">
+      <c r="H110">
         <v>19</v>
       </c>
-      <c r="I110" t="n">
+      <c r="I110">
         <v>47</v>
       </c>
-      <c r="J110" t="n">
+      <c r="J110">
         <v>15568</v>
       </c>
-      <c r="K110" t="n">
+      <c r="K110">
         <v>9931</v>
       </c>
-      <c r="L110" t="n">
+      <c r="L110">
         <v>3672</v>
       </c>
-      <c r="M110" t="n">
+      <c r="M110">
         <v>266</v>
       </c>
-      <c r="N110" t="n">
+      <c r="N110">
         <v>11896</v>
       </c>
-      <c r="O110" t="n">
+      <c r="O110">
         <v>5</v>
       </c>
-      <c r="P110" t="n">
+      <c r="P110">
         <v>64</v>
       </c>
-      <c r="Q110" t="n">
+      <c r="Q110">
         <v>1136</v>
       </c>
-      <c r="R110" t="n">
+      <c r="R110">
         <v>1318</v>
       </c>
-      <c r="S110"/>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>809</v>
+      </c>
+      <c r="C111">
+        <v>53</v>
+      </c>
+      <c r="D111">
+        <v>1212</v>
+      </c>
+      <c r="E111">
+        <v>39</v>
+      </c>
+      <c r="F111">
+        <v>2113</v>
+      </c>
+      <c r="G111">
+        <v>27</v>
+      </c>
+      <c r="H111">
+        <v>26</v>
+      </c>
+      <c r="I111">
+        <v>53</v>
+      </c>
+      <c r="J111">
+        <v>16521</v>
+      </c>
+      <c r="K111">
+        <v>10626</v>
+      </c>
+      <c r="L111">
+        <v>3782</v>
+      </c>
+      <c r="M111">
+        <f>F111-F110</f>
+        <v>148</v>
+      </c>
+      <c r="N111">
+        <f>J111-L111</f>
+        <v>12739</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <f>B111-B110</f>
+        <v>19</v>
+      </c>
+      <c r="Q111">
+        <f>F111-E111-B111</f>
+        <v>1265</v>
+      </c>
+      <c r="R111">
+        <f>N111-N110</f>
+        <v>843</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>1002</v>
+      </c>
+      <c r="C112">
+        <v>54</v>
+      </c>
+      <c r="D112">
+        <v>1137</v>
+      </c>
+      <c r="E112">
+        <v>39</v>
+      </c>
+      <c r="F112">
+        <v>2232</v>
+      </c>
+      <c r="G112">
+        <v>29</v>
+      </c>
+      <c r="H112">
+        <v>25</v>
+      </c>
+      <c r="I112">
+        <v>54</v>
+      </c>
+      <c r="J112">
+        <v>17200</v>
+      </c>
+      <c r="K112">
+        <v>11182</v>
+      </c>
+      <c r="L112">
+        <v>3786</v>
+      </c>
+      <c r="M112">
+        <f>F112-F111</f>
+        <v>119</v>
+      </c>
+      <c r="N112">
+        <f>J112-L112</f>
+        <v>13414</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <f>B112-B111</f>
+        <v>193</v>
+      </c>
+      <c r="Q112">
+        <f>F112-E112-B112</f>
+        <v>1191</v>
+      </c>
+      <c r="R112">
+        <f>N112-N111</f>
+        <v>675</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauLo\Google Drive\Marvellous Math\Coding\RStudio\Covid Jlle\Sites\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4751B94A-0EF3-48CE-9FB7-0D636EA918AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2CEDC9-2799-4BFF-98B4-A131DFF095B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,16 +420,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S112"/>
+  <dimension ref="A1:S113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R112" sqref="R112"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R101" sqref="R101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -5606,21 +5607,27 @@
         <v>918</v>
       </c>
       <c r="M100">
+        <f>F100-F99</f>
         <v>126</v>
       </c>
       <c r="N100">
+        <f>J100-L100</f>
         <v>4786</v>
       </c>
       <c r="O100">
+        <f>E100-E99</f>
         <v>0</v>
       </c>
       <c r="P100">
+        <f>B100-B99</f>
         <v>36</v>
       </c>
       <c r="Q100">
+        <f>F100-E100-B100</f>
         <v>426</v>
       </c>
       <c r="R100">
+        <f>N100-N99</f>
         <v>543</v>
       </c>
       <c r="S100">
@@ -6237,26 +6244,21 @@
         <v>3782</v>
       </c>
       <c r="M111">
-        <f>F111-F110</f>
         <v>148</v>
       </c>
       <c r="N111">
-        <f>J111-L111</f>
         <v>12739</v>
       </c>
       <c r="O111">
         <v>0</v>
       </c>
       <c r="P111">
-        <f>B111-B110</f>
         <v>19</v>
       </c>
       <c r="Q111">
-        <f>F111-E111-B111</f>
         <v>1265</v>
       </c>
       <c r="R111">
-        <f>N111-N110</f>
         <v>843</v>
       </c>
     </row>
@@ -6298,27 +6300,78 @@
         <v>3786</v>
       </c>
       <c r="M112">
-        <f>F112-F111</f>
         <v>119</v>
       </c>
       <c r="N112">
-        <f>J112-L112</f>
         <v>13414</v>
       </c>
       <c r="O112">
         <v>0</v>
       </c>
       <c r="P112">
-        <f>B112-B111</f>
         <v>193</v>
       </c>
       <c r="Q112">
-        <f>F112-E112-B112</f>
         <v>1191</v>
       </c>
       <c r="R112">
-        <f>N112-N111</f>
         <v>675</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>1291</v>
+      </c>
+      <c r="C113">
+        <v>62</v>
+      </c>
+      <c r="D113">
+        <v>1108</v>
+      </c>
+      <c r="E113">
+        <v>44</v>
+      </c>
+      <c r="F113">
+        <v>2505</v>
+      </c>
+      <c r="G113">
+        <v>33</v>
+      </c>
+      <c r="H113">
+        <v>29</v>
+      </c>
+      <c r="I113">
+        <v>62</v>
+      </c>
+      <c r="J113">
+        <v>18562</v>
+      </c>
+      <c r="K113">
+        <v>12195</v>
+      </c>
+      <c r="L113">
+        <v>3862</v>
+      </c>
+      <c r="M113">
+        <v>273</v>
+      </c>
+      <c r="N113">
+        <v>14700</v>
+      </c>
+      <c r="O113">
+        <v>5</v>
+      </c>
+      <c r="P113">
+        <v>289</v>
+      </c>
+      <c r="Q113">
+        <v>1170</v>
+      </c>
+      <c r="R113">
+        <v>1286</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -1,99 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pauLo\Google Drive\Marvellous Math\Coding\RStudio\Covid Jlle\Sites\Datasets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2CEDC9-2799-4BFF-98B4-A131DFF095B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="COVIDJoinville" sheetId="1" r:id="rId1"/>
+    <sheet name="COVIDJoinville" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t>DATA</t>
+    <t xml:space="preserve">DATA</t>
   </si>
   <si>
-    <t>RECUPERADOS</t>
+    <t xml:space="preserve">RECUPERADOS</t>
   </si>
   <si>
-    <t>HOSPITALIZADOS</t>
+    <t xml:space="preserve">HOSPITALIZADOS</t>
   </si>
   <si>
-    <t>ISO_DOMICILIAR</t>
+    <t xml:space="preserve">ISO_DOMICILIAR</t>
   </si>
   <si>
-    <t>MORTES</t>
+    <t xml:space="preserve">MORTES</t>
   </si>
   <si>
-    <t>TOTAL</t>
+    <t xml:space="preserve">TOTAL</t>
   </si>
   <si>
-    <t>UTI</t>
+    <t xml:space="preserve">UTI</t>
   </si>
   <si>
-    <t>ENFERMARIA</t>
+    <t xml:space="preserve">ENFERMARIA</t>
   </si>
   <si>
-    <t>HOSPITALIZADOS2</t>
+    <t xml:space="preserve">HOSPITALIZADOS2</t>
   </si>
   <si>
-    <t>NOTIFICADOS</t>
+    <t xml:space="preserve">NOTIFICADOS</t>
   </si>
   <si>
-    <t>DESCARTADOS</t>
+    <t xml:space="preserve">DESCARTADOS</t>
   </si>
   <si>
-    <t>AGUARDANDO_EX</t>
+    <t xml:space="preserve">AGUARDANDO_EX</t>
   </si>
   <si>
-    <t>CASOS_DIA</t>
+    <t xml:space="preserve">CASOS_DIA</t>
   </si>
   <si>
-    <t>TESTES</t>
+    <t xml:space="preserve">TESTES</t>
   </si>
   <si>
-    <t>MORTES_DIA</t>
+    <t xml:space="preserve">MORTES_DIA</t>
   </si>
   <si>
-    <t>REC_DIA</t>
+    <t xml:space="preserve">REC_DIA</t>
   </si>
   <si>
-    <t>CASOS_ATIVOS</t>
+    <t xml:space="preserve">CASOS_ATIVOS</t>
   </si>
   <si>
-    <t>TESTES_DIA</t>
+    <t xml:space="preserve">TESTES_DIA</t>
   </si>
   <si>
-    <t>...19</t>
+    <t xml:space="preserve">...19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -129,15 +112,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -419,21 +393,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R101" sqref="R101"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="12" max="12" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,5890 +459,6185 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6" t="n">
         <v>87</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>36</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>50</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>37</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>37</v>
       </c>
-      <c r="S6">
-        <v>2.7027027027027001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="S6" t="n">
+        <v>0.027027027027027</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7" t="n">
         <v>109</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>48</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>60</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
         <v>49</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>12</v>
       </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>2</v>
       </c>
-      <c r="J8">
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8" t="n">
         <v>129</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>70</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>57</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>72</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>23</v>
       </c>
-      <c r="S8">
-        <v>4.3478260869565202E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="S8" t="n">
+        <v>0.0434782608695652</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>3</v>
       </c>
-      <c r="J9">
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9" t="n">
         <v>143</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>72</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>68</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>75</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>3</v>
       </c>
-      <c r="S9">
-        <v>0.33333333333333298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="S9" t="n">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>4</v>
       </c>
-      <c r="J10">
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10" t="n">
         <v>145</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>72</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>69</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>76</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>4</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>1</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>4</v>
       </c>
-      <c r="J11">
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11" t="n">
         <v>145</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>76</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>65</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
         <v>80</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>4</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>4</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>4</v>
       </c>
-      <c r="J12">
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12" t="n">
         <v>155</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>102</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>49</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>106</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>4</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>26</v>
       </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>4</v>
       </c>
-      <c r="J13">
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13" t="n">
         <v>162</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>116</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>42</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>120</v>
       </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>4</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>14</v>
       </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>7</v>
       </c>
-      <c r="J14">
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14" t="n">
         <v>169</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>130</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>32</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>3</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>137</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>7</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>17</v>
       </c>
-      <c r="S14">
-        <v>0.17647058823529399</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="S14" t="n">
+        <v>0.176470588235294</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>8</v>
       </c>
-      <c r="J15">
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15" t="n">
         <v>176</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>134</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>34</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>142</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>8</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>5</v>
       </c>
-      <c r="S15">
+      <c r="S15" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>10</v>
       </c>
-      <c r="J16">
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16" t="n">
         <v>191</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>136</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>45</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>2</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>146</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>10</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>4</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>10</v>
       </c>
-      <c r="J17">
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17" t="n">
         <v>204</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>136</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>58</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
         <v>146</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
         <v>10</v>
       </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>10</v>
       </c>
-      <c r="J18">
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18" t="n">
         <v>208</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>136</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>62</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>146</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
         <v>10</v>
       </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" t="n">
         <v>1</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>15</v>
       </c>
-      <c r="J19">
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" t="n">
         <v>219</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>159</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>45</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>5</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>174</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>1</v>
       </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
         <v>14</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="n">
         <v>28</v>
       </c>
-      <c r="S19">
-        <v>0.17857142857142899</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="S19" t="n">
+        <v>0.178571428571429</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>8</v>
       </c>
-      <c r="E20">
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20" t="n">
         <v>1</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>15</v>
       </c>
-      <c r="J20">
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" t="n">
         <v>248</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>167</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>66</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>182</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
         <v>8</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="n">
         <v>6</v>
       </c>
-      <c r="R20">
+      <c r="R20" t="n">
         <v>8</v>
       </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>10</v>
       </c>
-      <c r="E21">
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" t="n">
         <v>1</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>18</v>
       </c>
-      <c r="J21">
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21" t="n">
         <v>259</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>173</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>68</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <v>3</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="n">
         <v>191</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
         <v>2</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="n">
         <v>7</v>
       </c>
-      <c r="R21">
+      <c r="R21" t="n">
         <v>9</v>
       </c>
-      <c r="S21">
-        <v>0.33333333333333298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="S21" t="n">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>11</v>
       </c>
-      <c r="E22">
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22" t="n">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>19</v>
       </c>
-      <c r="J22">
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22" t="n">
         <v>294</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>176</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="n">
         <v>99</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
-      <c r="N22">
+      <c r="N22" t="n">
         <v>195</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>1</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" t="n">
         <v>7</v>
       </c>
-      <c r="R22">
+      <c r="R22" t="n">
         <v>4</v>
       </c>
-      <c r="S22">
+      <c r="S22" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" t="n">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>12</v>
       </c>
-      <c r="E23">
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" t="n">
         <v>1</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>20</v>
       </c>
-      <c r="J23">
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23" t="n">
         <v>306</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>179</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>107</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
-      <c r="N23">
+      <c r="N23" t="n">
         <v>199</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
         <v>1</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" t="n">
         <v>7</v>
       </c>
-      <c r="R23">
+      <c r="R23" t="n">
         <v>4</v>
       </c>
-      <c r="S23">
+      <c r="S23" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" t="n">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>12</v>
       </c>
-      <c r="E24">
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24" t="n">
         <v>1</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>23</v>
       </c>
-      <c r="J24">
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24" t="n">
         <v>315</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>189</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="n">
         <v>103</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="n">
         <v>3</v>
       </c>
-      <c r="N24">
+      <c r="N24" t="n">
         <v>212</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>10</v>
       </c>
-      <c r="R24">
+      <c r="R24" t="n">
         <v>13</v>
       </c>
-      <c r="S24">
+      <c r="S24" t="n">
         <v>0.230769230769231</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" t="n">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>12</v>
       </c>
-      <c r="E25">
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25" t="n">
         <v>1</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>33</v>
       </c>
-      <c r="J25">
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25" t="n">
         <v>326</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>216</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="n">
         <v>77</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="n">
         <v>10</v>
       </c>
-      <c r="N25">
+      <c r="N25" t="n">
         <v>249</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>20</v>
       </c>
-      <c r="R25">
+      <c r="R25" t="n">
         <v>37</v>
       </c>
-      <c r="S25">
-        <v>0.27027027027027001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="S25" t="n">
+        <v>0.27027027027027</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>13</v>
       </c>
-      <c r="E26">
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" t="n">
         <v>1</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>40</v>
       </c>
-      <c r="J26">
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26" t="n">
         <v>356</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>250</v>
       </c>
-      <c r="L26">
+      <c r="L26" t="n">
         <v>66</v>
       </c>
-      <c r="M26">
+      <c r="M26" t="n">
         <v>7</v>
       </c>
-      <c r="N26">
+      <c r="N26" t="n">
         <v>290</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>1</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" t="n">
         <v>26</v>
       </c>
-      <c r="R26">
+      <c r="R26" t="n">
         <v>41</v>
       </c>
-      <c r="S26">
-        <v>0.17073170731707299</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="S26" t="n">
+        <v>0.170731707317073</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>13</v>
       </c>
-      <c r="E27">
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27" t="n">
         <v>1</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>43</v>
       </c>
-      <c r="J27">
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27" t="n">
         <v>372</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>275</v>
       </c>
-      <c r="L27">
+      <c r="L27" t="n">
         <v>54</v>
       </c>
-      <c r="M27">
+      <c r="M27" t="n">
         <v>3</v>
       </c>
-      <c r="N27">
+      <c r="N27" t="n">
         <v>318</v>
       </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>29</v>
       </c>
-      <c r="R27">
+      <c r="R27" t="n">
         <v>28</v>
       </c>
-      <c r="S27">
+      <c r="S27" t="n">
         <v>0.107142857142857</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" t="n">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>13</v>
       </c>
-      <c r="E28">
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28" t="n">
         <v>1</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>48</v>
       </c>
-      <c r="J28">
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28" t="n">
         <v>382</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>292</v>
       </c>
-      <c r="L28">
+      <c r="L28" t="n">
         <v>42</v>
       </c>
-      <c r="M28">
+      <c r="M28" t="n">
         <v>5</v>
       </c>
-      <c r="N28">
+      <c r="N28" t="n">
         <v>340</v>
       </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>34</v>
       </c>
-      <c r="R28">
+      <c r="R28" t="n">
         <v>22</v>
       </c>
-      <c r="S28">
-        <v>0.22727272727272699</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="S28" t="n">
+        <v>0.227272727272727</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>13</v>
       </c>
-      <c r="E29">
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" t="n">
         <v>1</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>51</v>
       </c>
-      <c r="J29">
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29" t="n">
         <v>410</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>313</v>
       </c>
-      <c r="L29">
+      <c r="L29" t="n">
         <v>46</v>
       </c>
-      <c r="M29">
+      <c r="M29" t="n">
         <v>3</v>
       </c>
-      <c r="N29">
+      <c r="N29" t="n">
         <v>364</v>
       </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
         <v>37</v>
       </c>
-      <c r="R29">
+      <c r="R29" t="n">
         <v>24</v>
       </c>
-      <c r="S29">
+      <c r="S29" t="n">
         <v>0.125</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" t="n">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>13</v>
       </c>
-      <c r="E30">
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30" t="n">
         <v>1</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>51</v>
       </c>
-      <c r="J30">
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30" t="n">
         <v>426</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>314</v>
       </c>
-      <c r="L30">
+      <c r="L30" t="n">
         <v>61</v>
       </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>365</v>
       </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>37</v>
       </c>
-      <c r="R30">
+      <c r="R30" t="n">
         <v>1</v>
       </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>19</v>
       </c>
-      <c r="E31">
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31" t="n">
         <v>1</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>54</v>
       </c>
-      <c r="J31">
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31" t="n">
         <v>426</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>337</v>
       </c>
-      <c r="L31">
+      <c r="L31" t="n">
         <v>35</v>
       </c>
-      <c r="M31">
+      <c r="M31" t="n">
         <v>3</v>
       </c>
-      <c r="N31">
+      <c r="N31" t="n">
         <v>391</v>
       </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>6</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" t="n">
         <v>34</v>
       </c>
-      <c r="R31">
+      <c r="R31" t="n">
         <v>26</v>
       </c>
-      <c r="S31">
+      <c r="S31" t="n">
         <v>0.115384615384615</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" t="n">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>19</v>
       </c>
-      <c r="E32">
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32" t="n">
         <v>2</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>54</v>
       </c>
-      <c r="J32">
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32" t="n">
         <v>426</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>337</v>
       </c>
-      <c r="L32">
+      <c r="L32" t="n">
         <v>35</v>
       </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>391</v>
       </c>
-      <c r="O32">
+      <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>33</v>
       </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>20</v>
       </c>
-      <c r="E33">
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" t="n">
         <v>2</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>59</v>
       </c>
-      <c r="J33">
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33" t="n">
         <v>463</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>378</v>
       </c>
-      <c r="L33">
+      <c r="L33" t="n">
         <v>26</v>
       </c>
-      <c r="M33">
+      <c r="M33" t="n">
         <v>5</v>
       </c>
-      <c r="N33">
+      <c r="N33" t="n">
         <v>437</v>
       </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>1</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" t="n">
         <v>37</v>
       </c>
-      <c r="R33">
+      <c r="R33" t="n">
         <v>46</v>
       </c>
-      <c r="S33">
+      <c r="S33" t="n">
         <v>0.108695652173913</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" t="n">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>22</v>
       </c>
-      <c r="E34">
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" t="n">
         <v>2</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>64</v>
       </c>
-      <c r="J34">
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34" t="n">
         <v>473</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>384</v>
       </c>
-      <c r="L34">
+      <c r="L34" t="n">
         <v>25</v>
       </c>
-      <c r="M34">
+      <c r="M34" t="n">
         <v>5</v>
       </c>
-      <c r="N34">
+      <c r="N34" t="n">
         <v>448</v>
       </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
         <v>2</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" t="n">
         <v>40</v>
       </c>
-      <c r="R34">
+      <c r="R34" t="n">
         <v>11</v>
       </c>
-      <c r="S34">
-        <v>0.45454545454545497</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="S34" t="n">
+        <v>0.454545454545455</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>22</v>
       </c>
-      <c r="E35">
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" t="n">
         <v>2</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>70</v>
       </c>
-      <c r="J35">
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35" t="n">
         <v>488</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>394</v>
       </c>
-      <c r="L35">
+      <c r="L35" t="n">
         <v>24</v>
       </c>
-      <c r="M35">
+      <c r="M35" t="n">
         <v>6</v>
       </c>
-      <c r="N35">
+      <c r="N35" t="n">
         <v>464</v>
       </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>46</v>
       </c>
-      <c r="R35">
+      <c r="R35" t="n">
         <v>16</v>
       </c>
-      <c r="S35">
+      <c r="S35" t="n">
         <v>0.375</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" t="n">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>22</v>
       </c>
-      <c r="E36">
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36" t="n">
         <v>2</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>73</v>
       </c>
-      <c r="J36">
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36" t="n">
         <v>537</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>403</v>
       </c>
-      <c r="L36">
+      <c r="L36" t="n">
         <v>61</v>
       </c>
-      <c r="M36">
+      <c r="M36" t="n">
         <v>3</v>
       </c>
-      <c r="N36">
+      <c r="N36" t="n">
         <v>476</v>
       </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>49</v>
       </c>
-      <c r="R36">
+      <c r="R36" t="n">
         <v>12</v>
       </c>
-      <c r="S36">
+      <c r="S36" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" t="n">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>22</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>14</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>47</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>85</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="n">
         <v>3</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>11</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>14</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>558</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>418</v>
       </c>
-      <c r="L37">
+      <c r="L37" t="n">
         <v>55</v>
       </c>
-      <c r="M37">
+      <c r="M37" t="n">
         <v>12</v>
       </c>
-      <c r="N37">
+      <c r="N37" t="n">
         <v>503</v>
       </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>61</v>
       </c>
-      <c r="R37">
+      <c r="R37" t="n">
         <v>27</v>
       </c>
-      <c r="S37">
-        <v>0.44444444444444398</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="S37" t="n">
+        <v>0.444444444444444</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>22</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>16</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>46</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>2</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>86</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="n">
         <v>3</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>13</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="n">
         <v>16</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="n">
         <v>596</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="n">
         <v>447</v>
       </c>
-      <c r="L38">
+      <c r="L38" t="n">
         <v>63</v>
       </c>
-      <c r="M38">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
-      <c r="N38">
+      <c r="N38" t="n">
         <v>533</v>
       </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
         <v>62</v>
       </c>
-      <c r="R38">
+      <c r="R38" t="n">
         <v>30</v>
       </c>
-      <c r="S38">
-        <v>3.3333333333333298E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="S38" t="n">
+        <v>0.0333333333333333</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>22</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>19</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>50</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>2</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>93</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="n">
         <v>3</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>16</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>19</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>616</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>488</v>
       </c>
-      <c r="L39">
+      <c r="L39" t="n">
         <v>38</v>
       </c>
-      <c r="M39">
+      <c r="M39" t="n">
         <v>7</v>
       </c>
-      <c r="N39">
+      <c r="N39" t="n">
         <v>578</v>
       </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>69</v>
       </c>
-      <c r="R39">
+      <c r="R39" t="n">
         <v>45</v>
       </c>
-      <c r="S39">
+      <c r="S39" t="n">
         <v>0.155555555555556</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40">
+      <c r="A40" t="n">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>31</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>11</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>50</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>2</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>94</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="n">
         <v>1</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>10</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="n">
         <v>11</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="n">
         <v>619</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="n">
         <v>486</v>
       </c>
-      <c r="L40">
+      <c r="L40" t="n">
         <v>39</v>
       </c>
-      <c r="M40">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
-      <c r="N40">
+      <c r="N40" t="n">
         <v>580</v>
       </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
         <v>9</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" t="n">
         <v>61</v>
       </c>
-      <c r="R40">
+      <c r="R40" t="n">
         <v>2</v>
       </c>
-      <c r="S40">
+      <c r="S40" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41">
+      <c r="A41" t="n">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>31</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>11</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>57</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>2</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>101</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="n">
         <v>1</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>10</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="n">
         <v>11</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="n">
         <v>652</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="n">
         <v>500</v>
       </c>
-      <c r="L41">
+      <c r="L41" t="n">
         <v>51</v>
       </c>
-      <c r="M41">
+      <c r="M41" t="n">
         <v>7</v>
       </c>
-      <c r="N41">
+      <c r="N41" t="n">
         <v>601</v>
       </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
         <v>68</v>
       </c>
-      <c r="R41">
+      <c r="R41" t="n">
         <v>21</v>
       </c>
-      <c r="S41">
-        <v>0.33333333333333298</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="S41" t="n">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>31</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>16</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>60</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>2</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>109</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="n">
         <v>3</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>13</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="n">
         <v>16</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="n">
         <v>669</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="n">
         <v>527</v>
       </c>
-      <c r="L42">
+      <c r="L42" t="n">
         <v>33</v>
       </c>
-      <c r="M42">
+      <c r="M42" t="n">
         <v>8</v>
       </c>
-      <c r="N42">
+      <c r="N42" t="n">
         <v>636</v>
       </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>0</v>
-      </c>
-      <c r="Q42">
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
         <v>76</v>
       </c>
-      <c r="R42">
+      <c r="R42" t="n">
         <v>35</v>
       </c>
-      <c r="S42">
-        <v>0.22857142857142901</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="S42" t="n">
+        <v>0.228571428571429</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>34</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>12</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>66</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>2</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>114</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="n">
         <v>3</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>9</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="n">
         <v>12</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="n">
         <v>698</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="n">
         <v>541</v>
       </c>
-      <c r="L43">
+      <c r="L43" t="n">
         <v>43</v>
       </c>
-      <c r="M43">
+      <c r="M43" t="n">
         <v>5</v>
       </c>
-      <c r="N43">
+      <c r="N43" t="n">
         <v>655</v>
       </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>3</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" t="n">
         <v>78</v>
       </c>
-      <c r="R43">
+      <c r="R43" t="n">
         <v>19</v>
       </c>
-      <c r="S43">
-        <v>0.26315789473684198</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="S43" t="n">
+        <v>0.263157894736842</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>34</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>13</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>79</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>2</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>128</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="n">
         <v>4</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>9</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>13</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>734</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="n">
         <v>575</v>
       </c>
-      <c r="L44">
+      <c r="L44" t="n">
         <v>31</v>
       </c>
-      <c r="M44">
+      <c r="M44" t="n">
         <v>14</v>
       </c>
-      <c r="N44">
+      <c r="N44" t="n">
         <v>703</v>
       </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>0</v>
-      </c>
-      <c r="Q44">
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
         <v>92</v>
       </c>
-      <c r="R44">
+      <c r="R44" t="n">
         <v>48</v>
       </c>
-      <c r="S44">
-        <v>0.29166666666666702</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="S44" t="n">
+        <v>0.291666666666667</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>34</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>13</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>80</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>3</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>130</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="n">
         <v>4</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>9</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="n">
         <v>13</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="n">
         <v>749</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="n">
         <v>584</v>
       </c>
-      <c r="L45">
+      <c r="L45" t="n">
         <v>35</v>
       </c>
-      <c r="M45">
+      <c r="M45" t="n">
         <v>2</v>
       </c>
-      <c r="N45">
+      <c r="N45" t="n">
         <v>714</v>
       </c>
-      <c r="O45">
+      <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>93</v>
       </c>
-      <c r="R45">
+      <c r="R45" t="n">
         <v>11</v>
       </c>
-      <c r="S45">
-        <v>0.18181818181818199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="S45" t="n">
+        <v>0.181818181818182</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>34</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>13</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>80</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>3</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>130</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="n">
         <v>4</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>9</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="n">
         <v>13</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="n">
         <v>765</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="n">
         <v>587</v>
       </c>
-      <c r="L46">
+      <c r="L46" t="n">
         <v>48</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>717</v>
       </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>93</v>
       </c>
-      <c r="R46">
+      <c r="R46" t="n">
         <v>3</v>
       </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>37</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>14</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>91</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>3</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>145</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="n">
         <v>4</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>10</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>14</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>776</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>605</v>
       </c>
-      <c r="L47">
+      <c r="L47" t="n">
         <v>26</v>
       </c>
-      <c r="M47">
+      <c r="M47" t="n">
         <v>15</v>
       </c>
-      <c r="N47">
+      <c r="N47" t="n">
         <v>750</v>
       </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
         <v>3</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" t="n">
         <v>105</v>
       </c>
-      <c r="R47">
+      <c r="R47" t="n">
         <v>33</v>
       </c>
-      <c r="S47">
-        <v>0.45454545454545497</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="S47" t="n">
+        <v>0.454545454545455</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>38</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>17</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>88</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>3</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>146</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="n">
         <v>7</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>10</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="n">
         <v>17</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="n">
         <v>832</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="n">
         <v>628</v>
       </c>
-      <c r="L48">
+      <c r="L48" t="n">
         <v>58</v>
       </c>
-      <c r="M48">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
-      <c r="N48">
+      <c r="N48" t="n">
         <v>774</v>
       </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
         <v>1</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" t="n">
         <v>105</v>
       </c>
-      <c r="R48">
+      <c r="R48" t="n">
         <v>24</v>
       </c>
-      <c r="S48">
-        <v>4.1666666666666699E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="S48" t="n">
+        <v>0.0416666666666667</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>38</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>18</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>114</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>3</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>173</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="n">
         <v>7</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>11</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="n">
         <v>18</v>
       </c>
-      <c r="J49">
+      <c r="J49" t="n">
         <v>862</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="n">
         <v>632</v>
       </c>
-      <c r="L49">
+      <c r="L49" t="n">
         <v>57</v>
       </c>
-      <c r="M49">
+      <c r="M49" t="n">
         <v>27</v>
       </c>
-      <c r="N49">
+      <c r="N49" t="n">
         <v>805</v>
       </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
         <v>132</v>
       </c>
-      <c r="R49">
+      <c r="R49" t="n">
         <v>31</v>
       </c>
-      <c r="S49">
-        <v>0.87096774193548399</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="S49" t="n">
+        <v>0.870967741935484</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>38</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>22</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>127</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>4</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="n">
         <v>191</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="n">
         <v>8</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>14</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="n">
         <v>22</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="n">
         <v>941</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="n">
         <v>701</v>
       </c>
-      <c r="L50">
+      <c r="L50" t="n">
         <v>49</v>
       </c>
-      <c r="M50">
+      <c r="M50" t="n">
         <v>18</v>
       </c>
-      <c r="N50">
+      <c r="N50" t="n">
         <v>892</v>
       </c>
-      <c r="O50">
+      <c r="O50" t="n">
         <v>1</v>
       </c>
-      <c r="P50">
-        <v>0</v>
-      </c>
-      <c r="Q50">
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
         <v>149</v>
       </c>
-      <c r="R50">
+      <c r="R50" t="n">
         <v>87</v>
       </c>
-      <c r="S50">
-        <v>0.20689655172413801</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="S50" t="n">
+        <v>0.206896551724138</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>38</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>24</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>136</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>5</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>203</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="n">
         <v>9</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>15</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="n">
         <v>24</v>
       </c>
-      <c r="J51">
+      <c r="J51" t="n">
         <v>979</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="n">
         <v>740</v>
       </c>
-      <c r="L51">
+      <c r="L51" t="n">
         <v>36</v>
       </c>
-      <c r="M51">
+      <c r="M51" t="n">
         <v>12</v>
       </c>
-      <c r="N51">
+      <c r="N51" t="n">
         <v>943</v>
       </c>
-      <c r="O51">
+      <c r="O51" t="n">
         <v>1</v>
       </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-      <c r="Q51">
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
         <v>160</v>
       </c>
-      <c r="R51">
+      <c r="R51" t="n">
         <v>51</v>
       </c>
-      <c r="S51">
-        <v>0.23529411764705899</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="S51" t="n">
+        <v>0.235294117647059</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>38</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>24</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>136</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>5</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>203</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="n">
         <v>9</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>15</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>24</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>994</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="n">
         <v>740</v>
       </c>
-      <c r="L52">
+      <c r="L52" t="n">
         <v>51</v>
       </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
         <v>943</v>
       </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52">
-        <v>0</v>
-      </c>
-      <c r="Q52">
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
         <v>160</v>
       </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>38</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>25</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>138</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>5</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="n">
         <v>206</v>
       </c>
-      <c r="G53">
+      <c r="G53" t="n">
         <v>9</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>16</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="n">
         <v>25</v>
       </c>
-      <c r="J53">
+      <c r="J53" t="n">
         <v>1012</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="n">
         <v>777</v>
       </c>
-      <c r="L53">
+      <c r="L53" t="n">
         <v>29</v>
       </c>
-      <c r="M53">
+      <c r="M53" t="n">
         <v>3</v>
       </c>
-      <c r="N53">
+      <c r="N53" t="n">
         <v>983</v>
       </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
         <v>163</v>
       </c>
-      <c r="R53">
+      <c r="R53" t="n">
         <v>40</v>
       </c>
-      <c r="S53">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="S53" t="n">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>44</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>24</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>141</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>6</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>215</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="n">
         <v>10</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>14</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="n">
         <v>24</v>
       </c>
-      <c r="J54">
+      <c r="J54" t="n">
         <v>1048</v>
       </c>
-      <c r="K54">
+      <c r="K54" t="n">
         <v>804</v>
       </c>
-      <c r="L54">
+      <c r="L54" t="n">
         <v>29</v>
       </c>
-      <c r="M54">
+      <c r="M54" t="n">
         <v>9</v>
       </c>
-      <c r="N54">
+      <c r="N54" t="n">
         <v>1019</v>
       </c>
-      <c r="O54">
+      <c r="O54" t="n">
         <v>1</v>
       </c>
-      <c r="P54">
+      <c r="P54" t="n">
         <v>6</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" t="n">
         <v>165</v>
       </c>
-      <c r="R54">
+      <c r="R54" t="n">
         <v>36</v>
       </c>
-      <c r="S54">
+      <c r="S54" t="n">
         <v>0.25</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="55">
+      <c r="A55" t="n">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>47</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>25</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>141</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>6</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>219</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="n">
         <v>10</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="n">
         <v>15</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="n">
         <v>25</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="n">
         <v>1095</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="n">
         <v>839</v>
       </c>
-      <c r="L55">
+      <c r="L55" t="n">
         <v>37</v>
       </c>
-      <c r="M55">
+      <c r="M55" t="n">
         <v>4</v>
       </c>
-      <c r="N55">
+      <c r="N55" t="n">
         <v>1058</v>
       </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
         <v>3</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" t="n">
         <v>166</v>
       </c>
-      <c r="R55">
+      <c r="R55" t="n">
         <v>39</v>
       </c>
-      <c r="S55">
+      <c r="S55" t="n">
         <v>0.102564102564103</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="56">
+      <c r="A56" t="n">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>84</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>25</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>122</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>6</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="n">
         <v>237</v>
       </c>
-      <c r="G56">
+      <c r="G56" t="n">
         <v>9</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>16</v>
       </c>
-      <c r="I56">
+      <c r="I56" t="n">
         <v>25</v>
       </c>
-      <c r="J56">
+      <c r="J56" t="n">
         <v>1144</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="n">
         <v>859</v>
       </c>
-      <c r="L56">
+      <c r="L56" t="n">
         <v>48</v>
       </c>
-      <c r="M56">
+      <c r="M56" t="n">
         <v>18</v>
       </c>
-      <c r="N56">
+      <c r="N56" t="n">
         <v>1096</v>
       </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
         <v>37</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" t="n">
         <v>147</v>
       </c>
-      <c r="R56">
+      <c r="R56" t="n">
         <v>38</v>
       </c>
-      <c r="S56">
-        <v>0.47368421052631599</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="S56" t="n">
+        <v>0.473684210526316</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>84</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>26</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>129</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>6</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="n">
         <v>245</v>
       </c>
-      <c r="G57">
+      <c r="G57" t="n">
         <v>10</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>16</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="n">
         <v>26</v>
       </c>
-      <c r="J57">
+      <c r="J57" t="n">
         <v>1188</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="n">
         <v>906</v>
       </c>
-      <c r="L57">
+      <c r="L57" t="n">
         <v>37</v>
       </c>
-      <c r="M57">
+      <c r="M57" t="n">
         <v>8</v>
       </c>
-      <c r="N57">
+      <c r="N57" t="n">
         <v>1151</v>
       </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
         <v>155</v>
       </c>
-      <c r="R57">
+      <c r="R57" t="n">
         <v>55</v>
       </c>
-      <c r="S57">
+      <c r="S57" t="n">
         <v>0.145454545454545</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="58">
+      <c r="A58" t="n">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>100</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>27</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>123</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>6</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>256</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="n">
         <v>10</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="n">
         <v>17</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="n">
         <v>27</v>
       </c>
-      <c r="J58">
+      <c r="J58" t="n">
         <v>1237</v>
       </c>
-      <c r="K58">
+      <c r="K58" t="n">
         <v>950</v>
       </c>
-      <c r="L58">
+      <c r="L58" t="n">
         <v>31</v>
       </c>
-      <c r="M58">
+      <c r="M58" t="n">
         <v>11</v>
       </c>
-      <c r="N58">
+      <c r="N58" t="n">
         <v>1206</v>
       </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
         <v>16</v>
       </c>
-      <c r="Q58">
+      <c r="Q58" t="n">
         <v>150</v>
       </c>
-      <c r="R58">
+      <c r="R58" t="n">
         <v>55</v>
       </c>
-      <c r="S58">
+      <c r="S58" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59">
+      <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>100</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>28</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>129</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>6</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="n">
         <v>263</v>
       </c>
-      <c r="G59">
+      <c r="G59" t="n">
         <v>10</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="n">
         <v>18</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="n">
         <v>28</v>
       </c>
-      <c r="J59">
+      <c r="J59" t="n">
         <v>1261</v>
       </c>
-      <c r="K59">
+      <c r="K59" t="n">
         <v>963</v>
       </c>
-      <c r="L59">
+      <c r="L59" t="n">
         <v>35</v>
       </c>
-      <c r="M59">
+      <c r="M59" t="n">
         <v>7</v>
       </c>
-      <c r="N59">
+      <c r="N59" t="n">
         <v>1226</v>
       </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
         <v>157</v>
       </c>
-      <c r="R59">
+      <c r="R59" t="n">
         <v>20</v>
       </c>
-      <c r="S59">
+      <c r="S59" t="n">
         <v>0.35</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60">
+      <c r="A60" t="n">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>100</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>27</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>128</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>8</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>263</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="n">
         <v>9</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="n">
         <v>18</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="n">
         <v>27</v>
       </c>
-      <c r="J60">
+      <c r="J60" t="n">
         <v>1290</v>
       </c>
-      <c r="K60">
+      <c r="K60" t="n">
         <v>982</v>
       </c>
-      <c r="L60">
+      <c r="L60" t="n">
         <v>45</v>
       </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
         <v>1245</v>
       </c>
-      <c r="O60">
+      <c r="O60" t="n">
         <v>2</v>
       </c>
-      <c r="P60">
-        <v>0</v>
-      </c>
-      <c r="Q60">
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
         <v>155</v>
       </c>
-      <c r="R60">
+      <c r="R60" t="n">
         <v>19</v>
       </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>105</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>25</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>132</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>8</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="n">
         <v>270</v>
       </c>
-      <c r="G61">
+      <c r="G61" t="n">
         <v>11</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="n">
         <v>14</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="n">
         <v>25</v>
       </c>
-      <c r="J61">
+      <c r="J61" t="n">
         <v>1314</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="n">
         <v>1020</v>
       </c>
-      <c r="L61">
+      <c r="L61" t="n">
         <v>24</v>
       </c>
-      <c r="M61">
+      <c r="M61" t="n">
         <v>7</v>
       </c>
-      <c r="N61">
+      <c r="N61" t="n">
         <v>1290</v>
       </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
         <v>5</v>
       </c>
-      <c r="Q61">
+      <c r="Q61" t="n">
         <v>157</v>
       </c>
-      <c r="R61">
+      <c r="R61" t="n">
         <v>45</v>
       </c>
-      <c r="S61">
+      <c r="S61" t="n">
         <v>0.155555555555556</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="62">
+      <c r="A62" t="n">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" t="n">
         <v>105</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>24</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>137</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>10</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="n">
         <v>276</v>
       </c>
-      <c r="G62">
+      <c r="G62" t="n">
         <v>16</v>
       </c>
-      <c r="H62">
+      <c r="H62" t="n">
         <v>8</v>
       </c>
-      <c r="I62">
+      <c r="I62" t="n">
         <v>24</v>
       </c>
-      <c r="J62">
+      <c r="J62" t="n">
         <v>1341</v>
       </c>
-      <c r="K62">
+      <c r="K62" t="n">
         <v>1030</v>
       </c>
-      <c r="L62">
+      <c r="L62" t="n">
         <v>35</v>
       </c>
-      <c r="M62">
+      <c r="M62" t="n">
         <v>6</v>
       </c>
-      <c r="N62">
+      <c r="N62" t="n">
         <v>1306</v>
       </c>
-      <c r="O62">
+      <c r="O62" t="n">
         <v>2</v>
       </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
         <v>161</v>
       </c>
-      <c r="R62">
+      <c r="R62" t="n">
         <v>16</v>
       </c>
-      <c r="S62">
+      <c r="S62" t="n">
         <v>0.375</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="63">
+      <c r="A63" t="n">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" t="n">
         <v>148</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>23</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>101</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>10</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>282</v>
       </c>
-      <c r="G63">
+      <c r="G63" t="n">
         <v>16</v>
       </c>
-      <c r="H63">
+      <c r="H63" t="n">
         <v>7</v>
       </c>
-      <c r="I63">
+      <c r="I63" t="n">
         <v>23</v>
       </c>
-      <c r="J63">
+      <c r="J63" t="n">
         <v>1368</v>
       </c>
-      <c r="K63">
+      <c r="K63" t="n">
         <v>1053</v>
       </c>
-      <c r="L63">
+      <c r="L63" t="n">
         <v>33</v>
       </c>
-      <c r="M63">
+      <c r="M63" t="n">
         <v>6</v>
       </c>
-      <c r="N63">
+      <c r="N63" t="n">
         <v>1335</v>
       </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
         <v>43</v>
       </c>
-      <c r="Q63">
+      <c r="Q63" t="n">
         <v>124</v>
       </c>
-      <c r="R63">
+      <c r="R63" t="n">
         <v>29</v>
       </c>
-      <c r="S63">
-        <v>0.20689655172413801</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="S63" t="n">
+        <v>0.206896551724138</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" t="n">
         <v>164</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>21</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>95</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>11</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="n">
         <v>291</v>
       </c>
-      <c r="G64">
+      <c r="G64" t="n">
         <v>15</v>
       </c>
-      <c r="H64">
+      <c r="H64" t="n">
         <v>6</v>
       </c>
-      <c r="I64">
+      <c r="I64" t="n">
         <v>21</v>
       </c>
-      <c r="J64">
+      <c r="J64" t="n">
         <v>1396</v>
       </c>
-      <c r="K64">
+      <c r="K64" t="n">
         <v>1065</v>
       </c>
-      <c r="L64">
+      <c r="L64" t="n">
         <v>40</v>
       </c>
-      <c r="M64">
+      <c r="M64" t="n">
         <v>9</v>
       </c>
-      <c r="N64">
+      <c r="N64" t="n">
         <v>1356</v>
       </c>
-      <c r="O64">
+      <c r="O64" t="n">
         <v>1</v>
       </c>
-      <c r="P64">
+      <c r="P64" t="n">
         <v>16</v>
       </c>
-      <c r="Q64">
+      <c r="Q64" t="n">
         <v>116</v>
       </c>
-      <c r="R64">
+      <c r="R64" t="n">
         <v>21</v>
       </c>
-      <c r="S64">
-        <v>0.42857142857142899</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="S64" t="n">
+        <v>0.428571428571429</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" t="n">
         <v>164</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>21</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>104</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>13</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="n">
         <v>302</v>
       </c>
-      <c r="G65">
+      <c r="G65" t="n">
         <v>14</v>
       </c>
-      <c r="H65">
+      <c r="H65" t="n">
         <v>7</v>
       </c>
-      <c r="I65">
+      <c r="I65" t="n">
         <v>21</v>
       </c>
-      <c r="J65">
+      <c r="J65" t="n">
         <v>1442</v>
       </c>
-      <c r="K65">
+      <c r="K65" t="n">
         <v>1075</v>
       </c>
-      <c r="L65">
+      <c r="L65" t="n">
         <v>65</v>
       </c>
-      <c r="M65">
+      <c r="M65" t="n">
         <v>11</v>
       </c>
-      <c r="N65">
+      <c r="N65" t="n">
         <v>1377</v>
       </c>
-      <c r="O65">
+      <c r="O65" t="n">
         <v>2</v>
       </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
         <v>125</v>
       </c>
-      <c r="R65">
+      <c r="R65" t="n">
         <v>21</v>
       </c>
-      <c r="S65">
-        <v>0.52380952380952395</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="S65" t="n">
+        <v>0.523809523809524</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" t="n">
         <v>164</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>26</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>109</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>13</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="n">
         <v>312</v>
       </c>
-      <c r="G66">
+      <c r="G66" t="n">
         <v>16</v>
       </c>
-      <c r="H66">
+      <c r="H66" t="n">
         <v>10</v>
       </c>
-      <c r="I66">
+      <c r="I66" t="n">
         <v>26</v>
       </c>
-      <c r="J66">
+      <c r="J66" t="n">
         <v>1442</v>
       </c>
-      <c r="K66">
+      <c r="K66" t="n">
         <v>1109</v>
       </c>
-      <c r="L66">
+      <c r="L66" t="n">
         <v>21</v>
       </c>
-      <c r="M66">
+      <c r="M66" t="n">
         <v>10</v>
       </c>
-      <c r="N66">
+      <c r="N66" t="n">
         <v>1421</v>
       </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
         <v>135</v>
       </c>
-      <c r="R66">
+      <c r="R66" t="n">
         <v>44</v>
       </c>
-      <c r="S66">
-        <v>0.22727272727272699</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="S66" t="n">
+        <v>0.227272727272727</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" t="n">
         <v>164</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>24</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>111</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>13</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="n">
         <v>312</v>
       </c>
-      <c r="G67">
+      <c r="G67" t="n">
         <v>14</v>
       </c>
-      <c r="H67">
+      <c r="H67" t="n">
         <v>10</v>
       </c>
-      <c r="I67">
+      <c r="I67" t="n">
         <v>24</v>
       </c>
-      <c r="J67">
+      <c r="J67" t="n">
         <v>1449</v>
       </c>
-      <c r="K67">
+      <c r="K67" t="n">
         <v>1111</v>
       </c>
-      <c r="L67">
+      <c r="L67" t="n">
         <v>26</v>
       </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
         <v>1423</v>
       </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
         <v>135</v>
       </c>
-      <c r="R67">
+      <c r="R67" t="n">
         <v>2</v>
       </c>
-      <c r="S67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" t="n">
         <v>164</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>24</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>116</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>13</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="n">
         <v>317</v>
       </c>
-      <c r="G68">
+      <c r="G68" t="n">
         <v>16</v>
       </c>
-      <c r="H68">
+      <c r="H68" t="n">
         <v>8</v>
       </c>
-      <c r="I68">
+      <c r="I68" t="n">
         <v>24</v>
       </c>
-      <c r="J68">
+      <c r="J68" t="n">
         <v>1473</v>
       </c>
-      <c r="K68">
+      <c r="K68" t="n">
         <v>1135</v>
       </c>
-      <c r="L68">
+      <c r="L68" t="n">
         <v>21</v>
       </c>
-      <c r="M68">
+      <c r="M68" t="n">
         <v>5</v>
       </c>
-      <c r="N68">
+      <c r="N68" t="n">
         <v>1452</v>
       </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
         <v>140</v>
       </c>
-      <c r="R68">
+      <c r="R68" t="n">
         <v>29</v>
       </c>
-      <c r="S68">
-        <v>0.17241379310344801</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="S68" t="n">
+        <v>0.172413793103448</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" t="n">
         <v>164</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>22</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>120</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>13</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="n">
         <v>319</v>
       </c>
-      <c r="G69">
+      <c r="G69" t="n">
         <v>16</v>
       </c>
-      <c r="H69">
+      <c r="H69" t="n">
         <v>6</v>
       </c>
-      <c r="I69">
+      <c r="I69" t="n">
         <v>22</v>
       </c>
-      <c r="J69">
+      <c r="J69" t="n">
         <v>1498</v>
       </c>
-      <c r="K69">
+      <c r="K69" t="n">
         <v>1144</v>
       </c>
-      <c r="L69">
+      <c r="L69" t="n">
         <v>35</v>
       </c>
-      <c r="M69">
+      <c r="M69" t="n">
         <v>2</v>
       </c>
-      <c r="N69">
+      <c r="N69" t="n">
         <v>1463</v>
       </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
         <v>142</v>
       </c>
-      <c r="R69">
+      <c r="R69" t="n">
         <v>11</v>
       </c>
-      <c r="S69">
-        <v>0.18181818181818199</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="S69" t="n">
+        <v>0.181818181818182</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B70" t="n">
         <v>191</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>20</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>98</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>14</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="n">
         <v>323</v>
       </c>
-      <c r="G70">
+      <c r="G70" t="n">
         <v>16</v>
       </c>
-      <c r="H70">
+      <c r="H70" t="n">
         <v>4</v>
       </c>
-      <c r="I70">
+      <c r="I70" t="n">
         <v>20</v>
       </c>
-      <c r="J70">
+      <c r="J70" t="n">
         <v>1517</v>
       </c>
-      <c r="K70">
+      <c r="K70" t="n">
         <v>1144</v>
       </c>
-      <c r="L70">
+      <c r="L70" t="n">
         <v>50</v>
       </c>
-      <c r="M70">
+      <c r="M70" t="n">
         <v>4</v>
       </c>
-      <c r="N70">
+      <c r="N70" t="n">
         <v>1467</v>
       </c>
-      <c r="O70">
+      <c r="O70" t="n">
         <v>1</v>
       </c>
-      <c r="P70">
+      <c r="P70" t="n">
         <v>27</v>
       </c>
-      <c r="Q70">
+      <c r="Q70" t="n">
         <v>118</v>
       </c>
-      <c r="R70">
+      <c r="R70" t="n">
         <v>4</v>
       </c>
-      <c r="S70">
+      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="71">
+      <c r="A71" t="n">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" t="n">
         <v>206</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>19</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>91</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>14</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>330</v>
       </c>
-      <c r="G71">
+      <c r="G71" t="n">
         <v>15</v>
       </c>
-      <c r="H71">
+      <c r="H71" t="n">
         <v>4</v>
       </c>
-      <c r="I71">
+      <c r="I71" t="n">
         <v>19</v>
       </c>
-      <c r="J71">
+      <c r="J71" t="n">
         <v>1540</v>
       </c>
-      <c r="K71">
+      <c r="K71" t="n">
         <v>1172</v>
       </c>
-      <c r="L71">
+      <c r="L71" t="n">
         <v>38</v>
       </c>
-      <c r="M71">
+      <c r="M71" t="n">
         <v>7</v>
       </c>
-      <c r="N71">
+      <c r="N71" t="n">
         <v>1502</v>
       </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
         <v>15</v>
       </c>
-      <c r="Q71">
+      <c r="Q71" t="n">
         <v>110</v>
       </c>
-      <c r="R71">
+      <c r="R71" t="n">
         <v>35</v>
       </c>
-      <c r="S71">
+      <c r="S71" t="n">
         <v>0.2</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="72">
+      <c r="A72" t="n">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" t="n">
         <v>206</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>22</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>92</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>15</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="n">
         <v>335</v>
       </c>
-      <c r="G72">
+      <c r="G72" t="n">
         <v>17</v>
       </c>
-      <c r="H72">
+      <c r="H72" t="n">
         <v>5</v>
       </c>
-      <c r="I72">
+      <c r="I72" t="n">
         <v>22</v>
       </c>
-      <c r="J72">
+      <c r="J72" t="n">
         <v>1555</v>
       </c>
-      <c r="K72">
+      <c r="K72" t="n">
         <v>1195</v>
       </c>
-      <c r="L72">
+      <c r="L72" t="n">
         <v>25</v>
       </c>
-      <c r="M72">
+      <c r="M72" t="n">
         <v>5</v>
       </c>
-      <c r="N72">
+      <c r="N72" t="n">
         <v>1530</v>
       </c>
-      <c r="O72">
+      <c r="O72" t="n">
         <v>1</v>
       </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
         <v>114</v>
       </c>
-      <c r="R72">
+      <c r="R72" t="n">
         <v>28</v>
       </c>
-      <c r="S72">
-        <v>0.17857142857142899</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="S72" t="n">
+        <v>0.178571428571429</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" t="n">
         <v>206</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>22</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>102</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>15</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="n">
         <v>345</v>
       </c>
-      <c r="G73">
+      <c r="G73" t="n">
         <v>17</v>
       </c>
-      <c r="H73">
+      <c r="H73" t="n">
         <v>5</v>
       </c>
-      <c r="I73">
+      <c r="I73" t="n">
         <v>22</v>
       </c>
-      <c r="J73">
+      <c r="J73" t="n">
         <v>1565</v>
       </c>
-      <c r="K73">
+      <c r="K73" t="n">
         <v>1200</v>
       </c>
-      <c r="L73">
+      <c r="L73" t="n">
         <v>20</v>
       </c>
-      <c r="M73">
+      <c r="M73" t="n">
         <v>10</v>
       </c>
-      <c r="N73">
+      <c r="N73" t="n">
         <v>1545</v>
       </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
         <v>124</v>
       </c>
-      <c r="R73">
+      <c r="R73" t="n">
         <v>15</v>
       </c>
-      <c r="S73">
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="S73" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" t="n">
         <v>206</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>23</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>117</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>15</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="n">
         <v>361</v>
       </c>
-      <c r="G74">
+      <c r="G74" t="n">
         <v>18</v>
       </c>
-      <c r="H74">
+      <c r="H74" t="n">
         <v>5</v>
       </c>
-      <c r="I74">
+      <c r="I74" t="n">
         <v>23</v>
       </c>
-      <c r="J74">
+      <c r="J74" t="n">
         <v>1616</v>
       </c>
-      <c r="K74">
+      <c r="K74" t="n">
         <v>1223</v>
       </c>
-      <c r="L74">
+      <c r="L74" t="n">
         <v>32</v>
       </c>
-      <c r="M74">
+      <c r="M74" t="n">
         <v>16</v>
       </c>
-      <c r="N74">
+      <c r="N74" t="n">
         <v>1584</v>
       </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
         <v>140</v>
       </c>
-      <c r="R74">
+      <c r="R74" t="n">
         <v>39</v>
       </c>
-      <c r="S74">
-        <v>0.41025641025641002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="S74" t="n">
+        <v>0.41025641025641</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B75" t="n">
         <v>207</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>28</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>123</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>15</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="n">
         <v>373</v>
       </c>
-      <c r="G75">
+      <c r="G75" t="n">
         <v>20</v>
       </c>
-      <c r="H75">
+      <c r="H75" t="n">
         <v>8</v>
       </c>
-      <c r="I75">
+      <c r="I75" t="n">
         <v>28</v>
       </c>
-      <c r="J75">
+      <c r="J75" t="n">
         <v>1638</v>
       </c>
-      <c r="K75">
+      <c r="K75" t="n">
         <v>1240</v>
       </c>
-      <c r="L75">
+      <c r="L75" t="n">
         <v>25</v>
       </c>
-      <c r="M75">
+      <c r="M75" t="n">
         <v>12</v>
       </c>
-      <c r="N75">
+      <c r="N75" t="n">
         <v>1613</v>
       </c>
-      <c r="O75">
-        <v>0</v>
-      </c>
-      <c r="P75">
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
         <v>1</v>
       </c>
-      <c r="Q75">
+      <c r="Q75" t="n">
         <v>151</v>
       </c>
-      <c r="R75">
+      <c r="R75" t="n">
         <v>29</v>
       </c>
-      <c r="S75">
-        <v>0.41379310344827602</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="S75" t="n">
+        <v>0.413793103448276</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" t="n">
         <v>257</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>22</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>92</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>18</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="n">
         <v>389</v>
       </c>
-      <c r="G76">
+      <c r="G76" t="n">
         <v>19</v>
       </c>
-      <c r="H76">
+      <c r="H76" t="n">
         <v>3</v>
       </c>
-      <c r="I76">
+      <c r="I76" t="n">
         <v>22</v>
       </c>
-      <c r="J76">
+      <c r="J76" t="n">
         <v>1671</v>
       </c>
-      <c r="K76">
+      <c r="K76" t="n">
         <v>1257</v>
       </c>
-      <c r="L76">
+      <c r="L76" t="n">
         <v>25</v>
       </c>
-      <c r="M76">
+      <c r="M76" t="n">
         <v>16</v>
       </c>
-      <c r="N76">
+      <c r="N76" t="n">
         <v>1646</v>
       </c>
-      <c r="O76">
+      <c r="O76" t="n">
         <v>3</v>
       </c>
-      <c r="P76">
+      <c r="P76" t="n">
         <v>50</v>
       </c>
-      <c r="Q76">
+      <c r="Q76" t="n">
         <v>114</v>
       </c>
-      <c r="R76">
+      <c r="R76" t="n">
         <v>33</v>
       </c>
-      <c r="S76">
-        <v>0.48484848484848497</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="S76" t="n">
+        <v>0.484848484848485</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" t="n">
         <v>296</v>
       </c>
-      <c r="C77">
+      <c r="C77" t="n">
         <v>21</v>
       </c>
-      <c r="D77">
+      <c r="D77" t="n">
         <v>55</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>20</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="n">
         <v>392</v>
       </c>
-      <c r="G77">
+      <c r="G77" t="n">
         <v>16</v>
       </c>
-      <c r="H77">
+      <c r="H77" t="n">
         <v>5</v>
       </c>
-      <c r="I77">
+      <c r="I77" t="n">
         <v>21</v>
       </c>
-      <c r="J77">
+      <c r="J77" t="n">
         <v>1690</v>
       </c>
-      <c r="K77">
+      <c r="K77" t="n">
         <v>1264</v>
       </c>
-      <c r="L77">
+      <c r="L77" t="n">
         <v>34</v>
       </c>
-      <c r="M77">
+      <c r="M77" t="n">
         <v>3</v>
       </c>
-      <c r="N77">
+      <c r="N77" t="n">
         <v>1656</v>
       </c>
-      <c r="O77">
+      <c r="O77" t="n">
         <v>2</v>
       </c>
-      <c r="P77">
+      <c r="P77" t="n">
         <v>39</v>
       </c>
-      <c r="Q77">
+      <c r="Q77" t="n">
         <v>76</v>
       </c>
-      <c r="R77">
+      <c r="R77" t="n">
         <v>10</v>
       </c>
-      <c r="S77">
+      <c r="S77" t="n">
         <v>0.3</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="78">
+      <c r="A78" t="n">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" t="n">
         <v>308</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>24</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>56</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>21</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="n">
         <v>409</v>
       </c>
-      <c r="G78">
+      <c r="G78" t="n">
         <v>17</v>
       </c>
-      <c r="H78">
+      <c r="H78" t="n">
         <v>7</v>
       </c>
-      <c r="I78">
+      <c r="I78" t="n">
         <v>24</v>
       </c>
-      <c r="J78">
+      <c r="J78" t="n">
         <v>2109</v>
       </c>
-      <c r="K78">
+      <c r="K78" t="n">
         <v>1286</v>
       </c>
-      <c r="L78">
+      <c r="L78" t="n">
         <v>414</v>
       </c>
-      <c r="M78">
+      <c r="M78" t="n">
         <v>17</v>
       </c>
-      <c r="N78">
+      <c r="N78" t="n">
         <v>1695</v>
       </c>
-      <c r="O78">
+      <c r="O78" t="n">
         <v>1</v>
       </c>
-      <c r="P78">
+      <c r="P78" t="n">
         <v>12</v>
       </c>
-      <c r="Q78">
+      <c r="Q78" t="n">
         <v>80</v>
       </c>
-      <c r="R78">
+      <c r="R78" t="n">
         <v>39</v>
       </c>
-      <c r="S78">
-        <v>0.43589743589743601</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="S78" t="n">
+        <v>0.435897435897436</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" t="n">
         <v>312</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>26</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>64</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>20</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="n">
         <v>422</v>
       </c>
-      <c r="G79">
+      <c r="G79" t="n">
         <v>20</v>
       </c>
-      <c r="H79">
+      <c r="H79" t="n">
         <v>6</v>
       </c>
-      <c r="I79">
+      <c r="I79" t="n">
         <v>26</v>
       </c>
-      <c r="J79">
+      <c r="J79" t="n">
         <v>2405</v>
       </c>
-      <c r="K79">
+      <c r="K79" t="n">
         <v>1309</v>
       </c>
-      <c r="L79">
+      <c r="L79" t="n">
         <v>674</v>
       </c>
-      <c r="M79">
+      <c r="M79" t="n">
         <v>13</v>
       </c>
-      <c r="N79">
+      <c r="N79" t="n">
         <v>1731</v>
       </c>
-      <c r="O79">
+      <c r="O79" t="n">
         <v>-1</v>
       </c>
-      <c r="P79">
+      <c r="P79" t="n">
         <v>4</v>
       </c>
-      <c r="Q79">
+      <c r="Q79" t="n">
         <v>90</v>
       </c>
-      <c r="R79">
+      <c r="R79" t="n">
         <v>36</v>
       </c>
-      <c r="S79">
-        <v>0.36111111111111099</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="S79" t="n">
+        <v>0.361111111111111</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B80" t="n">
         <v>312</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>25</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>65</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>21</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="n">
         <v>423</v>
       </c>
-      <c r="G80">
+      <c r="G80" t="n">
         <v>21</v>
       </c>
-      <c r="H80">
+      <c r="H80" t="n">
         <v>4</v>
       </c>
-      <c r="I80">
+      <c r="I80" t="n">
         <v>25</v>
       </c>
-      <c r="J80">
+      <c r="J80" t="n">
         <v>2406</v>
       </c>
-      <c r="K80">
+      <c r="K80" t="n">
         <v>1310</v>
       </c>
-      <c r="L80">
+      <c r="L80" t="n">
         <v>673</v>
       </c>
-      <c r="M80">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
-      <c r="N80">
+      <c r="N80" t="n">
         <v>1733</v>
       </c>
-      <c r="O80">
+      <c r="O80" t="n">
         <v>1</v>
       </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
         <v>90</v>
       </c>
-      <c r="R80">
+      <c r="R80" t="n">
         <v>2</v>
       </c>
-      <c r="S80">
+      <c r="S80" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row r="81">
+      <c r="A81" t="n">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" t="n">
         <v>312</v>
       </c>
-      <c r="C81">
+      <c r="C81" t="n">
         <v>22</v>
       </c>
-      <c r="D81">
+      <c r="D81" t="n">
         <v>67</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>22</v>
       </c>
-      <c r="F81">
+      <c r="F81" t="n">
         <v>423</v>
       </c>
-      <c r="G81">
+      <c r="G81" t="n">
         <v>19</v>
       </c>
-      <c r="H81">
+      <c r="H81" t="n">
         <v>3</v>
       </c>
-      <c r="I81">
+      <c r="I81" t="n">
         <v>22</v>
       </c>
-      <c r="J81">
+      <c r="J81" t="n">
         <v>2406</v>
       </c>
-      <c r="K81">
+      <c r="K81" t="n">
         <v>1334</v>
       </c>
-      <c r="L81">
+      <c r="L81" t="n">
         <v>649</v>
       </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
         <v>1757</v>
       </c>
-      <c r="O81">
+      <c r="O81" t="n">
         <v>1</v>
       </c>
-      <c r="P81">
-        <v>0</v>
-      </c>
-      <c r="Q81">
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
         <v>89</v>
       </c>
-      <c r="R81">
+      <c r="R81" t="n">
         <v>24</v>
       </c>
-      <c r="S81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B82" t="n">
         <v>321</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>23</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>78</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>22</v>
       </c>
-      <c r="F82">
+      <c r="F82" t="n">
         <v>444</v>
       </c>
-      <c r="G82">
+      <c r="G82" t="n">
         <v>20</v>
       </c>
-      <c r="H82">
+      <c r="H82" t="n">
         <v>3</v>
       </c>
-      <c r="I82">
+      <c r="I82" t="n">
         <v>23</v>
       </c>
-      <c r="J82">
+      <c r="J82" t="n">
         <v>2455</v>
       </c>
-      <c r="K82">
+      <c r="K82" t="n">
         <v>1379</v>
       </c>
-      <c r="L82">
+      <c r="L82" t="n">
         <v>632</v>
       </c>
-      <c r="M82">
+      <c r="M82" t="n">
         <v>21</v>
       </c>
-      <c r="N82">
+      <c r="N82" t="n">
         <v>1823</v>
       </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
         <v>9</v>
       </c>
-      <c r="Q82">
+      <c r="Q82" t="n">
         <v>101</v>
       </c>
-      <c r="R82">
+      <c r="R82" t="n">
         <v>66</v>
       </c>
-      <c r="S82">
-        <v>0.31818181818181801</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="S82" t="n">
+        <v>0.318181818181818</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B83" t="n">
         <v>333</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>23</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>70</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>22</v>
       </c>
-      <c r="F83">
+      <c r="F83" t="n">
         <v>448</v>
       </c>
-      <c r="G83">
+      <c r="G83" t="n">
         <v>20</v>
       </c>
-      <c r="H83">
+      <c r="H83" t="n">
         <v>3</v>
       </c>
-      <c r="I83">
+      <c r="I83" t="n">
         <v>23</v>
       </c>
-      <c r="J83">
+      <c r="J83" t="n">
         <v>2455</v>
       </c>
-      <c r="K83">
+      <c r="K83" t="n">
         <v>1601</v>
       </c>
-      <c r="L83">
+      <c r="L83" t="n">
         <v>406</v>
       </c>
-      <c r="M83">
+      <c r="M83" t="n">
         <v>4</v>
       </c>
-      <c r="N83">
+      <c r="N83" t="n">
         <v>2049</v>
       </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83">
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
         <v>12</v>
       </c>
-      <c r="Q83">
+      <c r="Q83" t="n">
         <v>93</v>
       </c>
-      <c r="R83">
+      <c r="R83" t="n">
         <v>226</v>
       </c>
-      <c r="S83">
-        <v>1.7699115044247801E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="S83" t="n">
+        <v>0.0176991150442478</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" t="n">
         <v>335</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>22</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>73</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>22</v>
       </c>
-      <c r="F84">
+      <c r="F84" t="n">
         <v>452</v>
       </c>
-      <c r="G84">
+      <c r="G84" t="n">
         <v>18</v>
       </c>
-      <c r="H84">
+      <c r="H84" t="n">
         <v>4</v>
       </c>
-      <c r="I84">
+      <c r="I84" t="n">
         <v>22</v>
       </c>
-      <c r="J84">
+      <c r="J84" t="n">
         <v>3017</v>
       </c>
-      <c r="K84">
+      <c r="K84" t="n">
         <v>1941</v>
       </c>
-      <c r="L84">
+      <c r="L84" t="n">
         <v>624</v>
       </c>
-      <c r="M84">
+      <c r="M84" t="n">
         <v>4</v>
       </c>
-      <c r="N84">
+      <c r="N84" t="n">
         <v>2393</v>
       </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84">
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
         <v>2</v>
       </c>
-      <c r="Q84">
+      <c r="Q84" t="n">
         <v>95</v>
       </c>
-      <c r="R84">
+      <c r="R84" t="n">
         <v>344</v>
       </c>
-      <c r="S84">
-        <v>1.16279069767442E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="S84" t="n">
+        <v>0.0116279069767442</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" t="n">
         <v>337</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>22</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>80</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>22</v>
       </c>
-      <c r="F85">
+      <c r="F85" t="n">
         <v>461</v>
       </c>
-      <c r="G85">
+      <c r="G85" t="n">
         <v>18</v>
       </c>
-      <c r="H85">
+      <c r="H85" t="n">
         <v>4</v>
       </c>
-      <c r="I85">
+      <c r="I85" t="n">
         <v>22</v>
       </c>
-      <c r="J85">
+      <c r="J85" t="n">
         <v>3470</v>
       </c>
-      <c r="K85">
+      <c r="K85" t="n">
         <v>1951</v>
       </c>
-      <c r="L85">
+      <c r="L85" t="n">
         <v>1058</v>
       </c>
-      <c r="M85">
+      <c r="M85" t="n">
         <v>9</v>
       </c>
-      <c r="N85">
+      <c r="N85" t="n">
         <v>2412</v>
       </c>
-      <c r="O85">
-        <v>0</v>
-      </c>
-      <c r="P85">
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
         <v>2</v>
       </c>
-      <c r="Q85">
+      <c r="Q85" t="n">
         <v>102</v>
       </c>
-      <c r="R85">
+      <c r="R85" t="n">
         <v>19</v>
       </c>
-      <c r="S85">
-        <v>0.47368421052631599</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="S85" t="n">
+        <v>0.473684210526316</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B86" t="n">
         <v>339</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>25</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>92</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>23</v>
       </c>
-      <c r="F86">
+      <c r="F86" t="n">
         <v>479</v>
       </c>
-      <c r="G86">
+      <c r="G86" t="n">
         <v>17</v>
       </c>
-      <c r="H86">
+      <c r="H86" t="n">
         <v>8</v>
       </c>
-      <c r="I86">
+      <c r="I86" t="n">
         <v>25</v>
       </c>
-      <c r="J86">
+      <c r="J86" t="n">
         <v>3489</v>
       </c>
-      <c r="K86">
+      <c r="K86" t="n">
         <v>2002</v>
       </c>
-      <c r="L86">
+      <c r="L86" t="n">
         <v>1008</v>
       </c>
-      <c r="M86">
+      <c r="M86" t="n">
         <v>18</v>
       </c>
-      <c r="N86">
+      <c r="N86" t="n">
         <v>2481</v>
       </c>
-      <c r="O86">
+      <c r="O86" t="n">
         <v>1</v>
       </c>
-      <c r="P86">
+      <c r="P86" t="n">
         <v>2</v>
       </c>
-      <c r="Q86">
+      <c r="Q86" t="n">
         <v>117</v>
       </c>
-      <c r="R86">
+      <c r="R86" t="n">
         <v>69</v>
       </c>
-      <c r="S86">
-        <v>0.26086956521739102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="S86" t="n">
+        <v>0.260869565217391</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" t="n">
         <v>339</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>25</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>92</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>23</v>
       </c>
-      <c r="F87">
+      <c r="F87" t="n">
         <v>479</v>
       </c>
-      <c r="G87">
+      <c r="G87" t="n">
         <v>17</v>
       </c>
-      <c r="H87">
+      <c r="H87" t="n">
         <v>8</v>
       </c>
-      <c r="I87">
+      <c r="I87" t="n">
         <v>25</v>
       </c>
-      <c r="J87">
+      <c r="J87" t="n">
         <v>3489</v>
       </c>
-      <c r="K87">
+      <c r="K87" t="n">
         <v>2002</v>
       </c>
-      <c r="L87">
+      <c r="L87" t="n">
         <v>1008</v>
       </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87">
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
         <v>2481</v>
       </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
         <v>117</v>
       </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B88" t="n">
         <v>339</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>25</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>92</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>23</v>
       </c>
-      <c r="F88">
+      <c r="F88" t="n">
         <v>479</v>
       </c>
-      <c r="G88">
+      <c r="G88" t="n">
         <v>17</v>
       </c>
-      <c r="H88">
+      <c r="H88" t="n">
         <v>8</v>
       </c>
-      <c r="I88">
+      <c r="I88" t="n">
         <v>25</v>
       </c>
-      <c r="J88">
+      <c r="J88" t="n">
         <v>3489</v>
       </c>
-      <c r="K88">
+      <c r="K88" t="n">
         <v>2002</v>
       </c>
-      <c r="L88">
+      <c r="L88" t="n">
         <v>1008</v>
       </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="N88">
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
         <v>2481</v>
       </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-      <c r="Q88">
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
         <v>117</v>
       </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" t="n">
         <v>339</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>27</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>119</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>23</v>
       </c>
-      <c r="F89">
+      <c r="F89" t="n">
         <v>508</v>
       </c>
-      <c r="G89">
+      <c r="G89" t="n">
         <v>18</v>
       </c>
-      <c r="H89">
+      <c r="H89" t="n">
         <v>9</v>
       </c>
-      <c r="I89">
+      <c r="I89" t="n">
         <v>27</v>
       </c>
-      <c r="J89">
+      <c r="J89" t="n">
         <v>3515</v>
       </c>
-      <c r="K89">
+      <c r="K89" t="n">
         <v>2125</v>
       </c>
-      <c r="L89">
+      <c r="L89" t="n">
         <v>882</v>
       </c>
-      <c r="M89">
+      <c r="M89" t="n">
         <v>29</v>
       </c>
-      <c r="N89">
+      <c r="N89" t="n">
         <v>2633</v>
       </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-      <c r="Q89">
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
         <v>146</v>
       </c>
-      <c r="R89">
+      <c r="R89" t="n">
         <v>152</v>
       </c>
-      <c r="S89">
-        <v>0.19078947368421101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="S89" t="n">
+        <v>0.190789473684211</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" t="n">
         <v>340</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>26</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>167</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>23</v>
       </c>
-      <c r="F90">
+      <c r="F90" t="n">
         <v>556</v>
       </c>
-      <c r="G90">
+      <c r="G90" t="n">
         <v>19</v>
       </c>
-      <c r="H90">
+      <c r="H90" t="n">
         <v>7</v>
       </c>
-      <c r="I90">
+      <c r="I90" t="n">
         <v>26</v>
       </c>
-      <c r="J90">
+      <c r="J90" t="n">
         <v>3629</v>
       </c>
-      <c r="K90">
+      <c r="K90" t="n">
         <v>2168</v>
       </c>
-      <c r="L90">
+      <c r="L90" t="n">
         <v>905</v>
       </c>
-      <c r="M90">
+      <c r="M90" t="n">
         <v>48</v>
       </c>
-      <c r="N90">
+      <c r="N90" t="n">
         <v>2724</v>
       </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-      <c r="P90">
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
         <v>1</v>
       </c>
-      <c r="Q90">
+      <c r="Q90" t="n">
         <v>193</v>
       </c>
-      <c r="R90">
+      <c r="R90" t="n">
         <v>91</v>
       </c>
-      <c r="S90">
-        <v>0.52747252747252704</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="S90" t="n">
+        <v>0.527472527472527</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" t="n">
         <v>340</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>27</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>231</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>23</v>
       </c>
-      <c r="F91">
+      <c r="F91" t="n">
         <v>621</v>
       </c>
-      <c r="G91">
+      <c r="G91" t="n">
         <v>21</v>
       </c>
-      <c r="H91">
+      <c r="H91" t="n">
         <v>6</v>
       </c>
-      <c r="I91">
+      <c r="I91" t="n">
         <v>27</v>
       </c>
-      <c r="J91">
+      <c r="J91" t="n">
         <v>4005</v>
       </c>
-      <c r="K91">
+      <c r="K91" t="n">
         <v>2187</v>
       </c>
-      <c r="L91">
+      <c r="L91" t="n">
         <v>1197</v>
       </c>
-      <c r="M91">
+      <c r="M91" t="n">
         <v>65</v>
       </c>
-      <c r="N91">
+      <c r="N91" t="n">
         <v>2808</v>
       </c>
-      <c r="O91">
-        <v>0</v>
-      </c>
-      <c r="P91">
-        <v>0</v>
-      </c>
-      <c r="Q91">
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
         <v>258</v>
       </c>
-      <c r="R91">
+      <c r="R91" t="n">
         <v>84</v>
       </c>
-      <c r="S91">
-        <v>0.77380952380952395</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="S91" t="n">
+        <v>0.773809523809524</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" t="n">
         <v>345</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>24</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>253</v>
       </c>
-      <c r="E92">
+      <c r="E92" t="n">
         <v>23</v>
       </c>
-      <c r="F92">
+      <c r="F92" t="n">
         <v>645</v>
       </c>
-      <c r="G92">
+      <c r="G92" t="n">
         <v>17</v>
       </c>
-      <c r="H92">
+      <c r="H92" t="n">
         <v>7</v>
       </c>
-      <c r="I92">
+      <c r="I92" t="n">
         <v>24</v>
       </c>
-      <c r="J92">
+      <c r="J92" t="n">
         <v>4063</v>
       </c>
-      <c r="K92">
+      <c r="K92" t="n">
         <v>2210</v>
       </c>
-      <c r="L92">
+      <c r="L92" t="n">
         <v>1208</v>
       </c>
-      <c r="M92">
+      <c r="M92" t="n">
         <v>24</v>
       </c>
-      <c r="N92">
+      <c r="N92" t="n">
         <v>2855</v>
       </c>
-      <c r="O92">
-        <v>0</v>
-      </c>
-      <c r="P92">
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
         <v>5</v>
       </c>
-      <c r="Q92">
+      <c r="Q92" t="n">
         <v>277</v>
       </c>
-      <c r="R92">
+      <c r="R92" t="n">
         <v>47</v>
       </c>
-      <c r="S92">
-        <v>0.51063829787234005</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A93">
+      <c r="S92" t="n">
+        <v>0.51063829787234</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B93" t="n">
         <v>411</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>23</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>197</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>23</v>
       </c>
-      <c r="F93">
+      <c r="F93" t="n">
         <v>654</v>
       </c>
-      <c r="G93">
+      <c r="G93" t="n">
         <v>17</v>
       </c>
-      <c r="H93">
+      <c r="H93" t="n">
         <v>6</v>
       </c>
-      <c r="I93">
+      <c r="I93" t="n">
         <v>23</v>
       </c>
-      <c r="J93">
+      <c r="J93" t="n">
         <v>4063</v>
       </c>
-      <c r="K93">
+      <c r="K93" t="n">
         <v>2469</v>
       </c>
-      <c r="L93">
+      <c r="L93" t="n">
         <v>940</v>
       </c>
-      <c r="M93">
+      <c r="M93" t="n">
         <v>9</v>
       </c>
-      <c r="N93">
+      <c r="N93" t="n">
         <v>3123</v>
       </c>
-      <c r="O93">
-        <v>0</v>
-      </c>
-      <c r="P93">
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
         <v>66</v>
       </c>
-      <c r="Q93">
+      <c r="Q93" t="n">
         <v>220</v>
       </c>
-      <c r="R93">
+      <c r="R93" t="n">
         <v>268</v>
       </c>
-      <c r="S93">
-        <v>3.3582089552238799E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="S93" t="n">
+        <v>0.0335820895522388</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
         <v>93</v>
       </c>
-      <c r="B94">
+      <c r="B94" t="n">
         <v>411</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>23</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>197</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>23</v>
       </c>
-      <c r="F94">
+      <c r="F94" t="n">
         <v>654</v>
       </c>
-      <c r="G94">
+      <c r="G94" t="n">
         <v>17</v>
       </c>
-      <c r="H94">
+      <c r="H94" t="n">
         <v>6</v>
       </c>
-      <c r="I94">
+      <c r="I94" t="n">
         <v>23</v>
       </c>
-      <c r="J94">
+      <c r="J94" t="n">
         <v>4063</v>
       </c>
-      <c r="K94">
+      <c r="K94" t="n">
         <v>2469</v>
       </c>
-      <c r="L94">
+      <c r="L94" t="n">
         <v>940</v>
       </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="N94">
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
         <v>3123</v>
       </c>
-      <c r="O94">
-        <v>0</v>
-      </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
-      <c r="Q94">
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
         <v>220</v>
       </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A95">
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
         <v>94</v>
       </c>
-      <c r="B95">
+      <c r="B95" t="n">
         <v>411</v>
       </c>
-      <c r="C95">
+      <c r="C95" t="n">
         <v>23</v>
       </c>
-      <c r="D95">
+      <c r="D95" t="n">
         <v>197</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>23</v>
       </c>
-      <c r="F95">
+      <c r="F95" t="n">
         <v>654</v>
       </c>
-      <c r="G95">
+      <c r="G95" t="n">
         <v>17</v>
       </c>
-      <c r="H95">
+      <c r="H95" t="n">
         <v>6</v>
       </c>
-      <c r="I95">
+      <c r="I95" t="n">
         <v>23</v>
       </c>
-      <c r="J95">
+      <c r="J95" t="n">
         <v>4063</v>
       </c>
-      <c r="K95">
+      <c r="K95" t="n">
         <v>2469</v>
       </c>
-      <c r="L95">
+      <c r="L95" t="n">
         <v>940</v>
       </c>
-      <c r="M95">
-        <v>0</v>
-      </c>
-      <c r="N95">
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
         <v>3123</v>
       </c>
-      <c r="O95">
-        <v>0</v>
-      </c>
-      <c r="P95">
-        <v>0</v>
-      </c>
-      <c r="Q95">
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
         <v>220</v>
       </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A96">
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="B96" t="n">
         <v>411</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>34</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>239</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>24</v>
       </c>
-      <c r="F96">
+      <c r="F96" t="n">
         <v>708</v>
       </c>
-      <c r="G96">
+      <c r="G96" t="n">
         <v>24</v>
       </c>
-      <c r="H96">
+      <c r="H96" t="n">
         <v>10</v>
       </c>
-      <c r="I96">
+      <c r="I96" t="n">
         <v>34</v>
       </c>
-      <c r="J96">
+      <c r="J96" t="n">
         <v>4247</v>
       </c>
-      <c r="K96">
+      <c r="K96" t="n">
         <v>2710</v>
       </c>
-      <c r="L96">
+      <c r="L96" t="n">
         <v>829</v>
       </c>
-      <c r="M96">
+      <c r="M96" t="n">
         <v>54</v>
       </c>
-      <c r="N96">
+      <c r="N96" t="n">
         <v>3418</v>
       </c>
-      <c r="O96">
+      <c r="O96" t="n">
         <v>1</v>
       </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-      <c r="Q96">
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
         <v>273</v>
       </c>
-      <c r="R96">
+      <c r="R96" t="n">
         <v>295</v>
       </c>
-      <c r="S96">
-        <v>0.18305084745762701</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A97">
+      <c r="S96" t="n">
+        <v>0.183050847457627</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
         <v>96</v>
       </c>
-      <c r="B97">
+      <c r="B97" t="n">
         <v>420</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>32</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>271</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>24</v>
       </c>
-      <c r="F97">
+      <c r="F97" t="n">
         <v>747</v>
       </c>
-      <c r="G97">
+      <c r="G97" t="n">
         <v>20</v>
       </c>
-      <c r="H97">
+      <c r="H97" t="n">
         <v>12</v>
       </c>
-      <c r="I97">
+      <c r="I97" t="n">
         <v>32</v>
       </c>
-      <c r="J97">
+      <c r="J97" t="n">
         <v>4335</v>
       </c>
-      <c r="K97">
+      <c r="K97" t="n">
         <v>2723</v>
       </c>
-      <c r="L97">
+      <c r="L97" t="n">
         <v>865</v>
       </c>
-      <c r="M97">
+      <c r="M97" t="n">
         <v>39</v>
       </c>
-      <c r="N97">
+      <c r="N97" t="n">
         <v>3470</v>
       </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97">
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
         <v>9</v>
       </c>
-      <c r="Q97">
+      <c r="Q97" t="n">
         <v>303</v>
       </c>
-      <c r="R97">
+      <c r="R97" t="n">
         <v>52</v>
       </c>
-      <c r="S97">
+      <c r="S97" t="n">
         <v>0.75</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A98">
+    <row r="98">
+      <c r="A98" t="n">
         <v>97</v>
       </c>
-      <c r="B98">
+      <c r="B98" t="n">
         <v>422</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>35</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>301</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>24</v>
       </c>
-      <c r="F98">
+      <c r="F98" t="n">
         <v>782</v>
       </c>
-      <c r="G98">
+      <c r="G98" t="n">
         <v>23</v>
       </c>
-      <c r="H98">
+      <c r="H98" t="n">
         <v>12</v>
       </c>
-      <c r="I98">
+      <c r="I98" t="n">
         <v>35</v>
       </c>
-      <c r="J98">
+      <c r="J98" t="n">
         <v>4424</v>
       </c>
-      <c r="K98">
+      <c r="K98" t="n">
         <v>2725</v>
       </c>
-      <c r="L98">
+      <c r="L98" t="n">
         <v>917</v>
       </c>
-      <c r="M98">
+      <c r="M98" t="n">
         <v>35</v>
       </c>
-      <c r="N98">
+      <c r="N98" t="n">
         <v>3507</v>
       </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
-      <c r="P98">
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
         <v>2</v>
       </c>
-      <c r="Q98">
+      <c r="Q98" t="n">
         <v>336</v>
       </c>
-      <c r="R98">
+      <c r="R98" t="n">
         <v>37</v>
       </c>
-      <c r="S98">
-        <v>0.94594594594594605</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A99">
+      <c r="S98" t="n">
+        <v>0.945945945945946</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="B99" t="n">
         <v>460</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>32</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>304</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>26</v>
       </c>
-      <c r="F99">
+      <c r="F99" t="n">
         <v>822</v>
       </c>
-      <c r="G99">
+      <c r="G99" t="n">
         <v>23</v>
       </c>
-      <c r="H99">
+      <c r="H99" t="n">
         <v>9</v>
       </c>
-      <c r="I99">
+      <c r="I99" t="n">
         <v>32</v>
       </c>
-      <c r="J99">
+      <c r="J99" t="n">
         <v>5203</v>
       </c>
-      <c r="K99">
+      <c r="K99" t="n">
         <v>3421</v>
       </c>
-      <c r="L99">
+      <c r="L99" t="n">
         <v>960</v>
       </c>
-      <c r="M99">
+      <c r="M99" t="n">
         <v>40</v>
       </c>
-      <c r="N99">
+      <c r="N99" t="n">
         <v>4243</v>
       </c>
-      <c r="O99">
+      <c r="O99" t="n">
         <v>2</v>
       </c>
-      <c r="P99">
+      <c r="P99" t="n">
         <v>38</v>
       </c>
-      <c r="Q99">
+      <c r="Q99" t="n">
         <v>336</v>
       </c>
-      <c r="R99">
+      <c r="R99" t="n">
         <v>736</v>
       </c>
-      <c r="S99">
-        <v>5.4347826086956499E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A100">
+      <c r="S99" t="n">
+        <v>0.0543478260869565</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
         <v>99</v>
       </c>
-      <c r="B100">
+      <c r="B100" t="n">
         <v>496</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>34</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>392</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>26</v>
       </c>
-      <c r="F100">
+      <c r="F100" t="n">
         <v>948</v>
       </c>
-      <c r="G100">
+      <c r="G100" t="n">
         <v>25</v>
       </c>
-      <c r="H100">
+      <c r="H100" t="n">
         <v>9</v>
       </c>
-      <c r="I100">
+      <c r="I100" t="n">
         <v>34</v>
       </c>
-      <c r="J100">
+      <c r="J100" t="n">
         <v>5704</v>
       </c>
-      <c r="K100">
+      <c r="K100" t="n">
         <v>3838</v>
       </c>
-      <c r="L100">
+      <c r="L100" t="n">
         <v>918</v>
       </c>
-      <c r="M100">
-        <f>F100-F99</f>
+      <c r="M100" t="n">
         <v>126</v>
       </c>
-      <c r="N100">
-        <f>J100-L100</f>
+      <c r="N100" t="n">
         <v>4786</v>
       </c>
-      <c r="O100">
-        <f>E100-E99</f>
-        <v>0</v>
-      </c>
-      <c r="P100">
-        <f>B100-B99</f>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
         <v>36</v>
       </c>
-      <c r="Q100">
-        <f>F100-E100-B100</f>
+      <c r="Q100" t="n">
         <v>426</v>
       </c>
-      <c r="R100">
-        <f>N100-N99</f>
+      <c r="R100" t="n">
         <v>543</v>
       </c>
-      <c r="S100">
+      <c r="S100" t="n">
         <v>0.232044198895028</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A101">
+    <row r="101">
+      <c r="A101" t="n">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B101" t="n">
         <v>496</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>34</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>392</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>26</v>
       </c>
-      <c r="F101">
+      <c r="F101" t="n">
         <v>948</v>
       </c>
-      <c r="G101">
+      <c r="G101" t="n">
         <v>25</v>
       </c>
-      <c r="H101">
+      <c r="H101" t="n">
         <v>9</v>
       </c>
-      <c r="I101">
+      <c r="I101" t="n">
         <v>34</v>
       </c>
-      <c r="J101">
+      <c r="J101" t="n">
         <v>5704</v>
       </c>
-      <c r="K101">
+      <c r="K101" t="n">
         <v>3838</v>
       </c>
-      <c r="L101">
+      <c r="L101" t="n">
         <v>918</v>
       </c>
-      <c r="M101">
-        <v>0</v>
-      </c>
-      <c r="N101">
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
         <v>4786</v>
       </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-      <c r="P101">
-        <v>0</v>
-      </c>
-      <c r="Q101">
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
         <v>426</v>
       </c>
-      <c r="R101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A102">
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
+      <c r="S101"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
         <v>101</v>
       </c>
-      <c r="B102">
+      <c r="B102" t="n">
         <v>496</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>34</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>392</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>26</v>
       </c>
-      <c r="F102">
+      <c r="F102" t="n">
         <v>948</v>
       </c>
-      <c r="G102">
+      <c r="G102" t="n">
         <v>25</v>
       </c>
-      <c r="H102">
+      <c r="H102" t="n">
         <v>9</v>
       </c>
-      <c r="I102">
+      <c r="I102" t="n">
         <v>34</v>
       </c>
-      <c r="J102">
+      <c r="J102" t="n">
         <v>5704</v>
       </c>
-      <c r="K102">
+      <c r="K102" t="n">
         <v>3838</v>
       </c>
-      <c r="L102">
+      <c r="L102" t="n">
         <v>918</v>
       </c>
-      <c r="M102">
-        <v>0</v>
-      </c>
-      <c r="N102">
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
         <v>4786</v>
       </c>
-      <c r="O102">
-        <v>0</v>
-      </c>
-      <c r="P102">
-        <v>0</v>
-      </c>
-      <c r="Q102">
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
         <v>426</v>
       </c>
-      <c r="R102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A103">
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
+      <c r="S102"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
         <v>102</v>
       </c>
-      <c r="B103">
+      <c r="B103" t="n">
         <v>500</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>35</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>452</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>29</v>
       </c>
-      <c r="F103">
+      <c r="F103" t="n">
         <v>1016</v>
       </c>
-      <c r="G103">
+      <c r="G103" t="n">
         <v>30</v>
       </c>
-      <c r="H103">
+      <c r="H103" t="n">
         <v>5</v>
       </c>
-      <c r="I103">
+      <c r="I103" t="n">
         <v>35</v>
       </c>
-      <c r="J103">
+      <c r="J103" t="n">
         <v>9964</v>
       </c>
-      <c r="K103">
+      <c r="K103" t="n">
         <v>5631</v>
       </c>
-      <c r="L103">
+      <c r="L103" t="n">
         <v>3317</v>
       </c>
-      <c r="M103">
+      <c r="M103" t="n">
         <v>68</v>
       </c>
-      <c r="N103">
+      <c r="N103" t="n">
         <v>6647</v>
       </c>
-      <c r="O103">
+      <c r="O103" t="n">
         <v>3</v>
       </c>
-      <c r="P103">
+      <c r="P103" t="n">
         <v>4</v>
       </c>
-      <c r="Q103">
+      <c r="Q103" t="n">
         <v>487</v>
       </c>
-      <c r="R103">
+      <c r="R103" t="n">
         <v>1861</v>
       </c>
-      <c r="S103">
-        <v>3.65394948952176E-2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A104">
+      <c r="S103" t="n">
+        <v>0.0365394948952176</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
         <v>103</v>
       </c>
-      <c r="B104">
+      <c r="B104" t="n">
         <v>500</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>35</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>497</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>29</v>
       </c>
-      <c r="F104">
+      <c r="F104" t="n">
         <v>1061</v>
       </c>
-      <c r="G104">
+      <c r="G104" t="n">
         <v>28</v>
       </c>
-      <c r="H104">
+      <c r="H104" t="n">
         <v>7</v>
       </c>
-      <c r="I104">
+      <c r="I104" t="n">
         <v>35</v>
       </c>
-      <c r="J104">
+      <c r="J104" t="n">
         <v>10694</v>
       </c>
-      <c r="K104">
+      <c r="K104" t="n">
         <v>6388</v>
       </c>
-      <c r="L104">
+      <c r="L104" t="n">
         <v>3345</v>
       </c>
-      <c r="M104">
+      <c r="M104" t="n">
         <v>45</v>
       </c>
-      <c r="N104">
+      <c r="N104" t="n">
         <v>7349</v>
       </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-      <c r="P104">
-        <v>0</v>
-      </c>
-      <c r="Q104">
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
         <v>532</v>
       </c>
-      <c r="R104">
+      <c r="R104" t="n">
         <v>702</v>
       </c>
-      <c r="S104">
-        <v>6.4102564102564097E-2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A105">
+      <c r="S104" t="n">
+        <v>0.0641025641025641</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
         <v>104</v>
       </c>
-      <c r="B105">
+      <c r="B105" t="n">
         <v>500</v>
       </c>
-      <c r="C105">
+      <c r="C105" t="n">
         <v>41</v>
       </c>
-      <c r="D105">
+      <c r="D105" t="n">
         <v>606</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>32</v>
       </c>
-      <c r="F105">
+      <c r="F105" t="n">
         <v>1179</v>
       </c>
-      <c r="G105">
+      <c r="G105" t="n">
         <v>27</v>
       </c>
-      <c r="H105">
+      <c r="H105" t="n">
         <v>14</v>
       </c>
-      <c r="I105">
+      <c r="I105" t="n">
         <v>41</v>
       </c>
-      <c r="J105">
+      <c r="J105" t="n">
         <v>11798</v>
       </c>
-      <c r="K105">
+      <c r="K105" t="n">
         <v>7250</v>
       </c>
-      <c r="L105">
+      <c r="L105" t="n">
         <v>3369</v>
       </c>
-      <c r="M105">
+      <c r="M105" t="n">
         <v>118</v>
       </c>
-      <c r="N105">
+      <c r="N105" t="n">
         <v>8429</v>
       </c>
-      <c r="O105">
+      <c r="O105" t="n">
         <v>3</v>
       </c>
-      <c r="P105">
-        <v>0</v>
-      </c>
-      <c r="Q105">
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
         <v>647</v>
       </c>
-      <c r="R105">
+      <c r="R105" t="n">
         <v>1080</v>
       </c>
-      <c r="S105">
+      <c r="S105" t="n">
         <v>0.109259259259259</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A106">
+    <row r="106">
+      <c r="A106" t="n">
         <v>105</v>
       </c>
-      <c r="B106">
+      <c r="B106" t="n">
         <v>630</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>39</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>800</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>33</v>
       </c>
-      <c r="F106">
+      <c r="F106" t="n">
         <v>1502</v>
       </c>
-      <c r="G106">
+      <c r="G106" t="n">
         <v>26</v>
       </c>
-      <c r="H106">
+      <c r="H106" t="n">
         <v>13</v>
       </c>
-      <c r="I106">
+      <c r="I106" t="n">
         <v>39</v>
       </c>
-      <c r="J106">
+      <c r="J106" t="n">
         <v>13283</v>
       </c>
-      <c r="K106">
+      <c r="K106" t="n">
         <v>8315</v>
       </c>
-      <c r="L106">
+      <c r="L106" t="n">
         <v>3466</v>
       </c>
-      <c r="M106">
+      <c r="M106" t="n">
         <v>323</v>
       </c>
-      <c r="N106">
+      <c r="N106" t="n">
         <v>9817</v>
       </c>
-      <c r="O106">
+      <c r="O106" t="n">
         <v>1</v>
       </c>
-      <c r="P106">
+      <c r="P106" t="n">
         <v>130</v>
       </c>
-      <c r="Q106">
+      <c r="Q106" t="n">
         <v>839</v>
       </c>
-      <c r="R106">
+      <c r="R106" t="n">
         <v>1388</v>
       </c>
-      <c r="S106">
+      <c r="S106" t="n">
         <v>0.232708933717579</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107">
+    <row r="107">
+      <c r="A107" t="n">
         <v>106</v>
       </c>
-      <c r="B107">
+      <c r="B107" t="n">
         <v>726</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>40</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>899</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>34</v>
       </c>
-      <c r="F107">
+      <c r="F107" t="n">
         <v>1699</v>
       </c>
-      <c r="G107">
+      <c r="G107" t="n">
         <v>26</v>
       </c>
-      <c r="H107">
+      <c r="H107" t="n">
         <v>14</v>
       </c>
-      <c r="I107">
+      <c r="I107" t="n">
         <v>40</v>
       </c>
-      <c r="J107">
+      <c r="J107" t="n">
         <v>14145</v>
       </c>
-      <c r="K107">
+      <c r="K107" t="n">
         <v>8879</v>
       </c>
-      <c r="L107">
+      <c r="L107" t="n">
         <v>3567</v>
       </c>
-      <c r="M107">
+      <c r="M107" t="n">
         <v>197</v>
       </c>
-      <c r="N107">
+      <c r="N107" t="n">
         <v>10578</v>
       </c>
-      <c r="O107">
+      <c r="O107" t="n">
         <v>1</v>
       </c>
-      <c r="P107">
+      <c r="P107" t="n">
         <v>96</v>
       </c>
-      <c r="Q107">
+      <c r="Q107" t="n">
         <v>939</v>
       </c>
-      <c r="R107">
+      <c r="R107" t="n">
         <v>761</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A108">
+      <c r="S107"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
         <v>107</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="n">
         <v>726</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>40</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>899</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>34</v>
       </c>
-      <c r="F108">
+      <c r="F108" t="n">
         <v>1699</v>
       </c>
-      <c r="G108">
+      <c r="G108" t="n">
         <v>26</v>
       </c>
-      <c r="H108">
+      <c r="H108" t="n">
         <v>14</v>
       </c>
-      <c r="I108">
+      <c r="I108" t="n">
         <v>40</v>
       </c>
-      <c r="J108">
+      <c r="J108" t="n">
         <v>14145</v>
       </c>
-      <c r="K108">
+      <c r="K108" t="n">
         <v>8879</v>
       </c>
-      <c r="L108">
+      <c r="L108" t="n">
         <v>3567</v>
       </c>
-      <c r="M108">
-        <v>0</v>
-      </c>
-      <c r="N108">
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
         <v>10578</v>
       </c>
-      <c r="O108">
-        <v>0</v>
-      </c>
-      <c r="P108">
-        <v>0</v>
-      </c>
-      <c r="Q108">
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
         <v>939</v>
       </c>
-      <c r="R108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109">
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
         <v>108</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="n">
         <v>726</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>40</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>899</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>34</v>
       </c>
-      <c r="F109">
+      <c r="F109" t="n">
         <v>1699</v>
       </c>
-      <c r="G109">
+      <c r="G109" t="n">
         <v>26</v>
       </c>
-      <c r="H109">
+      <c r="H109" t="n">
         <v>14</v>
       </c>
-      <c r="I109">
+      <c r="I109" t="n">
         <v>40</v>
       </c>
-      <c r="J109">
+      <c r="J109" t="n">
         <v>14145</v>
       </c>
-      <c r="K109">
+      <c r="K109" t="n">
         <v>8879</v>
       </c>
-      <c r="L109">
+      <c r="L109" t="n">
         <v>3567</v>
       </c>
-      <c r="M109">
-        <v>0</v>
-      </c>
-      <c r="N109">
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
         <v>10578</v>
       </c>
-      <c r="O109">
-        <v>0</v>
-      </c>
-      <c r="P109">
-        <v>0</v>
-      </c>
-      <c r="Q109">
+      <c r="O109" t="n">
+        <v>0</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="n">
         <v>939</v>
       </c>
-      <c r="R109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A110">
+      <c r="R109" t="n">
+        <v>0</v>
+      </c>
+      <c r="S109"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
         <v>109</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="n">
         <v>790</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>47</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>1089</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>39</v>
       </c>
-      <c r="F110">
+      <c r="F110" t="n">
         <v>1965</v>
       </c>
-      <c r="G110">
+      <c r="G110" t="n">
         <v>28</v>
       </c>
-      <c r="H110">
+      <c r="H110" t="n">
         <v>19</v>
       </c>
-      <c r="I110">
+      <c r="I110" t="n">
         <v>47</v>
       </c>
-      <c r="J110">
+      <c r="J110" t="n">
         <v>15568</v>
       </c>
-      <c r="K110">
+      <c r="K110" t="n">
         <v>9931</v>
       </c>
-      <c r="L110">
+      <c r="L110" t="n">
         <v>3672</v>
       </c>
-      <c r="M110">
+      <c r="M110" t="n">
         <v>266</v>
       </c>
-      <c r="N110">
+      <c r="N110" t="n">
         <v>11896</v>
       </c>
-      <c r="O110">
+      <c r="O110" t="n">
         <v>5</v>
       </c>
-      <c r="P110">
+      <c r="P110" t="n">
         <v>64</v>
       </c>
-      <c r="Q110">
+      <c r="Q110" t="n">
         <v>1136</v>
       </c>
-      <c r="R110">
+      <c r="R110" t="n">
         <v>1318</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A111">
+      <c r="S110"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
         <v>110</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="n">
         <v>809</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>53</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>1212</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>39</v>
       </c>
-      <c r="F111">
+      <c r="F111" t="n">
         <v>2113</v>
       </c>
-      <c r="G111">
+      <c r="G111" t="n">
         <v>27</v>
       </c>
-      <c r="H111">
+      <c r="H111" t="n">
         <v>26</v>
       </c>
-      <c r="I111">
+      <c r="I111" t="n">
         <v>53</v>
       </c>
-      <c r="J111">
+      <c r="J111" t="n">
         <v>16521</v>
       </c>
-      <c r="K111">
+      <c r="K111" t="n">
         <v>10626</v>
       </c>
-      <c r="L111">
+      <c r="L111" t="n">
         <v>3782</v>
       </c>
-      <c r="M111">
+      <c r="M111" t="n">
         <v>148</v>
       </c>
-      <c r="N111">
+      <c r="N111" t="n">
         <v>12739</v>
       </c>
-      <c r="O111">
-        <v>0</v>
-      </c>
-      <c r="P111">
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
         <v>19</v>
       </c>
-      <c r="Q111">
+      <c r="Q111" t="n">
         <v>1265</v>
       </c>
-      <c r="R111">
+      <c r="R111" t="n">
         <v>843</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A112">
+      <c r="S111"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
         <v>111</v>
       </c>
-      <c r="B112">
+      <c r="B112" t="n">
         <v>1002</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="n">
         <v>54</v>
       </c>
-      <c r="D112">
+      <c r="D112" t="n">
         <v>1137</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>39</v>
       </c>
-      <c r="F112">
+      <c r="F112" t="n">
         <v>2232</v>
       </c>
-      <c r="G112">
+      <c r="G112" t="n">
         <v>29</v>
       </c>
-      <c r="H112">
+      <c r="H112" t="n">
         <v>25</v>
       </c>
-      <c r="I112">
+      <c r="I112" t="n">
         <v>54</v>
       </c>
-      <c r="J112">
+      <c r="J112" t="n">
         <v>17200</v>
       </c>
-      <c r="K112">
+      <c r="K112" t="n">
         <v>11182</v>
       </c>
-      <c r="L112">
+      <c r="L112" t="n">
         <v>3786</v>
       </c>
-      <c r="M112">
+      <c r="M112" t="n">
         <v>119</v>
       </c>
-      <c r="N112">
+      <c r="N112" t="n">
         <v>13414</v>
       </c>
-      <c r="O112">
-        <v>0</v>
-      </c>
-      <c r="P112">
+      <c r="O112" t="n">
+        <v>0</v>
+      </c>
+      <c r="P112" t="n">
         <v>193</v>
       </c>
-      <c r="Q112">
+      <c r="Q112" t="n">
         <v>1191</v>
       </c>
-      <c r="R112">
+      <c r="R112" t="n">
         <v>675</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A113">
+      <c r="S112"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
         <v>112</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="n">
         <v>1291</v>
       </c>
-      <c r="C113">
+      <c r="C113" t="n">
         <v>62</v>
       </c>
-      <c r="D113">
+      <c r="D113" t="n">
         <v>1108</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>44</v>
       </c>
-      <c r="F113">
+      <c r="F113" t="n">
         <v>2505</v>
       </c>
-      <c r="G113">
+      <c r="G113" t="n">
         <v>33</v>
       </c>
-      <c r="H113">
+      <c r="H113" t="n">
         <v>29</v>
       </c>
-      <c r="I113">
+      <c r="I113" t="n">
         <v>62</v>
       </c>
-      <c r="J113">
+      <c r="J113" t="n">
         <v>18562</v>
       </c>
-      <c r="K113">
+      <c r="K113" t="n">
         <v>12195</v>
       </c>
-      <c r="L113">
+      <c r="L113" t="n">
         <v>3862</v>
       </c>
-      <c r="M113">
+      <c r="M113" t="n">
         <v>273</v>
       </c>
-      <c r="N113">
+      <c r="N113" t="n">
         <v>14700</v>
       </c>
-      <c r="O113">
+      <c r="O113" t="n">
         <v>5</v>
       </c>
-      <c r="P113">
+      <c r="P113" t="n">
         <v>289</v>
       </c>
-      <c r="Q113">
+      <c r="Q113" t="n">
         <v>1170</v>
       </c>
-      <c r="R113">
+      <c r="R113" t="n">
         <v>1286</v>
       </c>
+      <c r="S113"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1424</v>
+      </c>
+      <c r="C114" t="n">
+        <v>63</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1153</v>
+      </c>
+      <c r="E114" t="n">
+        <v>45</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2685</v>
+      </c>
+      <c r="G114" t="n">
+        <v>33</v>
+      </c>
+      <c r="H114" t="n">
+        <v>30</v>
+      </c>
+      <c r="I114" t="n">
+        <v>63</v>
+      </c>
+      <c r="J114" t="n">
+        <v>19727</v>
+      </c>
+      <c r="K114" t="n">
+        <v>13087</v>
+      </c>
+      <c r="L114" t="n">
+        <v>3955</v>
+      </c>
+      <c r="M114" t="n">
+        <v>180</v>
+      </c>
+      <c r="N114" t="n">
+        <v>15772</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1</v>
+      </c>
+      <c r="P114" t="n">
+        <v>133</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>1216</v>
+      </c>
+      <c r="R114" t="n">
+        <v>1072</v>
+      </c>
+      <c r="S114"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -6636,6 +6636,63 @@
       </c>
       <c r="S114"/>
     </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1424</v>
+      </c>
+      <c r="C115" t="n">
+        <v>63</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1153</v>
+      </c>
+      <c r="E115" t="n">
+        <v>45</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2685</v>
+      </c>
+      <c r="G115" t="n">
+        <v>33</v>
+      </c>
+      <c r="H115" t="n">
+        <v>30</v>
+      </c>
+      <c r="I115" t="n">
+        <v>63</v>
+      </c>
+      <c r="J115" t="n">
+        <v>19727</v>
+      </c>
+      <c r="K115" t="n">
+        <v>13087</v>
+      </c>
+      <c r="L115" t="n">
+        <v>3955</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>15772</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>1216</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
+      <c r="S115"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -6693,6 +6693,63 @@
       </c>
       <c r="S115"/>
     </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1424</v>
+      </c>
+      <c r="C116" t="n">
+        <v>63</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1153</v>
+      </c>
+      <c r="E116" t="n">
+        <v>45</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2685</v>
+      </c>
+      <c r="G116" t="n">
+        <v>33</v>
+      </c>
+      <c r="H116" t="n">
+        <v>30</v>
+      </c>
+      <c r="I116" t="n">
+        <v>63</v>
+      </c>
+      <c r="J116" t="n">
+        <v>19727</v>
+      </c>
+      <c r="K116" t="n">
+        <v>13087</v>
+      </c>
+      <c r="L116" t="n">
+        <v>3955</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>15772</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>1216</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
+      <c r="S116"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -6750,6 +6750,120 @@
       </c>
       <c r="S116"/>
     </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1873</v>
+      </c>
+      <c r="C117" t="n">
+        <v>67</v>
+      </c>
+      <c r="D117" t="n">
+        <v>986</v>
+      </c>
+      <c r="E117" t="n">
+        <v>47</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2973</v>
+      </c>
+      <c r="G117" t="n">
+        <v>37</v>
+      </c>
+      <c r="H117" t="n">
+        <v>30</v>
+      </c>
+      <c r="I117" t="n">
+        <v>67</v>
+      </c>
+      <c r="J117" t="n">
+        <v>21036</v>
+      </c>
+      <c r="K117" t="n">
+        <v>14010</v>
+      </c>
+      <c r="L117" t="n">
+        <v>4053</v>
+      </c>
+      <c r="M117" t="n">
+        <v>288</v>
+      </c>
+      <c r="N117" t="n">
+        <v>16983</v>
+      </c>
+      <c r="O117" t="n">
+        <v>2</v>
+      </c>
+      <c r="P117" t="n">
+        <v>449</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1053</v>
+      </c>
+      <c r="R117" t="n">
+        <v>1211</v>
+      </c>
+      <c r="S117"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2095</v>
+      </c>
+      <c r="C118" t="n">
+        <v>77</v>
+      </c>
+      <c r="D118" t="n">
+        <v>945</v>
+      </c>
+      <c r="E118" t="n">
+        <v>49</v>
+      </c>
+      <c r="F118" t="n">
+        <v>3166</v>
+      </c>
+      <c r="G118" t="n">
+        <v>42</v>
+      </c>
+      <c r="H118" t="n">
+        <v>35</v>
+      </c>
+      <c r="I118" t="n">
+        <v>77</v>
+      </c>
+      <c r="J118" t="n">
+        <v>22031</v>
+      </c>
+      <c r="K118" t="n">
+        <v>14712</v>
+      </c>
+      <c r="L118" t="n">
+        <v>4153</v>
+      </c>
+      <c r="M118" t="n">
+        <v>193</v>
+      </c>
+      <c r="N118" t="n">
+        <v>17878</v>
+      </c>
+      <c r="O118" t="n">
+        <v>2</v>
+      </c>
+      <c r="P118" t="n">
+        <v>222</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>1022</v>
+      </c>
+      <c r="R118" t="n">
+        <v>895</v>
+      </c>
+      <c r="S118"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -6864,6 +6864,63 @@
       </c>
       <c r="S118"/>
     </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2189</v>
+      </c>
+      <c r="C119" t="n">
+        <v>83</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1033</v>
+      </c>
+      <c r="E119" t="n">
+        <v>49</v>
+      </c>
+      <c r="F119" t="n">
+        <v>3354</v>
+      </c>
+      <c r="G119" t="n">
+        <v>46</v>
+      </c>
+      <c r="H119" t="n">
+        <v>37</v>
+      </c>
+      <c r="I119" t="n">
+        <v>83</v>
+      </c>
+      <c r="J119" t="n">
+        <v>22894</v>
+      </c>
+      <c r="K119" t="n">
+        <v>15254</v>
+      </c>
+      <c r="L119" t="n">
+        <v>4286</v>
+      </c>
+      <c r="M119" t="n">
+        <v>188</v>
+      </c>
+      <c r="N119" t="n">
+        <v>18608</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>94</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>1116</v>
+      </c>
+      <c r="R119" t="n">
+        <v>730</v>
+      </c>
+      <c r="S119"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -6921,6 +6921,63 @@
       </c>
       <c r="S119"/>
     </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2245</v>
+      </c>
+      <c r="C120" t="n">
+        <v>92</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1091</v>
+      </c>
+      <c r="E120" t="n">
+        <v>51</v>
+      </c>
+      <c r="F120" t="n">
+        <v>3479</v>
+      </c>
+      <c r="G120" t="n">
+        <v>43</v>
+      </c>
+      <c r="H120" t="n">
+        <v>49</v>
+      </c>
+      <c r="I120" t="n">
+        <v>92</v>
+      </c>
+      <c r="J120" t="n">
+        <v>23850</v>
+      </c>
+      <c r="K120" t="n">
+        <v>16028</v>
+      </c>
+      <c r="L120" t="n">
+        <v>4343</v>
+      </c>
+      <c r="M120" t="n">
+        <v>125</v>
+      </c>
+      <c r="N120" t="n">
+        <v>19507</v>
+      </c>
+      <c r="O120" t="n">
+        <v>2</v>
+      </c>
+      <c r="P120" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>1183</v>
+      </c>
+      <c r="R120" t="n">
+        <v>899</v>
+      </c>
+      <c r="S120"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -6978,6 +6978,63 @@
       </c>
       <c r="S120"/>
     </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2281</v>
+      </c>
+      <c r="C121" t="n">
+        <v>101</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1225</v>
+      </c>
+      <c r="E121" t="n">
+        <v>51</v>
+      </c>
+      <c r="F121" t="n">
+        <v>3658</v>
+      </c>
+      <c r="G121" t="n">
+        <v>51</v>
+      </c>
+      <c r="H121" t="n">
+        <v>50</v>
+      </c>
+      <c r="I121" t="n">
+        <v>101</v>
+      </c>
+      <c r="J121" t="n">
+        <v>24459</v>
+      </c>
+      <c r="K121" t="n">
+        <v>16430</v>
+      </c>
+      <c r="L121" t="n">
+        <v>4371</v>
+      </c>
+      <c r="M121" t="n">
+        <v>179</v>
+      </c>
+      <c r="N121" t="n">
+        <v>20088</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>1326</v>
+      </c>
+      <c r="R121" t="n">
+        <v>581</v>
+      </c>
+      <c r="S121"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -7035,6 +7035,120 @@
       </c>
       <c r="S121"/>
     </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2281</v>
+      </c>
+      <c r="C122" t="n">
+        <v>101</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1225</v>
+      </c>
+      <c r="E122" t="n">
+        <v>51</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3658</v>
+      </c>
+      <c r="G122" t="n">
+        <v>51</v>
+      </c>
+      <c r="H122" t="n">
+        <v>50</v>
+      </c>
+      <c r="I122" t="n">
+        <v>101</v>
+      </c>
+      <c r="J122" t="n">
+        <v>24459</v>
+      </c>
+      <c r="K122" t="n">
+        <v>16430</v>
+      </c>
+      <c r="L122" t="n">
+        <v>4371</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>20088</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>1326</v>
+      </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
+      <c r="S122"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2281</v>
+      </c>
+      <c r="C123" t="n">
+        <v>101</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1225</v>
+      </c>
+      <c r="E123" t="n">
+        <v>51</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3658</v>
+      </c>
+      <c r="G123" t="n">
+        <v>51</v>
+      </c>
+      <c r="H123" t="n">
+        <v>50</v>
+      </c>
+      <c r="I123" t="n">
+        <v>101</v>
+      </c>
+      <c r="J123" t="n">
+        <v>24459</v>
+      </c>
+      <c r="K123" t="n">
+        <v>16430</v>
+      </c>
+      <c r="L123" t="n">
+        <v>4371</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>20088</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>1326</v>
+      </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
+      <c r="S123"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -7149,6 +7149,63 @@
       </c>
       <c r="S123"/>
     </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2430</v>
+      </c>
+      <c r="C124" t="n">
+        <v>118</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1392</v>
+      </c>
+      <c r="E124" t="n">
+        <v>62</v>
+      </c>
+      <c r="F124" t="n">
+        <v>4002</v>
+      </c>
+      <c r="G124" t="n">
+        <v>62</v>
+      </c>
+      <c r="H124" t="n">
+        <v>56</v>
+      </c>
+      <c r="I124" t="n">
+        <v>118</v>
+      </c>
+      <c r="J124" t="n">
+        <v>25505</v>
+      </c>
+      <c r="K124" t="n">
+        <v>17283</v>
+      </c>
+      <c r="L124" t="n">
+        <v>4220</v>
+      </c>
+      <c r="M124" t="n">
+        <v>344</v>
+      </c>
+      <c r="N124" t="n">
+        <v>21285</v>
+      </c>
+      <c r="O124" t="n">
+        <v>11</v>
+      </c>
+      <c r="P124" t="n">
+        <v>149</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>1510</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1197</v>
+      </c>
+      <c r="S124"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -7206,6 +7206,63 @@
       </c>
       <c r="S124"/>
     </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2545</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1414</v>
+      </c>
+      <c r="E125" t="n">
+        <v>64</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4146</v>
+      </c>
+      <c r="G125" t="n">
+        <v>67</v>
+      </c>
+      <c r="H125" t="n">
+        <v>56</v>
+      </c>
+      <c r="I125" t="n">
+        <v>123</v>
+      </c>
+      <c r="J125" t="n">
+        <v>26102</v>
+      </c>
+      <c r="K125" t="n">
+        <v>17675</v>
+      </c>
+      <c r="L125" t="n">
+        <v>4281</v>
+      </c>
+      <c r="M125" t="n">
+        <v>144</v>
+      </c>
+      <c r="N125" t="n">
+        <v>21821</v>
+      </c>
+      <c r="O125" t="n">
+        <v>2</v>
+      </c>
+      <c r="P125" t="n">
+        <v>115</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>1537</v>
+      </c>
+      <c r="R125" t="n">
+        <v>536</v>
+      </c>
+      <c r="S125"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -7263,6 +7263,63 @@
       </c>
       <c r="S125"/>
     </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2646</v>
+      </c>
+      <c r="C126" t="n">
+        <v>131</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1465</v>
+      </c>
+      <c r="E126" t="n">
+        <v>65</v>
+      </c>
+      <c r="F126" t="n">
+        <v>4307</v>
+      </c>
+      <c r="G126" t="n">
+        <v>68</v>
+      </c>
+      <c r="H126" t="n">
+        <v>63</v>
+      </c>
+      <c r="I126" t="n">
+        <v>131</v>
+      </c>
+      <c r="J126" t="n">
+        <v>26775</v>
+      </c>
+      <c r="K126" t="n">
+        <v>48169</v>
+      </c>
+      <c r="L126" t="n">
+        <v>4299</v>
+      </c>
+      <c r="M126" t="n">
+        <v>161</v>
+      </c>
+      <c r="N126" t="n">
+        <v>22476</v>
+      </c>
+      <c r="O126" t="n">
+        <v>1</v>
+      </c>
+      <c r="P126" t="n">
+        <v>101</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>1596</v>
+      </c>
+      <c r="R126" t="n">
+        <v>655</v>
+      </c>
+      <c r="S126"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -7320,6 +7320,63 @@
       </c>
       <c r="S126"/>
     </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2686</v>
+      </c>
+      <c r="C127" t="n">
+        <v>134</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1523</v>
+      </c>
+      <c r="E127" t="n">
+        <v>70</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4413</v>
+      </c>
+      <c r="G127" t="n">
+        <v>63</v>
+      </c>
+      <c r="H127" t="n">
+        <v>71</v>
+      </c>
+      <c r="I127" t="n">
+        <v>134</v>
+      </c>
+      <c r="J127" t="n">
+        <v>27464</v>
+      </c>
+      <c r="K127" t="n">
+        <v>18720</v>
+      </c>
+      <c r="L127" t="n">
+        <v>4331</v>
+      </c>
+      <c r="M127" t="n">
+        <v>106</v>
+      </c>
+      <c r="N127" t="n">
+        <v>23133</v>
+      </c>
+      <c r="O127" t="n">
+        <v>5</v>
+      </c>
+      <c r="P127" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>1657</v>
+      </c>
+      <c r="R127" t="n">
+        <v>657</v>
+      </c>
+      <c r="S127"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -7377,6 +7377,63 @@
       </c>
       <c r="S127"/>
     </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2731</v>
+      </c>
+      <c r="C128" t="n">
+        <v>130</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1544</v>
+      </c>
+      <c r="E128" t="n">
+        <v>79</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4484</v>
+      </c>
+      <c r="G128" t="n">
+        <v>62</v>
+      </c>
+      <c r="H128" t="n">
+        <v>68</v>
+      </c>
+      <c r="I128" t="n">
+        <v>130</v>
+      </c>
+      <c r="J128" t="n">
+        <v>27973</v>
+      </c>
+      <c r="K128" t="n">
+        <v>19156</v>
+      </c>
+      <c r="L128" t="n">
+        <v>4333</v>
+      </c>
+      <c r="M128" t="n">
+        <v>71</v>
+      </c>
+      <c r="N128" t="n">
+        <v>23640</v>
+      </c>
+      <c r="O128" t="n">
+        <v>9</v>
+      </c>
+      <c r="P128" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>1674</v>
+      </c>
+      <c r="R128" t="n">
+        <v>507</v>
+      </c>
+      <c r="S128"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -7434,6 +7434,177 @@
       </c>
       <c r="S128"/>
     </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2731</v>
+      </c>
+      <c r="C129" t="n">
+        <v>130</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1544</v>
+      </c>
+      <c r="E129" t="n">
+        <v>79</v>
+      </c>
+      <c r="F129" t="n">
+        <v>4484</v>
+      </c>
+      <c r="G129" t="n">
+        <v>62</v>
+      </c>
+      <c r="H129" t="n">
+        <v>68</v>
+      </c>
+      <c r="I129" t="n">
+        <v>130</v>
+      </c>
+      <c r="J129" t="n">
+        <v>27973</v>
+      </c>
+      <c r="K129" t="n">
+        <v>19156</v>
+      </c>
+      <c r="L129" t="n">
+        <v>4333</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>23640</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>1674</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0</v>
+      </c>
+      <c r="S129"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2731</v>
+      </c>
+      <c r="C130" t="n">
+        <v>130</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1544</v>
+      </c>
+      <c r="E130" t="n">
+        <v>79</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4484</v>
+      </c>
+      <c r="G130" t="n">
+        <v>62</v>
+      </c>
+      <c r="H130" t="n">
+        <v>68</v>
+      </c>
+      <c r="I130" t="n">
+        <v>130</v>
+      </c>
+      <c r="J130" t="n">
+        <v>27973</v>
+      </c>
+      <c r="K130" t="n">
+        <v>19156</v>
+      </c>
+      <c r="L130" t="n">
+        <v>4333</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>23640</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>1674</v>
+      </c>
+      <c r="R130" t="n">
+        <v>0</v>
+      </c>
+      <c r="S130"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2731</v>
+      </c>
+      <c r="C131" t="n">
+        <v>166</v>
+      </c>
+      <c r="D131" t="n">
+        <v>2151</v>
+      </c>
+      <c r="E131" t="n">
+        <v>90</v>
+      </c>
+      <c r="F131" t="n">
+        <v>5138</v>
+      </c>
+      <c r="G131" t="n">
+        <v>75</v>
+      </c>
+      <c r="H131" t="n">
+        <v>91</v>
+      </c>
+      <c r="I131" t="n">
+        <v>166</v>
+      </c>
+      <c r="J131" t="n">
+        <v>30453</v>
+      </c>
+      <c r="K131" t="n">
+        <v>20541</v>
+      </c>
+      <c r="L131" t="n">
+        <v>4774</v>
+      </c>
+      <c r="M131" t="n">
+        <v>654</v>
+      </c>
+      <c r="N131" t="n">
+        <v>25679</v>
+      </c>
+      <c r="O131" t="n">
+        <v>11</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>2317</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2039</v>
+      </c>
+      <c r="S131"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -7605,6 +7605,63 @@
       </c>
       <c r="S131"/>
     </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2779</v>
+      </c>
+      <c r="C132" t="n">
+        <v>172</v>
+      </c>
+      <c r="D132" t="n">
+        <v>2353</v>
+      </c>
+      <c r="E132" t="n">
+        <v>97</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5401</v>
+      </c>
+      <c r="G132" t="n">
+        <v>82</v>
+      </c>
+      <c r="H132" t="n">
+        <v>90</v>
+      </c>
+      <c r="I132" t="n">
+        <v>172</v>
+      </c>
+      <c r="J132" t="n">
+        <v>30798</v>
+      </c>
+      <c r="K132" t="n">
+        <v>20767</v>
+      </c>
+      <c r="L132" t="n">
+        <v>4630</v>
+      </c>
+      <c r="M132" t="n">
+        <v>263</v>
+      </c>
+      <c r="N132" t="n">
+        <v>26168</v>
+      </c>
+      <c r="O132" t="n">
+        <v>7</v>
+      </c>
+      <c r="P132" t="n">
+        <v>48</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>2525</v>
+      </c>
+      <c r="R132" t="n">
+        <v>489</v>
+      </c>
+      <c r="S132"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -6235,7 +6235,9 @@
       <c r="R107" t="n">
         <v>761</v>
       </c>
-      <c r="S107"/>
+      <c r="S107" t="n">
+        <v>751</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -6634,7 +6636,9 @@
       <c r="R114" t="n">
         <v>1072</v>
       </c>
-      <c r="S114"/>
+      <c r="S114" t="n">
+        <v>986</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -7033,7 +7037,9 @@
       <c r="R121" t="n">
         <v>581</v>
       </c>
-      <c r="S121"/>
+      <c r="S121" t="n">
+        <v>973</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -7432,7 +7438,9 @@
       <c r="R128" t="n">
         <v>507</v>
       </c>
-      <c r="S128"/>
+      <c r="S128" t="n">
+        <v>826</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -7661,6 +7669,63 @@
         <v>489</v>
       </c>
       <c r="S132"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2968</v>
+      </c>
+      <c r="C133" t="n">
+        <v>177</v>
+      </c>
+      <c r="D133" t="n">
+        <v>2829</v>
+      </c>
+      <c r="E133" t="n">
+        <v>99</v>
+      </c>
+      <c r="F133" t="n">
+        <v>6073</v>
+      </c>
+      <c r="G133" t="n">
+        <v>85</v>
+      </c>
+      <c r="H133" t="n">
+        <v>92</v>
+      </c>
+      <c r="I133" t="n">
+        <v>177</v>
+      </c>
+      <c r="J133" t="n">
+        <v>32694</v>
+      </c>
+      <c r="K133" t="n">
+        <v>21979</v>
+      </c>
+      <c r="L133" t="n">
+        <v>4642</v>
+      </c>
+      <c r="M133" t="n">
+        <v>672</v>
+      </c>
+      <c r="N133" t="n">
+        <v>28052</v>
+      </c>
+      <c r="O133" t="n">
+        <v>2</v>
+      </c>
+      <c r="P133" t="n">
+        <v>189</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>3006</v>
+      </c>
+      <c r="R133" t="n">
+        <v>1884</v>
+      </c>
+      <c r="S133"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -7727,6 +7727,63 @@
       </c>
       <c r="S133"/>
     </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>3050</v>
+      </c>
+      <c r="C134" t="n">
+        <v>174</v>
+      </c>
+      <c r="D134" t="n">
+        <v>3040</v>
+      </c>
+      <c r="E134" t="n">
+        <v>103</v>
+      </c>
+      <c r="F134" t="n">
+        <v>6367</v>
+      </c>
+      <c r="G134" t="n">
+        <v>82</v>
+      </c>
+      <c r="H134" t="n">
+        <v>92</v>
+      </c>
+      <c r="I134" t="n">
+        <v>174</v>
+      </c>
+      <c r="J134" t="n">
+        <v>33752</v>
+      </c>
+      <c r="K134" t="n">
+        <v>22661</v>
+      </c>
+      <c r="L134" t="n">
+        <v>4724</v>
+      </c>
+      <c r="M134" t="n">
+        <v>294</v>
+      </c>
+      <c r="N134" t="n">
+        <v>29028</v>
+      </c>
+      <c r="O134" t="n">
+        <v>4</v>
+      </c>
+      <c r="P134" t="n">
+        <v>82</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>3214</v>
+      </c>
+      <c r="R134" t="n">
+        <v>976</v>
+      </c>
+      <c r="S134"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/Datasets/JLLE_COVID_hoje.xlsx
+++ b/Datasets/JLLE_COVID_hoje.xlsx
@@ -7784,6 +7784,63 @@
       </c>
       <c r="S134"/>
     </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>3245</v>
+      </c>
+      <c r="C135" t="n">
+        <v>178</v>
+      </c>
+      <c r="D135" t="n">
+        <v>3150</v>
+      </c>
+      <c r="E135" t="n">
+        <v>105</v>
+      </c>
+      <c r="F135" t="n">
+        <v>6678</v>
+      </c>
+      <c r="G135" t="n">
+        <v>84</v>
+      </c>
+      <c r="H135" t="n">
+        <v>94</v>
+      </c>
+      <c r="I135" t="n">
+        <v>178</v>
+      </c>
+      <c r="J135" t="n">
+        <v>34932</v>
+      </c>
+      <c r="K135" t="n">
+        <v>23469</v>
+      </c>
+      <c r="L135" t="n">
+        <v>4785</v>
+      </c>
+      <c r="M135" t="n">
+        <v>311</v>
+      </c>
+      <c r="N135" t="n">
+        <v>30147</v>
+      </c>
+      <c r="O135" t="n">
+        <v>2</v>
+      </c>
+      <c r="P135" t="n">
+        <v>195</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>3328</v>
+      </c>
+      <c r="R135" t="n">
+        <v>1119</v>
+      </c>
+      <c r="S135"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
